--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\estimate for pahiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\school lilaami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">M!$1:$8</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="125">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -434,25 +434,13 @@
     <t xml:space="preserve">Project:- </t>
   </si>
   <si>
-    <t>Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 450 mm  internal dia.</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>Providing and laying  local/ washing sub-base   on prepared surface, mixing  at OMC, and compacting  to achieve the desired density, complete as per Drawing and Technical Specifications., By Mechanical means</t>
-  </si>
-  <si>
-    <t>-For hume pipe laying</t>
-  </si>
-  <si>
-    <t>e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df</t>
-  </si>
-  <si>
-    <t>-For roadside drain mangaal</t>
-  </si>
-  <si>
-    <t>Square Frame medium duty C.I. Manhole cover Including frame 24"*24" (24Kg)</t>
+    <t>Block 1</t>
+  </si>
+  <si>
+    <t>l;d]G6 jf jh|df hf]8]sf] uf/f] eTsfO{ To;af6 cfPsf] ;fdfu+|L !) dL</t>
+  </si>
+  <si>
+    <t>-Block 1</t>
   </si>
 </sst>
 </file>
@@ -599,10 +587,11 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Preeti"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,12 +667,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +859,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1026,7 +1009,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1121,10 +1103,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,21 +1135,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,26 +1171,118 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1208,121 +1303,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2083,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE42"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,116 +2101,116 @@
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2252,773 +2245,434 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="46">
-        <v>10</v>
-      </c>
-      <c r="D10" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="31">
-        <f>23/12/3.281</f>
-        <v>0.58417149243116939</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>10.953215483084426</v>
-      </c>
+      <c r="B10" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="32"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="163"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
-      <c r="B11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="166" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="33">
-        <f>SUM(G10:G10)</f>
-        <v>10.953215483084426</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="33">
-        <v>64.63</v>
-      </c>
-      <c r="J11" s="39">
-        <f>G11*I11</f>
-        <v>707.90631667174637</v>
-      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="161"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="31"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="32"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="39">
-        <f>0.13*G11*19284/360</f>
-        <v>76.274541552372256</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="161"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>2</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>122</v>
-      </c>
+      <c r="N13" s="161"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="52"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="46">
-        <v>10</v>
-      </c>
-      <c r="D15" s="30">
-        <v>2.5</v>
-      </c>
+      <c r="N14" s="161"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="40">
-        <f>PRODUCT(C15:F15)</f>
-        <v>25</v>
-      </c>
+      <c r="G15" s="39"/>
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="161"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="31"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="33">
-        <f>SUM(G15:G15)</f>
-        <v>25</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="33">
-        <v>5144.96</v>
-      </c>
-      <c r="J16" s="39">
-        <f>G16*I16</f>
-        <v>128624</v>
-      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="161"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="31"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="39">
-        <f>0.13*G16*57364.6/12.5</f>
-        <v>14914.795999999998</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="161"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="32"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="N18" s="161"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="4"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <f>SUM(J10:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="M20" s="44"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="59"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+    </row>
+    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="95">
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="15">
+        <v>100</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="99">
+        <v>150000</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="15"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="99">
+        <f>C23-C26-C27</f>
+        <v>142500</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="15" t="e">
+        <f>C24/C22*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="101">
+        <f>C22-C24</f>
+        <v>-142500</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="15" t="e">
+        <f>100-E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="95">
+        <f>C23*0.03</f>
+        <v>4500</v>
+      </c>
+      <c r="D26" s="96"/>
+      <c r="E26" s="15">
         <v>3</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="46">
-        <v>1</v>
-      </c>
-      <c r="D20" s="30">
-        <f>10*2.5+5</f>
-        <v>30</v>
-      </c>
-      <c r="E20" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="40">
-        <f>PRODUCT(C20:F20)</f>
-        <v>6.75</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="33">
-        <f>SUM(G20:G20)</f>
-        <v>6.75</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="33">
-        <v>1693.85</v>
-      </c>
-      <c r="J21" s="39">
-        <f>G21*I21</f>
-        <v>11433.487499999999</v>
-      </c>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="39">
-        <f>0.13*G21*446551.8/300</f>
-        <v>1306.1640150000001</v>
-      </c>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>4</v>
-      </c>
-      <c r="B24" s="162" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="46">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30">
-        <f>0.6+0.6+(0.6+0.23+0.23)*2</f>
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="E25" s="31">
-        <v>0.23</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="40">
-        <f>PRODUCT(C25:F25)</f>
-        <v>0.38180000000000003</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="33">
-        <f>SUM(G25:G25)</f>
-        <v>0.38180000000000003</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="33">
-        <v>14362.76</v>
-      </c>
-      <c r="J26" s="39">
-        <f>G26*I26</f>
-        <v>5483.7017680000008</v>
-      </c>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="39">
-        <f>0.13*G26*10311.74</f>
-        <v>511.81290316000002</v>
-      </c>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>5</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="31">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="33">
-        <v>1</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="33">
-        <f>SUM(G29:G29)</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="33">
-        <v>4659</v>
-      </c>
-      <c r="J30" s="39">
-        <f>G30*I30</f>
-        <v>4659</v>
-      </c>
-      <c r="K30" s="31"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="39">
-        <f>0.13*J30</f>
-        <v>605.67000000000007</v>
-      </c>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="31"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>6</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="29">
-        <v>1</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="39">
-        <f>PRODUCT(C33:F33)</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="33">
-        <v>500</v>
-      </c>
-      <c r="J33" s="8">
-        <f>G33*I33</f>
-        <v>500</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="4"/>
-      <c r="M34" s="44"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8">
-        <f>SUM(J14:J34)</f>
-        <v>168038.63218615999</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="M35" s="44"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="59"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-    </row>
-    <row r="37" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="102">
-        <f>J35</f>
-        <v>168038.63218615999</v>
-      </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="15">
-        <v>100</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="105">
-        <v>150000</v>
-      </c>
-      <c r="D38" s="106"/>
-      <c r="E38" s="15"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="105">
-        <f>C38-C41-C42</f>
-        <v>142500</v>
-      </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="15">
-        <f>C39/C37*100</f>
-        <v>84.801928072190407</v>
-      </c>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="107">
-        <f>C37-C39</f>
-        <v>25538.632186159986</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="15">
-        <f>100-E39</f>
-        <v>15.198071927809593</v>
-      </c>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="102">
-        <f>C38*0.03</f>
-        <v>4500</v>
-      </c>
-      <c r="D41" s="103"/>
-      <c r="E41" s="15">
-        <v>3</v>
-      </c>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="102">
-        <f>C38*0.02</f>
+      <c r="C27" s="95">
+        <f>C23*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="15">
+      <c r="D27" s="96"/>
+      <c r="E27" s="15">
         <v>2</v>
       </c>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -3026,6 +2680,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3063,90 +2725,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="108" t="e">
+      <c r="C6" s="114" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3154,11 +2816,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="108">
+      <c r="J6" s="114">
         <f>I30</f>
-        <v>238189.74252963794</v>
-      </c>
-      <c r="K6" s="109"/>
+        <v>237689.74252963794</v>
+      </c>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -3167,77 +2829,77 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="I7" s="117" t="s">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="I7" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="109" t="str">
         <f>V!A6</f>
         <v>Project:- कालिका मन्दिर मुनि ढल व्यवस्थापन स्तरोन्नति</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="I8" s="118" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="I8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="str">
+      <c r="A9" s="109" t="str">
         <f>V!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="I9" s="118" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="I9" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="113" t="s">
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="108" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -3256,33 +2918,33 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
-        <f>new!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="42" t="str">
-        <f>new!B9</f>
-        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
-      </c>
-      <c r="C13" s="15" t="str">
-        <f>new!H11</f>
-        <v>cum</v>
-      </c>
-      <c r="D13" s="15">
-        <f>new!G11</f>
-        <v>10.953215483084426</v>
-      </c>
-      <c r="E13" s="15">
-        <f>new!I11</f>
-        <v>64.63</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="A13" s="36" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B13" s="42" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="15" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="15" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="15" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="15" t="e">
         <f>D13*E13</f>
-        <v>707.90631667174637</v>
+        <v>#REF!</v>
       </c>
       <c r="G13" s="15">
         <f>V!G11</f>
@@ -3296,28 +2958,28 @@
         <f>G13*H13</f>
         <v>972.40876348674203</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="37" t="e">
         <f>I13-F13</f>
-        <v>264.50244681499566</v>
+        <v>#REF!</v>
       </c>
       <c r="K13" s="18"/>
-      <c r="M13" s="1">
+      <c r="M13" s="1" t="e">
         <f t="shared" ref="M13:M18" si="0">1.25*F13</f>
-        <v>884.88289583968299</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
-      <c r="B14" s="50" t="str">
-        <f>new!B12</f>
-        <v>VAT 13% for material</v>
+      <c r="B14" s="50" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15">
-        <f>new!J12</f>
-        <v>76.274541552372256</v>
+      <c r="F14" s="15" t="e">
+        <f>new!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -3325,14 +2987,14 @@
         <f>V!J12</f>
         <v>104.32515066290767</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="37" t="e">
         <f>I14-F14</f>
-        <v>28.050609110535419</v>
+        <v>#REF!</v>
       </c>
       <c r="K14" s="18"/>
-      <c r="M14" s="1">
+      <c r="M14" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>95.343176940465327</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3603,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -3690,20 +3352,20 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
-        <f>new!A33</f>
-        <v>6</v>
+        <f>new!A10</f>
+        <v>1</v>
       </c>
       <c r="B28" s="42" t="str">
-        <f>new!B33</f>
-        <v>Information board</v>
-      </c>
-      <c r="C28" s="15" t="str">
-        <f>new!H33</f>
-        <v>no.</v>
+        <f>new!B10</f>
+        <v>l;d]G6 jf jh|df hf]8]sf] uf/f] eTsfO{ To;af6 cfPsf] ;fdfu+|L !) dL</v>
+      </c>
+      <c r="C28" s="15">
+        <f>new!H10</f>
+        <v>0</v>
       </c>
       <c r="D28" s="15">
-        <f>new!G33</f>
-        <v>1</v>
+        <f>new!G10</f>
+        <v>0</v>
       </c>
       <c r="E28" s="15">
         <f>V!I58</f>
@@ -3711,11 +3373,11 @@
       </c>
       <c r="F28" s="15">
         <f>D28*E28</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="15">
-        <f>new!G33</f>
-        <v>1</v>
+        <f>new!G10</f>
+        <v>0</v>
       </c>
       <c r="H28" s="15">
         <f>V!I58</f>
@@ -3723,7 +3385,7 @@
       </c>
       <c r="I28" s="15">
         <f>G28*H28</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J28" s="37">
         <f>I28-F28</f>
@@ -3760,7 +3422,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8">
         <f>SUM(I13:I29)</f>
-        <v>238189.74252963794</v>
+        <v>237689.74252963794</v>
       </c>
       <c r="J30" s="16" t="e">
         <f>I30-F30</f>
@@ -3770,6 +3432,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -3783,13 +3452,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3839,113 +3501,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -4007,19 +3669,19 @@
       <c r="P9" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="93" t="s">
+      <c r="Q9" s="92" t="s">
         <v>9</v>
       </c>
       <c r="R9" t="s">
         <v>109</v>
       </c>
-      <c r="S9" s="93" t="s">
+      <c r="S9" s="92" t="s">
         <v>10</v>
       </c>
       <c r="T9" t="s">
         <v>110</v>
       </c>
-      <c r="U9" s="95" t="s">
+      <c r="U9" s="94" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4630,9 +4292,9 @@
       <c r="I25" s="33"/>
       <c r="J25" s="39"/>
       <c r="K25" s="31"/>
-      <c r="Q25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="U25" s="94"/>
+      <c r="Q25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="U25" s="93"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
@@ -4660,9 +4322,9 @@
       <c r="I26" s="33"/>
       <c r="J26" s="39"/>
       <c r="K26" s="31"/>
-      <c r="Q26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="U26" s="94"/>
+      <c r="Q26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="U26" s="93"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
@@ -4690,9 +4352,9 @@
       <c r="I27" s="33"/>
       <c r="J27" s="39"/>
       <c r="K27" s="31"/>
-      <c r="Q27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="U27" s="94"/>
+      <c r="Q27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="U27" s="93"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
@@ -4720,9 +4382,9 @@
       <c r="I28" s="33"/>
       <c r="J28" s="39"/>
       <c r="K28" s="31"/>
-      <c r="Q28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="U28" s="94"/>
+      <c r="Q28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="U28" s="93"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
@@ -4750,9 +4412,9 @@
       <c r="I29" s="33"/>
       <c r="J29" s="39"/>
       <c r="K29" s="31"/>
-      <c r="Q29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="U29" s="94"/>
+      <c r="Q29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="U29" s="93"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
@@ -4781,9 +4443,9 @@
       <c r="J30" s="39"/>
       <c r="K30" s="31"/>
       <c r="O30" s="59"/>
-      <c r="Q30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="U30" s="94"/>
+      <c r="Q30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="U30" s="93"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
@@ -4812,9 +4474,9 @@
       <c r="J31" s="39"/>
       <c r="K31" s="31"/>
       <c r="O31" s="59"/>
-      <c r="Q31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="U31" s="94"/>
+      <c r="Q31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="U31" s="93"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
@@ -4842,9 +4504,9 @@
       <c r="I32" s="33"/>
       <c r="J32" s="39"/>
       <c r="K32" s="31"/>
-      <c r="Q32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="U32" s="94"/>
+      <c r="Q32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="U32" s="93"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
@@ -5563,11 +5225,11 @@
       <c r="B62" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="102">
+      <c r="C62" s="95">
         <f>J60</f>
         <v>238189.74252963794</v>
       </c>
-      <c r="D62" s="103"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="15">
         <v>100</v>
       </c>
@@ -5605,10 +5267,10 @@
       <c r="B63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="105">
+      <c r="C63" s="99">
         <v>210000</v>
       </c>
-      <c r="D63" s="106"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="15"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -5638,11 +5300,11 @@
       <c r="B64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="105">
+      <c r="C64" s="99">
         <f>C63-C66-C67</f>
         <v>199500</v>
       </c>
-      <c r="D64" s="106"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="15">
         <f>C64/C62*100</f>
         <v>83.756755383862185</v>
@@ -5675,11 +5337,11 @@
       <c r="B65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="107">
+      <c r="C65" s="101">
         <f>C62-C64</f>
         <v>38689.742529637937</v>
       </c>
-      <c r="D65" s="107"/>
+      <c r="D65" s="101"/>
       <c r="E65" s="15">
         <f>100-E64</f>
         <v>16.243244616137815</v>
@@ -5712,11 +5374,11 @@
       <c r="B66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="102">
+      <c r="C66" s="95">
         <f>C63*0.03</f>
         <v>6300</v>
       </c>
-      <c r="D66" s="103"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="15">
         <v>3</v>
       </c>
@@ -5748,11 +5410,11 @@
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="102">
+      <c r="C67" s="95">
         <f>C63*0.02</f>
         <v>4200</v>
       </c>
-      <c r="D67" s="103"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="15">
         <v>2</v>
       </c>
@@ -5782,13 +5444,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A7:F7"/>
@@ -5797,6 +5452,13 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5821,656 +5483,656 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="122" t="s">
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="157" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="122"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="157"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="122"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="157"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125" t="s">
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125" t="s">
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125" t="s">
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="159"/>
+      <c r="B5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="71" t="s">
+      <c r="U5" s="70" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>1</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="68">
         <f>skilled</f>
         <v>1200</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="72">
         <f>(D6*E6)</f>
         <v>1200</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="69" t="s">
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="68">
         <v>6</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="68">
         <f>excavator</f>
         <v>3071</v>
       </c>
-      <c r="P6" s="73">
+      <c r="P6" s="72">
         <f>(N6*O6)</f>
         <v>18426</v>
       </c>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="76"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="75"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>3</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="68">
         <f>unskilled</f>
         <v>900</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="72">
         <f>(D7*E7)</f>
         <v>2700</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="76"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="75"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="73">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="72">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="73">
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="72">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="73">
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="72">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="126" t="s">
+      <c r="Q8" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="77">
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="76">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="73">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="72">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="73">
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="72">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="126" t="s">
+      <c r="L9" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="73">
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="72">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="126" t="s">
+      <c r="Q9" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="77">
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="76">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="126" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="78">
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="77">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="135" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="144" t="s">
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="145" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="140"/>
-      <c r="U13" s="145"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="146"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="146"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="147"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="151" t="s">
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="151" t="s">
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="151" t="s">
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="154"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="79" t="s">
+      <c r="A16" s="151"/>
+      <c r="B16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="79" t="s">
+      <c r="N16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="79" t="s">
+      <c r="O16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="79" t="s">
+      <c r="Q16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="79" t="s">
+      <c r="R16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="79" t="s">
+      <c r="S16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="79" t="s">
+      <c r="T16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="81" t="s">
+      <c r="U16" s="80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="78">
         <v>3</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="78">
         <f>skilled</f>
         <v>1200</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="82">
         <f>(D17*E17)</f>
         <v>3600</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="79">
+      <c r="I17" s="78">
         <v>6</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="83">
         <v>2469.6</v>
       </c>
-      <c r="K17" s="79">
+      <c r="K17" s="78">
         <f>(I17*J17)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="86"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="85"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="78">
         <v>4</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="78">
         <f>unskilled</f>
         <v>900</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="82">
         <f>(D18*E18)</f>
         <v>3600</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="79">
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="78">
         <v>0</v>
       </c>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="86"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="85"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="127" t="s">
@@ -6480,7 +6142,7 @@
       <c r="C19" s="128"/>
       <c r="D19" s="128"/>
       <c r="E19" s="129"/>
-      <c r="F19" s="83">
+      <c r="F19" s="82">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
@@ -6490,7 +6152,7 @@
       <c r="H19" s="128"/>
       <c r="I19" s="128"/>
       <c r="J19" s="129"/>
-      <c r="K19" s="83">
+      <c r="K19" s="82">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
@@ -6500,7 +6162,7 @@
       <c r="M19" s="128"/>
       <c r="N19" s="128"/>
       <c r="O19" s="129"/>
-      <c r="P19" s="83">
+      <c r="P19" s="82">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
@@ -6510,7 +6172,7 @@
       <c r="R19" s="128"/>
       <c r="S19" s="128"/>
       <c r="T19" s="129"/>
-      <c r="U19" s="87">
+      <c r="U19" s="86">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
@@ -6523,7 +6185,7 @@
       <c r="C20" s="128"/>
       <c r="D20" s="128"/>
       <c r="E20" s="129"/>
-      <c r="F20" s="83">
+      <c r="F20" s="82">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
@@ -6533,7 +6195,7 @@
       <c r="H20" s="128"/>
       <c r="I20" s="128"/>
       <c r="J20" s="129"/>
-      <c r="K20" s="83">
+      <c r="K20" s="82">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
@@ -6543,7 +6205,7 @@
       <c r="M20" s="128"/>
       <c r="N20" s="128"/>
       <c r="O20" s="129"/>
-      <c r="P20" s="83">
+      <c r="P20" s="82">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
@@ -6553,351 +6215,351 @@
       <c r="R20" s="128"/>
       <c r="S20" s="128"/>
       <c r="T20" s="129"/>
-      <c r="U20" s="87">
+      <c r="U20" s="86">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
       <c r="Q21" s="127" t="s">
         <v>80</v>
       </c>
       <c r="R21" s="128"/>
       <c r="S21" s="128"/>
       <c r="T21" s="129"/>
-      <c r="U21" s="89">
+      <c r="U21" s="88">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="89"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="88"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="158" t="s">
+      <c r="A24" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="158"/>
-      <c r="C24" s="159" t="s">
+      <c r="B24" s="124"/>
+      <c r="C24" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="159"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="159"/>
-      <c r="U24" s="154" t="s">
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="120" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="159"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="159"/>
-      <c r="U25" s="154"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="120"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="154"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="120"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="156" t="s">
+      <c r="A27" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157" t="s">
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157" t="s">
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157" t="s">
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="157"/>
-      <c r="S27" s="157"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="157"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="62" t="s">
+      <c r="M28" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="62" t="s">
+      <c r="N28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="62" t="s">
+      <c r="O28" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="62" t="s">
+      <c r="P28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="62" t="s">
+      <c r="Q28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="R28" s="62" t="s">
+      <c r="R28" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S28" s="62" t="s">
+      <c r="S28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="62" t="s">
+      <c r="T28" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="64" t="s">
+      <c r="U28" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="61">
         <v>3</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="61">
         <f>skilled</f>
         <v>1200</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="65">
         <f>(D29*E29)</f>
         <v>3600</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="61">
         <v>4.13</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="61">
         <f>adopted_rate_cement</f>
         <v>14231</v>
       </c>
-      <c r="K29" s="62">
+      <c r="K29" s="61">
         <f t="shared" ref="K29:K34" si="0">(I29*J29)</f>
         <v>58774.03</v>
       </c>
-      <c r="L29" s="62" t="s">
+      <c r="L29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="M29" s="62" t="s">
+      <c r="M29" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="62">
+      <c r="N29" s="61">
         <v>6</v>
       </c>
-      <c r="O29" s="62">
+      <c r="O29" s="61">
         <f>concrete_mixer</f>
         <v>293</v>
       </c>
-      <c r="P29" s="66">
+      <c r="P29" s="65">
         <f>(N29*O29)</f>
         <v>1758</v>
       </c>
-      <c r="Q29" s="62" t="s">
+      <c r="Q29" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="R29" s="62"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="57"/>
       <c r="T29" s="57"/>
-      <c r="U29" s="67">
+      <c r="U29" s="66">
         <f>F36*4/100</f>
         <v>6419.06664</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="61">
         <v>30</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="61">
         <f>unskilled</f>
         <v>900</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="65">
         <f>(D30*E30)</f>
         <v>27000</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="61">
         <v>6.75</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="61">
         <f>adopted_rate_sand</f>
         <v>2504.88</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="61">
         <f t="shared" si="0"/>
         <v>16907.940000000002</v>
       </c>
-      <c r="L30" s="62" t="s">
+      <c r="L30" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="62" t="s">
+      <c r="M30" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="62">
+      <c r="N30" s="61">
         <v>6</v>
       </c>
-      <c r="O30" s="62">
+      <c r="O30" s="61">
         <f>generator</f>
         <v>841</v>
       </c>
-      <c r="P30" s="66">
+      <c r="P30" s="65">
         <f>(N30*O30)</f>
         <v>5046</v>
       </c>
@@ -6914,20 +6576,20 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="61">
         <v>8.1</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="61">
         <f>adopted_rate_aggregate_20_40_mm</f>
         <v>3457.44</v>
       </c>
-      <c r="K31" s="62">
+      <c r="K31" s="61">
         <f t="shared" si="0"/>
         <v>28005.263999999999</v>
       </c>
@@ -6949,20 +6611,20 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="61">
         <v>4.05</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="61">
         <f>adopted_rate_aggregate_10_20_mm</f>
         <v>3598.56</v>
       </c>
-      <c r="K32" s="62">
+      <c r="K32" s="61">
         <f t="shared" si="0"/>
         <v>14574.168</v>
       </c>
@@ -6984,20 +6646,20 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="61">
         <v>1.35</v>
       </c>
-      <c r="J33" s="62">
+      <c r="J33" s="61">
         <f>adopted_rate_aggregate_10_mm</f>
         <v>3104.6400000000003</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="61">
         <f t="shared" si="0"/>
         <v>4191.264000000001</v>
       </c>
@@ -7019,20 +6681,20 @@
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="61">
         <v>2</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="61">
         <f>adopted_rate_water</f>
         <v>310</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="61">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
@@ -7048,87 +6710,87 @@
       <c r="U34" s="56"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="66">
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="65">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="160" t="s">
+      <c r="G35" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="66">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="65">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="160" t="s">
+      <c r="L35" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="66">
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="65">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="160" t="s">
+      <c r="Q35" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="R35" s="160"/>
-      <c r="S35" s="160"/>
-      <c r="T35" s="160"/>
-      <c r="U35" s="67">
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="66">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="66">
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="65">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="160" t="s">
+      <c r="G36" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="66">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="65">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="160" t="s">
+      <c r="L36" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="66">
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="65">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="160" t="s">
+      <c r="Q36" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="R36" s="160"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="67">
+      <c r="R36" s="119"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="66">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
       </c>
@@ -7150,329 +6812,329 @@
       <c r="N37" s="57"/>
       <c r="O37" s="57"/>
       <c r="P37" s="57"/>
-      <c r="Q37" s="160" t="s">
+      <c r="Q37" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="R37" s="160"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="68">
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="67">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="161"/>
-      <c r="S38" s="161"/>
-      <c r="T38" s="161"/>
-      <c r="U38" s="161"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="126"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="126"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="126"/>
+      <c r="U38" s="126"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="158"/>
-      <c r="C40" s="159" t="s">
+      <c r="B40" s="124"/>
+      <c r="C40" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="159"/>
-      <c r="M40" s="159"/>
-      <c r="N40" s="159"/>
-      <c r="O40" s="159"/>
-      <c r="P40" s="159"/>
-      <c r="Q40" s="159"/>
-      <c r="R40" s="159"/>
-      <c r="S40" s="159"/>
-      <c r="T40" s="159"/>
-      <c r="U40" s="154" t="s">
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="120" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="158"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="159"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="159"/>
-      <c r="O41" s="159"/>
-      <c r="P41" s="159"/>
-      <c r="Q41" s="159"/>
-      <c r="R41" s="159"/>
-      <c r="S41" s="159"/>
-      <c r="T41" s="159"/>
-      <c r="U41" s="154"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="120"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="159"/>
-      <c r="M42" s="159"/>
-      <c r="N42" s="159"/>
-      <c r="O42" s="159"/>
-      <c r="P42" s="159"/>
-      <c r="Q42" s="159"/>
-      <c r="R42" s="159"/>
-      <c r="S42" s="159"/>
-      <c r="T42" s="159"/>
-      <c r="U42" s="154"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="120"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="157" t="s">
+      <c r="B43" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157" t="s">
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157" t="s">
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
-      <c r="O43" s="157"/>
-      <c r="P43" s="157"/>
-      <c r="Q43" s="157" t="s">
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="R43" s="157"/>
-      <c r="S43" s="157"/>
-      <c r="T43" s="157"/>
-      <c r="U43" s="157"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="123"/>
+      <c r="U43" s="123"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="156"/>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="122"/>
+      <c r="B44" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="62" t="s">
+      <c r="E44" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="62" t="s">
+      <c r="I44" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="62" t="s">
+      <c r="J44" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="62" t="s">
+      <c r="L44" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="62" t="s">
+      <c r="M44" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="62" t="s">
+      <c r="N44" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="62" t="s">
+      <c r="O44" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="62" t="s">
+      <c r="P44" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q44" s="62" t="s">
+      <c r="Q44" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="R44" s="62" t="s">
+      <c r="R44" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S44" s="62" t="s">
+      <c r="S44" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="T44" s="62" t="s">
+      <c r="T44" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="U44" s="64" t="s">
+      <c r="U44" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="61">
         <v>3</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="61">
         <f>skilled</f>
         <v>1200</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="65">
         <f>(D45*E45)</f>
         <v>3600</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="61">
         <v>5.21</v>
       </c>
-      <c r="J45" s="62">
+      <c r="J45" s="61">
         <f>adopted_rate_cement</f>
         <v>14231</v>
       </c>
-      <c r="K45" s="62">
+      <c r="K45" s="61">
         <f>(I45*J45)</f>
         <v>74143.509999999995</v>
       </c>
-      <c r="L45" s="62" t="s">
+      <c r="L45" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="M45" s="62" t="s">
+      <c r="M45" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="N45" s="62">
+      <c r="N45" s="61">
         <v>6</v>
       </c>
-      <c r="O45" s="62">
+      <c r="O45" s="61">
         <f>concrete_mixer</f>
         <v>293</v>
       </c>
-      <c r="P45" s="66">
+      <c r="P45" s="65">
         <f>(N45*O45)</f>
         <v>1758</v>
       </c>
-      <c r="Q45" s="62" t="s">
+      <c r="Q45" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="R45" s="62"/>
+      <c r="R45" s="61"/>
       <c r="S45" s="57"/>
       <c r="T45" s="57"/>
-      <c r="U45" s="67">
+      <c r="U45" s="66">
         <f>F51*4/100</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="61">
         <v>30</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="61">
         <f>unskilled</f>
         <v>900</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="65">
         <f>(D46*E46)</f>
         <v>27000</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="62">
+      <c r="I46" s="61">
         <v>6.75</v>
       </c>
-      <c r="J46" s="62">
+      <c r="J46" s="61">
         <f>adopted_rate_sand</f>
         <v>2504.88</v>
       </c>
-      <c r="K46" s="62">
+      <c r="K46" s="61">
         <f>(I46*J46)</f>
         <v>16907.940000000002</v>
       </c>
-      <c r="L46" s="62" t="s">
+      <c r="L46" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="62" t="s">
+      <c r="M46" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="N46" s="62">
+      <c r="N46" s="61">
         <v>6</v>
       </c>
-      <c r="O46" s="62">
+      <c r="O46" s="61">
         <f>generator</f>
         <v>841</v>
       </c>
-      <c r="P46" s="66">
+      <c r="P46" s="65">
         <f>(N46*O46)</f>
         <v>5046</v>
       </c>
@@ -7489,20 +7151,20 @@
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="57"/>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="62">
+      <c r="I47" s="61">
         <v>8.1</v>
       </c>
-      <c r="J47" s="62">
+      <c r="J47" s="61">
         <f>adopted_rate_aggregate_10_20_mm</f>
         <v>3598.56</v>
       </c>
-      <c r="K47" s="62">
+      <c r="K47" s="61">
         <f>(I47*J47)</f>
         <v>29148.335999999999</v>
       </c>
@@ -7524,20 +7186,20 @@
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="62">
+      <c r="I48" s="61">
         <v>5.4</v>
       </c>
-      <c r="J48" s="62">
+      <c r="J48" s="61">
         <f>adopted_rate_aggregate_10_mm</f>
         <v>3104.6400000000003</v>
       </c>
-      <c r="K48" s="62">
+      <c r="K48" s="61">
         <f>(I48*J48)</f>
         <v>16765.056000000004</v>
       </c>
@@ -7559,20 +7221,20 @@
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
-      <c r="G49" s="62" t="s">
+      <c r="G49" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="61">
         <v>2.5</v>
       </c>
-      <c r="J49" s="62">
+      <c r="J49" s="61">
         <f>adopted_rate_water</f>
         <v>310</v>
       </c>
-      <c r="K49" s="62">
+      <c r="K49" s="61">
         <f>(I49*J49)</f>
         <v>775</v>
       </c>
@@ -7588,87 +7250,87 @@
       <c r="U49" s="56"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="160"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="66">
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="65">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="160" t="s">
+      <c r="G50" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="66">
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="65">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="160" t="s">
+      <c r="L50" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="160"/>
-      <c r="N50" s="160"/>
-      <c r="O50" s="160"/>
-      <c r="P50" s="66">
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="65">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="160" t="s">
+      <c r="Q50" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="R50" s="160"/>
-      <c r="S50" s="160"/>
-      <c r="T50" s="160"/>
-      <c r="U50" s="67">
+      <c r="R50" s="119"/>
+      <c r="S50" s="119"/>
+      <c r="T50" s="119"/>
+      <c r="U50" s="66">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="160" t="s">
+      <c r="A51" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="160"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="66">
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="65">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="160" t="s">
+      <c r="G51" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="66">
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="65">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="160" t="s">
+      <c r="L51" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M51" s="160"/>
-      <c r="N51" s="160"/>
-      <c r="O51" s="160"/>
-      <c r="P51" s="66">
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="65">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="160" t="s">
+      <c r="Q51" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="R51" s="160"/>
-      <c r="S51" s="160"/>
-      <c r="T51" s="160"/>
-      <c r="U51" s="67">
+      <c r="R51" s="119"/>
+      <c r="S51" s="119"/>
+      <c r="T51" s="119"/>
+      <c r="U51" s="66">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
       </c>
@@ -7690,225 +7352,225 @@
       <c r="N52" s="57"/>
       <c r="O52" s="57"/>
       <c r="P52" s="57"/>
-      <c r="Q52" s="160" t="s">
+      <c r="Q52" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="R52" s="160"/>
-      <c r="S52" s="160"/>
-      <c r="T52" s="160"/>
-      <c r="U52" s="68">
+      <c r="R52" s="119"/>
+      <c r="S52" s="119"/>
+      <c r="T52" s="119"/>
+      <c r="U52" s="67">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="158" t="s">
+      <c r="A54" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159" t="s">
+      <c r="B54" s="124"/>
+      <c r="C54" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="159"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="159"/>
-      <c r="L54" s="159"/>
-      <c r="M54" s="159"/>
-      <c r="N54" s="159"/>
-      <c r="O54" s="159"/>
-      <c r="P54" s="159"/>
-      <c r="Q54" s="159"/>
-      <c r="R54" s="159"/>
-      <c r="S54" s="159"/>
-      <c r="T54" s="159"/>
-      <c r="U54" s="154" t="s">
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
+      <c r="U54" s="120" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="158"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="159"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="159"/>
-      <c r="M55" s="159"/>
-      <c r="N55" s="159"/>
-      <c r="O55" s="159"/>
-      <c r="P55" s="159"/>
-      <c r="Q55" s="159"/>
-      <c r="R55" s="159"/>
-      <c r="S55" s="159"/>
-      <c r="T55" s="159"/>
-      <c r="U55" s="154"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="125"/>
+      <c r="R55" s="125"/>
+      <c r="S55" s="125"/>
+      <c r="T55" s="125"/>
+      <c r="U55" s="120"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="155"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="159"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="159"/>
-      <c r="O56" s="159"/>
-      <c r="P56" s="159"/>
-      <c r="Q56" s="159"/>
-      <c r="R56" s="159"/>
-      <c r="S56" s="159"/>
-      <c r="T56" s="159"/>
-      <c r="U56" s="154"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="125"/>
+      <c r="U56" s="120"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="156" t="s">
+      <c r="A57" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="157" t="s">
+      <c r="B57" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157" t="s">
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157" t="s">
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-      <c r="P57" s="157"/>
-      <c r="Q57" s="157" t="s">
+      <c r="M57" s="123"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="123"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="157"/>
-      <c r="S57" s="157"/>
-      <c r="T57" s="157"/>
-      <c r="U57" s="157"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="123"/>
+      <c r="T57" s="123"/>
+      <c r="U57" s="123"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="62" t="s">
+      <c r="A58" s="122"/>
+      <c r="B58" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="62" t="s">
+      <c r="G58" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="63" t="s">
+      <c r="H58" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I58" s="62" t="s">
+      <c r="I58" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="62" t="s">
+      <c r="J58" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="62" t="s">
+      <c r="K58" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="L58" s="62" t="s">
+      <c r="L58" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="M58" s="62" t="s">
+      <c r="M58" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N58" s="62" t="s">
+      <c r="N58" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="62" t="s">
+      <c r="O58" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="P58" s="62" t="s">
+      <c r="P58" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q58" s="62" t="s">
+      <c r="Q58" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="R58" s="62" t="s">
+      <c r="R58" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S58" s="62" t="s">
+      <c r="S58" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="T58" s="62" t="s">
+      <c r="T58" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="U58" s="64" t="s">
+      <c r="U58" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="61">
         <v>4</v>
       </c>
-      <c r="E59" s="62">
+      <c r="E59" s="61">
         <f>skilled_blacksmith</f>
         <v>1200</v>
       </c>
-      <c r="F59" s="66">
+      <c r="F59" s="65">
         <f>(D59*E59)</f>
         <v>4800</v>
       </c>
-      <c r="G59" s="62" t="s">
+      <c r="G59" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="63" t="s">
+      <c r="H59" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I59" s="62">
+      <c r="I59" s="61">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J59" s="62">
+      <c r="J59" s="61">
         <f>adopted_rate_HYSD_bar</f>
         <v>99000</v>
       </c>
-      <c r="K59" s="62">
+      <c r="K59" s="61">
         <f>(I59*J59)</f>
         <v>108900.00000000001</v>
       </c>
@@ -7925,37 +7587,37 @@
     </row>
     <row r="60" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="61">
         <v>9</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="61">
         <f>unskilled</f>
         <v>900</v>
       </c>
-      <c r="F60" s="66">
+      <c r="F60" s="65">
         <f>(D60*E60)</f>
         <v>8100</v>
       </c>
-      <c r="G60" s="62" t="s">
+      <c r="G60" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H60" s="63" t="s">
+      <c r="H60" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="I60" s="62">
+      <c r="I60" s="61">
         <v>8</v>
       </c>
-      <c r="J60" s="62">
+      <c r="J60" s="61">
         <f>adopted_rate_binding_wire</f>
         <v>106</v>
       </c>
-      <c r="K60" s="62">
+      <c r="K60" s="61">
         <f>(I60*J60)</f>
         <v>848</v>
       </c>
@@ -7971,87 +7633,87 @@
       <c r="U60" s="56"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="160" t="s">
+      <c r="A61" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="160"/>
-      <c r="F61" s="66">
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="65">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="160" t="s">
+      <c r="G61" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="160"/>
-      <c r="I61" s="160"/>
-      <c r="J61" s="160"/>
-      <c r="K61" s="66">
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="65">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="160" t="s">
+      <c r="L61" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M61" s="160"/>
-      <c r="N61" s="160"/>
-      <c r="O61" s="160"/>
-      <c r="P61" s="66">
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="65">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="160" t="s">
+      <c r="Q61" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="R61" s="160"/>
-      <c r="S61" s="160"/>
-      <c r="T61" s="160"/>
-      <c r="U61" s="67">
+      <c r="R61" s="119"/>
+      <c r="S61" s="119"/>
+      <c r="T61" s="119"/>
+      <c r="U61" s="66">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="160"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="66">
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="65">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="160" t="s">
+      <c r="G62" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="66">
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="65">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="160" t="s">
+      <c r="L62" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="160"/>
-      <c r="N62" s="160"/>
-      <c r="O62" s="160"/>
-      <c r="P62" s="66">
+      <c r="M62" s="119"/>
+      <c r="N62" s="119"/>
+      <c r="O62" s="119"/>
+      <c r="P62" s="65">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="160" t="s">
+      <c r="Q62" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="R62" s="160"/>
-      <c r="S62" s="160"/>
-      <c r="T62" s="160"/>
-      <c r="U62" s="67">
+      <c r="R62" s="119"/>
+      <c r="S62" s="119"/>
+      <c r="T62" s="119"/>
+      <c r="U62" s="66">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
       </c>
@@ -8073,42 +7735,73 @@
       <c r="N63" s="57"/>
       <c r="O63" s="57"/>
       <c r="P63" s="57"/>
-      <c r="Q63" s="160" t="s">
+      <c r="Q63" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="R63" s="160"/>
-      <c r="S63" s="160"/>
-      <c r="T63" s="160"/>
-      <c r="U63" s="68">
+      <c r="R63" s="119"/>
+      <c r="S63" s="119"/>
+      <c r="T63" s="119"/>
+      <c r="U63" s="67">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:T56"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:T26"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="Q36:T36"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="L50:O50"/>
@@ -8124,60 +7817,29 @@
     <mergeCell ref="G43:K43"/>
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:T26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:T14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:T56"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="Q62:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:U63">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
@@ -8241,113 +7903,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -8409,19 +8071,19 @@
       <c r="P9" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="93" t="s">
+      <c r="Q9" s="92" t="s">
         <v>9</v>
       </c>
       <c r="R9" t="s">
         <v>109</v>
       </c>
-      <c r="S9" s="93" t="s">
+      <c r="S9" s="92" t="s">
         <v>10</v>
       </c>
       <c r="T9" t="s">
         <v>110</v>
       </c>
-      <c r="U9" s="95" t="s">
+      <c r="U9" s="94" t="s">
         <v>111</v>
       </c>
     </row>
@@ -9032,9 +8694,9 @@
       <c r="I25" s="33"/>
       <c r="J25" s="39"/>
       <c r="K25" s="31"/>
-      <c r="Q25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="U25" s="94"/>
+      <c r="Q25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="U25" s="93"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
@@ -9062,9 +8724,9 @@
       <c r="I26" s="33"/>
       <c r="J26" s="39"/>
       <c r="K26" s="31"/>
-      <c r="Q26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="U26" s="94"/>
+      <c r="Q26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="U26" s="93"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
@@ -9092,9 +8754,9 @@
       <c r="I27" s="33"/>
       <c r="J27" s="39"/>
       <c r="K27" s="31"/>
-      <c r="Q27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="U27" s="94"/>
+      <c r="Q27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="U27" s="93"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
@@ -9122,9 +8784,9 @@
       <c r="I28" s="33"/>
       <c r="J28" s="39"/>
       <c r="K28" s="31"/>
-      <c r="Q28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="U28" s="94"/>
+      <c r="Q28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="U28" s="93"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
@@ -9152,9 +8814,9 @@
       <c r="I29" s="33"/>
       <c r="J29" s="39"/>
       <c r="K29" s="31"/>
-      <c r="Q29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="U29" s="94"/>
+      <c r="Q29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="U29" s="93"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
@@ -9183,9 +8845,9 @@
       <c r="J30" s="39"/>
       <c r="K30" s="31"/>
       <c r="O30" s="59"/>
-      <c r="Q30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="U30" s="94"/>
+      <c r="Q30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="U30" s="93"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
@@ -9214,9 +8876,9 @@
       <c r="J31" s="39"/>
       <c r="K31" s="31"/>
       <c r="O31" s="59"/>
-      <c r="Q31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="U31" s="94"/>
+      <c r="Q31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="U31" s="93"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
@@ -9244,9 +8906,9 @@
       <c r="I32" s="33"/>
       <c r="J32" s="39"/>
       <c r="K32" s="31"/>
-      <c r="Q32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="U32" s="94"/>
+      <c r="Q32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="U32" s="93"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
@@ -9965,11 +9627,11 @@
       <c r="B62" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="102">
+      <c r="C62" s="95">
         <f>J60</f>
         <v>152476.70512129119</v>
       </c>
-      <c r="D62" s="103"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="15">
         <v>100</v>
       </c>
@@ -10007,10 +9669,10 @@
       <c r="B63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="105">
+      <c r="C63" s="99">
         <v>210000</v>
       </c>
-      <c r="D63" s="106"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="15"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -10040,11 +9702,11 @@
       <c r="B64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="105">
+      <c r="C64" s="99">
         <f>C63-C66-C67</f>
         <v>199500</v>
       </c>
-      <c r="D64" s="106"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="15">
         <f>C64/C62*100</f>
         <v>130.83965832112062</v>
@@ -10077,11 +9739,11 @@
       <c r="B65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="107">
+      <c r="C65" s="101">
         <f>C62-C64</f>
         <v>-47023.29487870881</v>
       </c>
-      <c r="D65" s="107"/>
+      <c r="D65" s="101"/>
       <c r="E65" s="15">
         <f>100-E64</f>
         <v>-30.839658321120623</v>
@@ -10114,11 +9776,11 @@
       <c r="B66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="102">
+      <c r="C66" s="95">
         <f>C63*0.03</f>
         <v>6300</v>
       </c>
-      <c r="D66" s="103"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="15">
         <v>3</v>
       </c>
@@ -10150,11 +9812,11 @@
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="102">
+      <c r="C67" s="95">
         <f>C63*0.02</f>
         <v>4200</v>
       </c>
-      <c r="D67" s="103"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="15">
         <v>2</v>
       </c>
@@ -10184,13 +9846,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A7:F7"/>
@@ -10199,6 +9854,13 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1103,206 +1103,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,6 +1116,206 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,38 +2177,38 @@
       <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="98" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2264,7 +2264,7 @@
       <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="99" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="29"/>
@@ -2276,14 +2276,14 @@
       <c r="I10" s="33"/>
       <c r="J10" s="39"/>
       <c r="K10" s="31"/>
-      <c r="N10" s="163"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="17"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="100" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="29"/>
@@ -2295,14 +2295,14 @@
       <c r="I11" s="33"/>
       <c r="J11" s="8"/>
       <c r="K11" s="31"/>
-      <c r="N11" s="161"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="44"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="164"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
@@ -2312,14 +2312,14 @@
       <c r="I12" s="33"/>
       <c r="J12" s="8"/>
       <c r="K12" s="31"/>
-      <c r="N12" s="161"/>
+      <c r="N12" s="95"/>
       <c r="O12" s="44"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
-      <c r="B13" s="164"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
@@ -2329,14 +2329,14 @@
       <c r="I13" s="33"/>
       <c r="J13" s="8"/>
       <c r="K13" s="31"/>
-      <c r="N13" s="161"/>
+      <c r="N13" s="95"/>
       <c r="O13" s="44"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="164"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
@@ -2346,14 +2346,14 @@
       <c r="I14" s="33"/>
       <c r="J14" s="8"/>
       <c r="K14" s="31"/>
-      <c r="N14" s="161"/>
+      <c r="N14" s="95"/>
       <c r="O14" s="44"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
-      <c r="B15" s="164"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
@@ -2363,14 +2363,14 @@
       <c r="I15" s="33"/>
       <c r="J15" s="8"/>
       <c r="K15" s="31"/>
-      <c r="N15" s="161"/>
+      <c r="N15" s="95"/>
       <c r="O15" s="44"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="164"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
@@ -2380,14 +2380,14 @@
       <c r="I16" s="33"/>
       <c r="J16" s="8"/>
       <c r="K16" s="31"/>
-      <c r="N16" s="161"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="44"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="164"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
@@ -2397,14 +2397,14 @@
       <c r="I17" s="33"/>
       <c r="J17" s="8"/>
       <c r="K17" s="31"/>
-      <c r="N17" s="161"/>
+      <c r="N17" s="95"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="164"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
@@ -2414,14 +2414,14 @@
       <c r="I18" s="33"/>
       <c r="J18" s="8"/>
       <c r="K18" s="31"/>
-      <c r="N18" s="161"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="44"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="164"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2478,11 +2478,11 @@
       <c r="B22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="107">
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="96"/>
+      <c r="D22" s="108"/>
       <c r="E22" s="15">
         <v>100</v>
       </c>
@@ -2516,10 +2516,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="110">
         <v>150000</v>
       </c>
-      <c r="D23" s="100"/>
+      <c r="D23" s="111"/>
       <c r="E23" s="15"/>
       <c r="M23" s="44"/>
       <c r="N23" s="45"/>
@@ -2545,11 +2545,11 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="110">
         <f>C23-C26-C27</f>
         <v>142500</v>
       </c>
-      <c r="D24" s="100"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="15" t="e">
         <f>C24/C22*100</f>
         <v>#DIV/0!</v>
@@ -2578,11 +2578,11 @@
       <c r="B25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="101">
+      <c r="C25" s="112">
         <f>C22-C24</f>
         <v>-142500</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="15" t="e">
         <f>100-E24</f>
         <v>#DIV/0!</v>
@@ -2611,11 +2611,11 @@
       <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="95">
+      <c r="C26" s="107">
         <f>C23*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="15">
         <v>3</v>
       </c>
@@ -2643,11 +2643,11 @@
       <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="95">
+      <c r="C27" s="107">
         <f>C23*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D27" s="96"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="15">
         <v>2</v>
       </c>
@@ -2673,13 +2673,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A7:F7"/>
@@ -2688,6 +2681,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2725,34 +2725,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="105" t="s">
@@ -2785,30 +2785,30 @@
       <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="114" t="e">
+      <c r="C6" s="113" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2816,11 +2816,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="114">
+      <c r="J6" s="113">
         <f>I30</f>
         <v>237689.74252963794</v>
       </c>
-      <c r="K6" s="115"/>
+      <c r="K6" s="114"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -2829,77 +2829,77 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="I7" s="111" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="I7" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="str">
+      <c r="A8" s="120" t="str">
         <f>V!A6</f>
         <v>Project:- कालिका मन्दिर मुनि ढल व्यवस्थापन स्तरोन्नति</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="I8" s="112" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="I8" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="str">
+      <c r="A9" s="120" t="str">
         <f>V!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="I9" s="112" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="I9" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="107" t="s">
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="119" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -2918,8 +2918,8 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="e">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <f>new!A10</f>
         <v>1</v>
@@ -3432,13 +3432,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -3452,6 +3445,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3576,38 +3576,38 @@
       <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="98" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -5225,11 +5225,11 @@
       <c r="B62" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="95">
+      <c r="C62" s="107">
         <f>J60</f>
         <v>238189.74252963794</v>
       </c>
-      <c r="D62" s="96"/>
+      <c r="D62" s="108"/>
       <c r="E62" s="15">
         <v>100</v>
       </c>
@@ -5267,10 +5267,10 @@
       <c r="B63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="99">
+      <c r="C63" s="110">
         <v>210000</v>
       </c>
-      <c r="D63" s="100"/>
+      <c r="D63" s="111"/>
       <c r="E63" s="15"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -5300,11 +5300,11 @@
       <c r="B64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="99">
+      <c r="C64" s="110">
         <f>C63-C66-C67</f>
         <v>199500</v>
       </c>
-      <c r="D64" s="100"/>
+      <c r="D64" s="111"/>
       <c r="E64" s="15">
         <f>C64/C62*100</f>
         <v>83.756755383862185</v>
@@ -5337,11 +5337,11 @@
       <c r="B65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="101">
+      <c r="C65" s="112">
         <f>C62-C64</f>
         <v>38689.742529637937</v>
       </c>
-      <c r="D65" s="101"/>
+      <c r="D65" s="112"/>
       <c r="E65" s="15">
         <f>100-E64</f>
         <v>16.243244616137815</v>
@@ -5374,11 +5374,11 @@
       <c r="B66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="95">
+      <c r="C66" s="107">
         <f>C63*0.03</f>
         <v>6300</v>
       </c>
-      <c r="D66" s="96"/>
+      <c r="D66" s="108"/>
       <c r="E66" s="15">
         <v>3</v>
       </c>
@@ -5410,11 +5410,11 @@
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="95">
+      <c r="C67" s="107">
         <f>C63*0.02</f>
         <v>4200</v>
       </c>
-      <c r="D67" s="96"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="15">
         <v>2</v>
       </c>
@@ -5444,6 +5444,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A7:F7"/>
@@ -5452,13 +5459,6 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5483,117 +5483,117 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="157" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="127" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="157"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="127"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="157"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="127"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160" t="s">
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="68" t="s">
         <v>65</v>
       </c>
@@ -5669,7 +5669,6 @@
         <v>1</v>
       </c>
       <c r="E6" s="68">
-        <f>skilled</f>
         <v>1200</v>
       </c>
       <c r="F6" s="72">
@@ -5691,7 +5690,6 @@
         <v>6</v>
       </c>
       <c r="O6" s="68">
-        <f>excavator</f>
         <v>3071</v>
       </c>
       <c r="P6" s="72">
@@ -5716,7 +5714,6 @@
         <v>3</v>
       </c>
       <c r="E7" s="68">
-        <f>unskilled</f>
         <v>900</v>
       </c>
       <c r="F7" s="72">
@@ -5740,86 +5737,86 @@
       <c r="U7" s="75"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="72">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
       <c r="K8" s="72">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="L8" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
       <c r="P8" s="72">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="Q8" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
       <c r="U8" s="76">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="72">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
       <c r="K9" s="72">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="130" t="s">
+      <c r="L9" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
       <c r="P9" s="72">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="130" t="s">
+      <c r="Q9" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
       <c r="U9" s="76">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
@@ -5842,152 +5839,152 @@
       <c r="N10" s="73"/>
       <c r="O10" s="73"/>
       <c r="P10" s="73"/>
-      <c r="Q10" s="130" t="s">
+      <c r="Q10" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
       <c r="U10" s="77">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="136" t="s">
+      <c r="B12" s="137"/>
+      <c r="C12" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="145" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="142"/>
+      <c r="U12" s="149" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="140"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="146"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="150"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="147"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="151"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="152" t="s">
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="152" t="s">
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="152" t="s">
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="154"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="158"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="78" t="s">
         <v>65</v>
       </c>
@@ -6063,7 +6060,6 @@
         <v>3</v>
       </c>
       <c r="E17" s="78">
-        <f>skilled</f>
         <v>1200</v>
       </c>
       <c r="F17" s="82">
@@ -6109,7 +6105,6 @@
         <v>4</v>
       </c>
       <c r="E18" s="78">
-        <f>unskilled</f>
         <v>900</v>
       </c>
       <c r="F18" s="82">
@@ -6135,86 +6130,86 @@
       <c r="U18" s="85"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="82">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
       <c r="K19" s="82">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L19" s="127" t="s">
+      <c r="L19" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="129"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="134"/>
       <c r="P19" s="82">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="127" t="s">
+      <c r="Q19" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="134"/>
       <c r="U19" s="86">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="82">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="134"/>
       <c r="K20" s="82">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="L20" s="127" t="s">
+      <c r="L20" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="129"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="134"/>
       <c r="P20" s="82">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
-      <c r="Q20" s="127" t="s">
+      <c r="Q20" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="129"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="134"/>
       <c r="U20" s="86">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
@@ -6237,12 +6232,12 @@
       <c r="N21" s="84"/>
       <c r="O21" s="84"/>
       <c r="P21" s="84"/>
-      <c r="Q21" s="127" t="s">
+      <c r="Q21" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="129"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="88">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
@@ -6272,117 +6267,117 @@
       <c r="U22" s="88"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="125" t="s">
+      <c r="B24" s="163"/>
+      <c r="C24" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="120" t="s">
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="159" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="120"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="159"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="120"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="159"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123" t="s">
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123" t="s">
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123" t="s">
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="123"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="61" t="s">
         <v>65</v>
       </c>
@@ -6458,7 +6453,6 @@
         <v>3</v>
       </c>
       <c r="E29" s="61">
-        <f>skilled</f>
         <v>1200</v>
       </c>
       <c r="F29" s="65">
@@ -6475,7 +6469,6 @@
         <v>4.13</v>
       </c>
       <c r="J29" s="61">
-        <f>adopted_rate_cement</f>
         <v>14231</v>
       </c>
       <c r="K29" s="61">
@@ -6492,7 +6485,6 @@
         <v>6</v>
       </c>
       <c r="O29" s="61">
-        <f>concrete_mixer</f>
         <v>293</v>
       </c>
       <c r="P29" s="65">
@@ -6522,7 +6514,6 @@
         <v>30</v>
       </c>
       <c r="E30" s="61">
-        <f>unskilled</f>
         <v>900</v>
       </c>
       <c r="F30" s="65">
@@ -6539,7 +6530,6 @@
         <v>6.75</v>
       </c>
       <c r="J30" s="61">
-        <f>adopted_rate_sand</f>
         <v>2504.88</v>
       </c>
       <c r="K30" s="61">
@@ -6556,7 +6546,6 @@
         <v>6</v>
       </c>
       <c r="O30" s="61">
-        <f>generator</f>
         <v>841</v>
       </c>
       <c r="P30" s="65">
@@ -6586,7 +6575,6 @@
         <v>8.1</v>
       </c>
       <c r="J31" s="61">
-        <f>adopted_rate_aggregate_20_40_mm</f>
         <v>3457.44</v>
       </c>
       <c r="K31" s="61">
@@ -6621,7 +6609,6 @@
         <v>4.05</v>
       </c>
       <c r="J32" s="61">
-        <f>adopted_rate_aggregate_10_20_mm</f>
         <v>3598.56</v>
       </c>
       <c r="K32" s="61">
@@ -6656,7 +6643,6 @@
         <v>1.35</v>
       </c>
       <c r="J33" s="61">
-        <f>adopted_rate_aggregate_10_mm</f>
         <v>3104.6400000000003</v>
       </c>
       <c r="K33" s="61">
@@ -6691,7 +6677,6 @@
         <v>2</v>
       </c>
       <c r="J34" s="61">
-        <f>adopted_rate_water</f>
         <v>310</v>
       </c>
       <c r="K34" s="61">
@@ -6710,86 +6695,86 @@
       <c r="U34" s="56"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
       <c r="F35" s="65">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="119" t="s">
+      <c r="G35" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
       <c r="K35" s="65">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="119" t="s">
+      <c r="L35" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
       <c r="P35" s="65">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="119" t="s">
+      <c r="Q35" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="R35" s="119"/>
-      <c r="S35" s="119"/>
-      <c r="T35" s="119"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
       <c r="U35" s="66">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="119" t="s">
+      <c r="A36" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
       <c r="F36" s="65">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="119" t="s">
+      <c r="G36" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
       <c r="K36" s="65">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="119" t="s">
+      <c r="L36" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="M36" s="119"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="165"/>
+      <c r="O36" s="165"/>
       <c r="P36" s="65">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="119" t="s">
+      <c r="Q36" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="R36" s="119"/>
-      <c r="S36" s="119"/>
-      <c r="T36" s="119"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165"/>
       <c r="U36" s="66">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
@@ -6812,152 +6797,152 @@
       <c r="N37" s="57"/>
       <c r="O37" s="57"/>
       <c r="P37" s="57"/>
-      <c r="Q37" s="119" t="s">
+      <c r="Q37" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="R37" s="119"/>
-      <c r="S37" s="119"/>
-      <c r="T37" s="119"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
       <c r="U37" s="67">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
-      <c r="N38" s="126"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="166"/>
+      <c r="O38" s="166"/>
+      <c r="P38" s="166"/>
+      <c r="Q38" s="166"/>
+      <c r="R38" s="166"/>
+      <c r="S38" s="166"/>
+      <c r="T38" s="166"/>
+      <c r="U38" s="166"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="125" t="s">
+      <c r="B40" s="163"/>
+      <c r="C40" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="125"/>
-      <c r="U40" s="120" t="s">
+      <c r="D40" s="164"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="164"/>
+      <c r="R40" s="164"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="164"/>
+      <c r="U40" s="159" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
-      <c r="T41" s="125"/>
-      <c r="U41" s="120"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="164"/>
+      <c r="R41" s="164"/>
+      <c r="S41" s="164"/>
+      <c r="T41" s="164"/>
+      <c r="U41" s="159"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="121"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="125"/>
-      <c r="U42" s="120"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="164"/>
+      <c r="P42" s="164"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="164"/>
+      <c r="S42" s="164"/>
+      <c r="T42" s="164"/>
+      <c r="U42" s="159"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123" t="s">
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123" t="s">
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123" t="s">
+      <c r="M43" s="162"/>
+      <c r="N43" s="162"/>
+      <c r="O43" s="162"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="R43" s="123"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="123"/>
+      <c r="R43" s="162"/>
+      <c r="S43" s="162"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="162"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="122"/>
+      <c r="A44" s="161"/>
       <c r="B44" s="61" t="s">
         <v>65</v>
       </c>
@@ -7033,7 +7018,6 @@
         <v>3</v>
       </c>
       <c r="E45" s="61">
-        <f>skilled</f>
         <v>1200</v>
       </c>
       <c r="F45" s="65">
@@ -7050,7 +7034,6 @@
         <v>5.21</v>
       </c>
       <c r="J45" s="61">
-        <f>adopted_rate_cement</f>
         <v>14231</v>
       </c>
       <c r="K45" s="61">
@@ -7067,7 +7050,6 @@
         <v>6</v>
       </c>
       <c r="O45" s="61">
-        <f>concrete_mixer</f>
         <v>293</v>
       </c>
       <c r="P45" s="65">
@@ -7097,7 +7079,6 @@
         <v>30</v>
       </c>
       <c r="E46" s="61">
-        <f>unskilled</f>
         <v>900</v>
       </c>
       <c r="F46" s="65">
@@ -7114,7 +7095,6 @@
         <v>6.75</v>
       </c>
       <c r="J46" s="61">
-        <f>adopted_rate_sand</f>
         <v>2504.88</v>
       </c>
       <c r="K46" s="61">
@@ -7131,7 +7111,6 @@
         <v>6</v>
       </c>
       <c r="O46" s="61">
-        <f>generator</f>
         <v>841</v>
       </c>
       <c r="P46" s="65">
@@ -7161,7 +7140,6 @@
         <v>8.1</v>
       </c>
       <c r="J47" s="61">
-        <f>adopted_rate_aggregate_10_20_mm</f>
         <v>3598.56</v>
       </c>
       <c r="K47" s="61">
@@ -7196,7 +7174,6 @@
         <v>5.4</v>
       </c>
       <c r="J48" s="61">
-        <f>adopted_rate_aggregate_10_mm</f>
         <v>3104.6400000000003</v>
       </c>
       <c r="K48" s="61">
@@ -7231,7 +7208,6 @@
         <v>2.5</v>
       </c>
       <c r="J49" s="61">
-        <f>adopted_rate_water</f>
         <v>310</v>
       </c>
       <c r="K49" s="61">
@@ -7250,86 +7226,86 @@
       <c r="U49" s="56"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="119" t="s">
+      <c r="A50" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
       <c r="F50" s="65">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="119" t="s">
+      <c r="G50" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="165"/>
       <c r="K50" s="65">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="119" t="s">
+      <c r="L50" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
+      <c r="M50" s="165"/>
+      <c r="N50" s="165"/>
+      <c r="O50" s="165"/>
       <c r="P50" s="65">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="119" t="s">
+      <c r="Q50" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="R50" s="119"/>
-      <c r="S50" s="119"/>
-      <c r="T50" s="119"/>
+      <c r="R50" s="165"/>
+      <c r="S50" s="165"/>
+      <c r="T50" s="165"/>
       <c r="U50" s="66">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
       <c r="F51" s="65">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="119" t="s">
+      <c r="G51" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
       <c r="K51" s="65">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="119" t="s">
+      <c r="L51" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="165"/>
+      <c r="O51" s="165"/>
       <c r="P51" s="65">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="119" t="s">
+      <c r="Q51" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="R51" s="119"/>
-      <c r="S51" s="119"/>
-      <c r="T51" s="119"/>
+      <c r="R51" s="165"/>
+      <c r="S51" s="165"/>
+      <c r="T51" s="165"/>
       <c r="U51" s="66">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
@@ -7352,129 +7328,129 @@
       <c r="N52" s="57"/>
       <c r="O52" s="57"/>
       <c r="P52" s="57"/>
-      <c r="Q52" s="119" t="s">
+      <c r="Q52" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="R52" s="119"/>
-      <c r="S52" s="119"/>
-      <c r="T52" s="119"/>
+      <c r="R52" s="165"/>
+      <c r="S52" s="165"/>
+      <c r="T52" s="165"/>
       <c r="U52" s="67">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="124" t="s">
+      <c r="A54" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="124"/>
-      <c r="C54" s="125" t="s">
+      <c r="B54" s="163"/>
+      <c r="C54" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="125"/>
-      <c r="T54" s="125"/>
-      <c r="U54" s="120" t="s">
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="164"/>
+      <c r="M54" s="164"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="164"/>
+      <c r="P54" s="164"/>
+      <c r="Q54" s="164"/>
+      <c r="R54" s="164"/>
+      <c r="S54" s="164"/>
+      <c r="T54" s="164"/>
+      <c r="U54" s="159" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="124"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="125"/>
-      <c r="T55" s="125"/>
-      <c r="U55" s="120"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="164"/>
+      <c r="M55" s="164"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="164"/>
+      <c r="P55" s="164"/>
+      <c r="Q55" s="164"/>
+      <c r="R55" s="164"/>
+      <c r="S55" s="164"/>
+      <c r="T55" s="164"/>
+      <c r="U55" s="159"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125"/>
-      <c r="Q56" s="125"/>
-      <c r="R56" s="125"/>
-      <c r="S56" s="125"/>
-      <c r="T56" s="125"/>
-      <c r="U56" s="120"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="164"/>
+      <c r="M56" s="164"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="164"/>
+      <c r="P56" s="164"/>
+      <c r="Q56" s="164"/>
+      <c r="R56" s="164"/>
+      <c r="S56" s="164"/>
+      <c r="T56" s="164"/>
+      <c r="U56" s="159"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="123" t="s">
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="M57" s="123"/>
-      <c r="N57" s="123"/>
-      <c r="O57" s="123"/>
-      <c r="P57" s="123"/>
-      <c r="Q57" s="123" t="s">
+      <c r="M57" s="162"/>
+      <c r="N57" s="162"/>
+      <c r="O57" s="162"/>
+      <c r="P57" s="162"/>
+      <c r="Q57" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="123"/>
-      <c r="S57" s="123"/>
-      <c r="T57" s="123"/>
-      <c r="U57" s="123"/>
+      <c r="R57" s="162"/>
+      <c r="S57" s="162"/>
+      <c r="T57" s="162"/>
+      <c r="U57" s="162"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
+      <c r="A58" s="161"/>
       <c r="B58" s="61" t="s">
         <v>65</v>
       </c>
@@ -7550,7 +7526,6 @@
         <v>4</v>
       </c>
       <c r="E59" s="61">
-        <f>skilled_blacksmith</f>
         <v>1200</v>
       </c>
       <c r="F59" s="65">
@@ -7567,7 +7542,6 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J59" s="61">
-        <f>adopted_rate_HYSD_bar</f>
         <v>99000</v>
       </c>
       <c r="K59" s="61">
@@ -7597,7 +7571,6 @@
         <v>9</v>
       </c>
       <c r="E60" s="61">
-        <f>unskilled</f>
         <v>900</v>
       </c>
       <c r="F60" s="65">
@@ -7614,7 +7587,6 @@
         <v>8</v>
       </c>
       <c r="J60" s="61">
-        <f>adopted_rate_binding_wire</f>
         <v>106</v>
       </c>
       <c r="K60" s="61">
@@ -7633,86 +7605,86 @@
       <c r="U60" s="56"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="119" t="s">
+      <c r="A61" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
       <c r="F61" s="65">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="119" t="s">
+      <c r="G61" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
       <c r="K61" s="65">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="119" t="s">
+      <c r="L61" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
+      <c r="M61" s="165"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="165"/>
       <c r="P61" s="65">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="119" t="s">
+      <c r="Q61" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="R61" s="119"/>
-      <c r="S61" s="119"/>
-      <c r="T61" s="119"/>
+      <c r="R61" s="165"/>
+      <c r="S61" s="165"/>
+      <c r="T61" s="165"/>
       <c r="U61" s="66">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
       <c r="F62" s="65">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="119" t="s">
+      <c r="G62" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="165"/>
       <c r="K62" s="65">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="119" t="s">
+      <c r="L62" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="119"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="119"/>
+      <c r="M62" s="165"/>
+      <c r="N62" s="165"/>
+      <c r="O62" s="165"/>
       <c r="P62" s="65">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="119" t="s">
+      <c r="Q62" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="R62" s="119"/>
-      <c r="S62" s="119"/>
-      <c r="T62" s="119"/>
+      <c r="R62" s="165"/>
+      <c r="S62" s="165"/>
+      <c r="T62" s="165"/>
       <c r="U62" s="66">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
@@ -7735,12 +7707,12 @@
       <c r="N63" s="57"/>
       <c r="O63" s="57"/>
       <c r="P63" s="57"/>
-      <c r="Q63" s="119" t="s">
+      <c r="Q63" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="R63" s="119"/>
-      <c r="S63" s="119"/>
-      <c r="T63" s="119"/>
+      <c r="R63" s="165"/>
+      <c r="S63" s="165"/>
+      <c r="T63" s="165"/>
       <c r="U63" s="67">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
@@ -7748,23 +7720,66 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:T56"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="A38:U38"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:T42"/>
+    <mergeCell ref="U40:U42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:T26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="L19:O19"/>
@@ -7780,66 +7795,23 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:P15"/>
     <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:T26"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="A38:U38"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:T42"/>
-    <mergeCell ref="U40:U42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:T56"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:U63">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
@@ -7978,38 +7950,38 @@
       <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="98" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -9627,11 +9599,11 @@
       <c r="B62" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="95">
+      <c r="C62" s="107">
         <f>J60</f>
         <v>152476.70512129119</v>
       </c>
-      <c r="D62" s="96"/>
+      <c r="D62" s="108"/>
       <c r="E62" s="15">
         <v>100</v>
       </c>
@@ -9669,10 +9641,10 @@
       <c r="B63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="99">
+      <c r="C63" s="110">
         <v>210000</v>
       </c>
-      <c r="D63" s="100"/>
+      <c r="D63" s="111"/>
       <c r="E63" s="15"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -9702,11 +9674,11 @@
       <c r="B64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="99">
+      <c r="C64" s="110">
         <f>C63-C66-C67</f>
         <v>199500</v>
       </c>
-      <c r="D64" s="100"/>
+      <c r="D64" s="111"/>
       <c r="E64" s="15">
         <f>C64/C62*100</f>
         <v>130.83965832112062</v>
@@ -9739,11 +9711,11 @@
       <c r="B65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="101">
+      <c r="C65" s="112">
         <f>C62-C64</f>
         <v>-47023.29487870881</v>
       </c>
-      <c r="D65" s="101"/>
+      <c r="D65" s="112"/>
       <c r="E65" s="15">
         <f>100-E64</f>
         <v>-30.839658321120623</v>
@@ -9776,11 +9748,11 @@
       <c r="B66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="95">
+      <c r="C66" s="107">
         <f>C63*0.03</f>
         <v>6300</v>
       </c>
-      <c r="D66" s="96"/>
+      <c r="D66" s="108"/>
       <c r="E66" s="15">
         <v>3</v>
       </c>
@@ -9812,11 +9784,11 @@
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="95">
+      <c r="C67" s="107">
         <f>C63*0.02</f>
         <v>4200</v>
       </c>
-      <c r="D67" s="96"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="15">
         <v>2</v>
       </c>
@@ -9846,6 +9818,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A7:F7"/>
@@ -9854,13 +9833,6 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\school lilaami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\school lilaami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">M!$1:$8</definedName>
@@ -56,7 +56,7 @@
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="131">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -441,16 +441,34 @@
   </si>
   <si>
     <t>-Block 1</t>
+  </si>
+  <si>
+    <t>-short wall</t>
+  </si>
+  <si>
+    <t>-long wall</t>
+  </si>
+  <si>
+    <t>-masonary column</t>
+  </si>
+  <si>
+    <t>-deduction for window opening</t>
+  </si>
+  <si>
+    <t>-deduction for door opening</t>
+  </si>
+  <si>
+    <t>-Block 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -591,7 +609,7 @@
       <name val="Preeti"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +685,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,20 +875,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,7 +899,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,7 +912,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -904,7 +928,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,7 +937,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +949,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,7 +973,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,7 +994,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,7 +1021,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1021,10 +1045,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,7 +1066,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1052,7 +1076,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1094,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1104,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,10 +1141,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,23 +1173,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1164,26 +1209,118 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1204,118 +1341,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1421,6 +1449,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1818,10 +1914,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2076,141 +2172,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="s">
         <v>122</v>
@@ -2260,7 +2356,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>1</v>
       </c>
@@ -2281,7 +2377,7 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="100" t="s">
         <v>124</v>
@@ -2290,7 +2386,7 @@
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="32"/>
       <c r="I11" s="33"/>
       <c r="J11" s="8"/>
@@ -2300,14 +2396,29 @@
       <c r="P11" s="96"/>
       <c r="Q11" s="96"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30">
+        <f>15.583/3.281</f>
+        <v>4.7494666260286493</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="31">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G12" s="40">
+        <f>PRODUCT(C12:F12)</f>
+        <v>1.6647018043075121</v>
+      </c>
       <c r="H12" s="32"/>
       <c r="I12" s="33"/>
       <c r="J12" s="8"/>
@@ -2317,14 +2428,27 @@
       <c r="P12" s="96"/>
       <c r="Q12" s="96"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="98"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="39"/>
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30">
+        <f>15.583/3.281</f>
+        <v>4.7494666260286493</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="31">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" ref="G13:G19" si="0">PRODUCT(C13:F13)</f>
+        <v>1.1340238204300042</v>
+      </c>
       <c r="H13" s="32"/>
       <c r="I13" s="33"/>
       <c r="J13" s="8"/>
@@ -2334,14 +2458,27 @@
       <c r="P13" s="96"/>
       <c r="Q13" s="96"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="98"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <f>14.083/3.281</f>
+        <v>4.2922889362999088</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="31">
+        <f>F13+F12</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="0"/>
+        <v>0.83948851277770542</v>
+      </c>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
       <c r="J14" s="8"/>
@@ -2351,14 +2488,29 @@
       <c r="P14" s="96"/>
       <c r="Q14" s="96"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2</v>
+      </c>
+      <c r="D15" s="30">
+        <f>45.42/3.281</f>
+        <v>13.843340444986284</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="F15" s="31">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G15" s="40">
+        <f t="shared" si="0"/>
+        <v>4.8521309087882436</v>
+      </c>
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
       <c r="J15" s="8"/>
@@ -2368,14 +2520,27 @@
       <c r="P15" s="96"/>
       <c r="Q15" s="96"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="98"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30">
+        <f>45.42/3.281</f>
+        <v>13.843340444986284</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="31">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G16" s="40">
+        <f t="shared" si="0"/>
+        <v>3.3053559599519216</v>
+      </c>
       <c r="H16" s="32"/>
       <c r="I16" s="33"/>
       <c r="J16" s="8"/>
@@ -2385,14 +2550,30 @@
       <c r="P16" s="96"/>
       <c r="Q16" s="96"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="29">
+        <v>6</v>
+      </c>
+      <c r="D17" s="30">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E17" s="31">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F17" s="31">
+        <f>F14</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="0"/>
+        <v>0.53567299243304567</v>
+      </c>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
       <c r="J17" s="8"/>
@@ -2402,14 +2583,28 @@
       <c r="P17" s="96"/>
       <c r="Q17" s="96"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="98"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="39"/>
+      <c r="C18" s="29">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <f>1.917/3.281</f>
+        <v>0.58427308747333129</v>
+      </c>
+      <c r="E18" s="31">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F18" s="31">
+        <f>F14</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G18" s="40">
+        <f t="shared" si="0"/>
+        <v>0.58511973019609598</v>
+      </c>
       <c r="H18" s="32"/>
       <c r="I18" s="33"/>
       <c r="J18" s="8"/>
@@ -2419,268 +2614,736 @@
       <c r="P18" s="96"/>
       <c r="Q18" s="96"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="29">
+        <v>-14</v>
+      </c>
+      <c r="D19" s="30">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="31">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" si="0"/>
+        <v>-1.4008829200588837</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="27" t="s">
+      <c r="K19" s="31"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="29">
+        <v>-2</v>
+      </c>
+      <c r="D20" s="30">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="F20" s="31">
+        <f>F12</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" ref="G20" si="1">PRODUCT(C20:F20)</f>
+        <v>-0.29377719064658014</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="31"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="29">
+        <v>-2</v>
+      </c>
+      <c r="D21" s="30">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="31">
+        <f>F13</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" ref="G21" si="2">PRODUCT(C21:F21)</f>
+        <v>-0.20012613143698338</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="31"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="31"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2</v>
+      </c>
+      <c r="D23" s="30">
+        <f>15.17/3.281</f>
+        <v>4.6235903687900031</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="F23" s="168">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G23" s="40">
+        <f>PRODUCT(C23:F23)</f>
+        <v>1.6205818116758623</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="31"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="29">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30">
+        <f>15.17/3.281</f>
+        <v>4.6235903687900031</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="168">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G24" s="40">
+        <f t="shared" ref="G24:G32" si="3">PRODUCT(C24:F24)</f>
+        <v>1.1039685141451046</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="31"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30">
+        <f>13.667/3.281</f>
+        <v>4.1654983236818044</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="168">
+        <f>F24+F23</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G25" s="40">
+        <f t="shared" si="3"/>
+        <v>0.81469072670119291</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="31"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2</v>
+      </c>
+      <c r="D26" s="30">
+        <f>44.917/3.281</f>
+        <v>13.690033526363914</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="F26" s="168">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G26" s="40">
+        <f t="shared" si="3"/>
+        <v>4.7983963899172517</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="31"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="29">
+        <v>2</v>
+      </c>
+      <c r="D27" s="30">
+        <f>44.917/3.281</f>
+        <v>13.690033526363914</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="168">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G27" s="40">
+        <f t="shared" si="3"/>
+        <v>3.2687510711836296</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="31"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="29">
+        <v>6</v>
+      </c>
+      <c r="D28" s="30">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E28" s="31">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F28" s="168">
+        <f>F25</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G28" s="40">
+        <f t="shared" si="3"/>
+        <v>0.53567299243304567</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="31"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="30">
+        <f>1.917/3.281</f>
+        <v>0.58427308747333129</v>
+      </c>
+      <c r="E29" s="31">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F29" s="168">
+        <f>F25</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G29" s="40">
+        <f t="shared" si="3"/>
+        <v>0.58511973019609598</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="31"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="29">
+        <v>-14</v>
+      </c>
+      <c r="D30" s="30">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E30" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="168">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G30" s="40">
+        <f t="shared" si="3"/>
+        <v>-1.4008829200588837</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="31"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="29">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="30">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E31" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="F31" s="168">
+        <f>F23</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.29377719064658014</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="31"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="29">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="30">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E32" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="168">
+        <f>F24</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.20012613143698338</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="31"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="31"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="31"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="31"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="4"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <f>SUM(J10:J19)</f>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8">
+        <f>SUM(J10:J36)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="M20" s="44"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="59"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-    </row>
-    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="K37" s="4"/>
+      <c r="M37" s="44"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="59"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+    </row>
+    <row r="39" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="107">
-        <f>J20</f>
+      <c r="C39" s="101">
+        <f>J37</f>
         <v>0</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="15">
+      <c r="D39" s="102"/>
+      <c r="E39" s="15">
         <v>100</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C40" s="105">
         <v>150000</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="15"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="D40" s="106"/>
+      <c r="E40" s="15"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B41" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="110">
-        <f>C23-C26-C27</f>
+      <c r="C41" s="105">
+        <f>C40-C43-C44</f>
         <v>142500</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="15" t="e">
-        <f>C24/C22*100</f>
+      <c r="D41" s="106"/>
+      <c r="E41" s="15" t="e">
+        <f>C41/C39*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="112">
-        <f>C22-C24</f>
+      <c r="C42" s="107">
+        <f>C39-C41</f>
         <v>-142500</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="15" t="e">
-        <f>100-E24</f>
+      <c r="D42" s="107"/>
+      <c r="E42" s="15" t="e">
+        <f>100-E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="107">
-        <f>C23*0.03</f>
+      <c r="C43" s="101">
+        <f>C40*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="15">
+      <c r="D43" s="102"/>
+      <c r="E43" s="15">
         <v>3</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="107">
-        <f>C23*0.02</f>
+      <c r="C44" s="101">
+        <f>C40*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="15">
+      <c r="D44" s="102"/>
+      <c r="E44" s="15">
         <v>2</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2688,6 +3351,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,106 +3380,106 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="113" t="e">
+      <c r="C6" s="120" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2816,90 +3487,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="113">
+      <c r="J6" s="120">
         <f>I30</f>
         <v>237689.74252963794</v>
       </c>
-      <c r="K6" s="114"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="121"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="I7" s="122" t="s">
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="I7" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="str">
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="115" t="str">
         <f>V!A6</f>
         <v>Project:- कालिका मन्दिर मुनि ढल व्यवस्थापन स्तरोन्नति</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="I8" s="123" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="I8" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="str">
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="115" t="str">
         <f>V!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="I9" s="123" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="I9" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="118" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="114" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -2918,10 +3589,10 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -2968,7 +3639,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="50" t="e">
         <f>new!#REF!</f>
@@ -2997,7 +3668,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="42"/>
       <c r="C15" s="15"/>
@@ -3010,7 +3681,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -3053,7 +3724,7 @@
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="50" t="e">
         <f>new!#REF!</f>
@@ -3078,7 +3749,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="42"/>
       <c r="C18" s="15"/>
@@ -3095,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -3138,7 +3809,7 @@
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="50" t="e">
         <f>new!#REF!</f>
@@ -3163,7 +3834,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="15"/>
@@ -3180,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -3223,7 +3894,7 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="50" t="e">
         <f>new!#REF!</f>
@@ -3248,7 +3919,7 @@
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="42"/>
       <c r="C24" s="15"/>
@@ -3265,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -3308,7 +3979,7 @@
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="42" t="e">
         <f>new!#REF!</f>
@@ -3333,7 +4004,7 @@
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="42"/>
       <c r="C27" s="15"/>
@@ -3350,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <f>new!A10</f>
         <v>1</v>
@@ -3393,7 +4064,7 @@
       </c>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="15"/>
@@ -3406,7 +4077,7 @@
       <c r="J29" s="37"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -3432,6 +4103,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -3445,13 +4123,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,140 +4147,140 @@
       <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+    </row>
+    <row r="5" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -3644,7 +4315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -3685,7 +4356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="51" t="s">
         <v>51</v>
@@ -3732,7 +4403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="34" t="s">
         <v>41</v>
@@ -3788,7 +4459,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="34" t="s">
         <v>37</v>
@@ -3837,7 +4508,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -3882,7 +4553,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -3930,7 +4601,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="49" t="str">
         <f>B10</f>
@@ -3990,7 +4661,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="34" t="s">
         <v>41</v>
@@ -4046,7 +4717,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -4095,7 +4766,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="34"/>
       <c r="C18" s="29"/>
@@ -4139,7 +4810,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -4160,7 +4831,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="50" t="str">
         <f>B25</f>
@@ -4190,7 +4861,7 @@
       <c r="J20" s="39"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="34" t="s">
         <v>41</v>
@@ -4215,7 +4886,7 @@
       </c>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="34" t="s">
         <v>37</v>
@@ -4233,7 +4904,7 @@
       </c>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="29"/>
@@ -4246,7 +4917,7 @@
       <c r="J23" s="52"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -4263,7 +4934,7 @@
       <c r="J24" s="39"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="50" t="str">
         <f>B10</f>
@@ -4296,7 +4967,7 @@
       <c r="S25" s="92"/>
       <c r="U25" s="93"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="50"/>
       <c r="C26" s="29">
@@ -4326,7 +4997,7 @@
       <c r="S26" s="92"/>
       <c r="U26" s="93"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="50"/>
       <c r="C27" s="29">
@@ -4356,7 +5027,7 @@
       <c r="S27" s="92"/>
       <c r="U27" s="93"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="50"/>
       <c r="C28" s="29">
@@ -4386,7 +5057,7 @@
       <c r="S28" s="92"/>
       <c r="U28" s="93"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="50"/>
       <c r="C29" s="29">
@@ -4416,7 +5087,7 @@
       <c r="S29" s="92"/>
       <c r="U29" s="93"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="50"/>
       <c r="C30" s="29">
@@ -4447,7 +5118,7 @@
       <c r="S30" s="92"/>
       <c r="U30" s="93"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="50"/>
       <c r="C31" s="29">
@@ -4478,7 +5149,7 @@
       <c r="S31" s="92"/>
       <c r="U31" s="93"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="50"/>
       <c r="C32" s="29">
@@ -4508,7 +5179,7 @@
       <c r="S32" s="92"/>
       <c r="U32" s="93"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="51" t="s">
         <v>52</v>
@@ -4523,7 +5194,7 @@
       <c r="J33" s="39"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="50"/>
       <c r="C34" s="29">
@@ -4550,7 +5221,7 @@
       <c r="J34" s="39"/>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="50"/>
       <c r="C35" s="29">
@@ -4577,7 +5248,7 @@
       <c r="J35" s="39"/>
       <c r="K35" s="31"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="50"/>
       <c r="C36" s="29">
@@ -4604,7 +5275,7 @@
       <c r="J36" s="39"/>
       <c r="K36" s="31"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="50"/>
       <c r="C37" s="29">
@@ -4631,7 +5302,7 @@
       <c r="J37" s="39"/>
       <c r="K37" s="31"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="50"/>
       <c r="C38" s="29">
@@ -4658,7 +5329,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="31"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="50"/>
       <c r="C39" s="29">
@@ -4685,7 +5356,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="31"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="50"/>
       <c r="C40" s="29">
@@ -4712,7 +5383,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="31"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="50"/>
       <c r="C41" s="29">
@@ -4739,7 +5410,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="31"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="50"/>
       <c r="C42" s="29"/>
@@ -4756,7 +5427,7 @@
         <v>0.45599999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="51" t="s">
         <v>55</v>
@@ -4788,7 +5459,7 @@
         <v>3.2215780434782624</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="51" t="s">
         <v>54</v>
@@ -4818,7 +5489,7 @@
         <v>3.6775780434782623</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="34" t="s">
         <v>41</v>
@@ -4843,7 +5514,7 @@
       </c>
       <c r="K45" s="31"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="34" t="s">
         <v>37</v>
@@ -4861,7 +5532,7 @@
       </c>
       <c r="K46" s="31"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="34"/>
       <c r="C47" s="29"/>
@@ -4874,7 +5545,7 @@
       <c r="J47" s="52"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
         <v>5</v>
       </c>
@@ -4901,7 +5572,7 @@
       <c r="J48" s="52"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="50" t="str">
         <f>B25</f>
@@ -4932,7 +5603,7 @@
       <c r="J49" s="39"/>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="50"/>
       <c r="C50" s="29">
@@ -4960,7 +5631,7 @@
       <c r="J50" s="33"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" s="50" t="str">
         <f>B43</f>
@@ -4991,7 +5662,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="31"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" s="50"/>
       <c r="C52" s="29">
@@ -5019,7 +5690,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="31"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" s="50" t="str">
         <f>B44</f>
@@ -5050,7 +5721,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="31"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" s="50"/>
       <c r="C54" s="29">
@@ -5078,7 +5749,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="31"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="34" t="s">
         <v>41</v>
@@ -5103,7 +5774,7 @@
       </c>
       <c r="K55" s="31"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="34" t="s">
         <v>37</v>
@@ -5121,7 +5792,7 @@
       </c>
       <c r="K56" s="31"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="34"/>
       <c r="C57" s="29"/>
@@ -5134,7 +5805,7 @@
       <c r="J57" s="52"/>
       <c r="K57" s="31"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="43">
         <v>6</v>
       </c>
@@ -5163,7 +5834,7 @@
       </c>
       <c r="K58" s="31"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="27"/>
       <c r="C59" s="9"/>
@@ -5177,7 +5848,7 @@
       <c r="K59" s="4"/>
       <c r="M59" s="44"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="27" t="s">
         <v>17</v>
@@ -5196,7 +5867,7 @@
       <c r="K60" s="4"/>
       <c r="M60" s="44"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="M61" s="44"/>
       <c r="N61" s="45"/>
       <c r="O61" s="45"/>
@@ -5221,15 +5892,15 @@
       <c r="AH61" s="44"/>
       <c r="AI61" s="44"/>
     </row>
-    <row r="62" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="107">
+      <c r="C62" s="101">
         <f>J60</f>
         <v>238189.74252963794</v>
       </c>
-      <c r="D62" s="108"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="15">
         <v>100</v>
       </c>
@@ -5263,14 +5934,14 @@
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="110">
+      <c r="C63" s="105">
         <v>210000</v>
       </c>
-      <c r="D63" s="111"/>
+      <c r="D63" s="106"/>
       <c r="E63" s="15"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -5296,15 +5967,15 @@
       <c r="AH63" s="44"/>
       <c r="AI63" s="44"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="110">
+      <c r="C64" s="105">
         <f>C63-C66-C67</f>
         <v>199500</v>
       </c>
-      <c r="D64" s="111"/>
+      <c r="D64" s="106"/>
       <c r="E64" s="15">
         <f>C64/C62*100</f>
         <v>83.756755383862185</v>
@@ -5333,15 +6004,15 @@
       <c r="AH64" s="44"/>
       <c r="AI64" s="44"/>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="112">
+      <c r="C65" s="107">
         <f>C62-C64</f>
         <v>38689.742529637937</v>
       </c>
-      <c r="D65" s="112"/>
+      <c r="D65" s="107"/>
       <c r="E65" s="15">
         <f>100-E64</f>
         <v>16.243244616137815</v>
@@ -5370,15 +6041,15 @@
       <c r="AH65" s="44"/>
       <c r="AI65" s="44"/>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="107">
+      <c r="C66" s="101">
         <f>C63*0.03</f>
         <v>6300</v>
       </c>
-      <c r="D66" s="108"/>
+      <c r="D66" s="102"/>
       <c r="E66" s="15">
         <v>3</v>
       </c>
@@ -5406,15 +6077,15 @@
       <c r="AH66" s="44"/>
       <c r="AI66" s="44"/>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="107">
+      <c r="C67" s="101">
         <f>C63*0.02</f>
         <v>4200</v>
       </c>
-      <c r="D67" s="108"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="15">
         <v>2</v>
       </c>
@@ -5444,13 +6115,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A7:F7"/>
@@ -5459,6 +6123,13 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5480,120 +6151,120 @@
       <selection activeCell="A54" sqref="A54:U63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="127" t="s">
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="163" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="127"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="163"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="127"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="163"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130" t="s">
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130" t="s">
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
       <c r="B5" s="68" t="s">
         <v>65</v>
       </c>
@@ -5655,7 +6326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>66</v>
       </c>
@@ -5702,7 +6373,7 @@
       <c r="T6" s="73"/>
       <c r="U6" s="75"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="68" t="s">
         <v>71</v>
@@ -5736,93 +6407,93 @@
       <c r="T7" s="73"/>
       <c r="U7" s="75"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="72">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
       <c r="K8" s="72">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
       <c r="P8" s="72">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="131" t="s">
+      <c r="Q8" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
       <c r="U8" s="76">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="72">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="72">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="L9" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
       <c r="P9" s="72">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="Q9" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
       <c r="U9" s="76">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="73"/>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -5839,152 +6510,152 @@
       <c r="N10" s="73"/>
       <c r="O10" s="73"/>
       <c r="P10" s="73"/>
-      <c r="Q10" s="131" t="s">
+      <c r="Q10" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
       <c r="U10" s="77">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="140" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="149" t="s">
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="151" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="150"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="152" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="140"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="152"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="151"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="B14" s="155"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="153"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="156" t="s">
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="156" t="s">
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="156" t="s">
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="157"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="158"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="160"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="157"/>
       <c r="B16" s="78" t="s">
         <v>65</v>
       </c>
@@ -6046,7 +6717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>83</v>
       </c>
@@ -6093,7 +6764,7 @@
       <c r="T17" s="84"/>
       <c r="U17" s="85"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="84"/>
       <c r="B18" s="78" t="s">
         <v>71</v>
@@ -6129,93 +6800,93 @@
       <c r="T18" s="84"/>
       <c r="U18" s="85"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="132" t="s">
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
       <c r="F19" s="82">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
-      <c r="G19" s="132" t="s">
+      <c r="G19" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
       <c r="K19" s="82">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L19" s="132" t="s">
+      <c r="L19" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="135"/>
       <c r="P19" s="82">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="132" t="s">
+      <c r="Q19" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="135"/>
       <c r="U19" s="86">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="82">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="135"/>
       <c r="K20" s="82">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="L20" s="132" t="s">
+      <c r="L20" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="135"/>
       <c r="P20" s="82">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
-      <c r="Q20" s="132" t="s">
+      <c r="Q20" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
       <c r="U20" s="86">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="84"/>
       <c r="B21" s="84"/>
       <c r="C21" s="84"/>
@@ -6232,18 +6903,18 @@
       <c r="N21" s="84"/>
       <c r="O21" s="84"/>
       <c r="P21" s="84"/>
-      <c r="Q21" s="132" t="s">
+      <c r="Q21" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="135"/>
       <c r="U21" s="88">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
@@ -6266,118 +6937,118 @@
       <c r="T22" s="91"/>
       <c r="U22" s="88"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="163" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="164" t="s">
+      <c r="B24" s="130"/>
+      <c r="C24" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="159" t="s">
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="126" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="159"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="126"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="159"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="B26" s="127"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="126"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162" t="s">
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162" t="s">
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162" t="s">
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="128"/>
       <c r="B28" s="61" t="s">
         <v>65</v>
       </c>
@@ -6439,7 +7110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
         <v>87</v>
       </c>
@@ -6502,7 +7173,7 @@
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="61" t="s">
         <v>71</v>
@@ -6558,7 +7229,7 @@
       <c r="T30" s="57"/>
       <c r="U30" s="56"/>
     </row>
-    <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
@@ -6592,7 +7263,7 @@
       <c r="T31" s="57"/>
       <c r="U31" s="56"/>
     </row>
-    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -6626,7 +7297,7 @@
       <c r="T32" s="57"/>
       <c r="U32" s="56"/>
     </row>
-    <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="57"/>
       <c r="C33" s="57"/>
@@ -6660,7 +7331,7 @@
       <c r="T33" s="57"/>
       <c r="U33" s="56"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -6694,93 +7365,93 @@
       <c r="T34" s="57"/>
       <c r="U34" s="56"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="165" t="s">
+    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
       <c r="F35" s="65">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="165" t="s">
+      <c r="G35" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
       <c r="K35" s="65">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="165" t="s">
+      <c r="L35" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="165"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
       <c r="P35" s="65">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="165" t="s">
+      <c r="Q35" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="R35" s="165"/>
-      <c r="S35" s="165"/>
-      <c r="T35" s="165"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
       <c r="U35" s="66">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="165" t="s">
+    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
       <c r="F36" s="65">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="165" t="s">
+      <c r="G36" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
       <c r="K36" s="65">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="165" t="s">
+      <c r="L36" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="M36" s="165"/>
-      <c r="N36" s="165"/>
-      <c r="O36" s="165"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="125"/>
       <c r="P36" s="65">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="165" t="s">
+      <c r="Q36" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
       <c r="U36" s="66">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
@@ -6797,152 +7468,152 @@
       <c r="N37" s="57"/>
       <c r="O37" s="57"/>
       <c r="P37" s="57"/>
-      <c r="Q37" s="165" t="s">
+      <c r="Q37" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="165"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
       <c r="U37" s="67">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="166"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="166"/>
-      <c r="O38" s="166"/>
-      <c r="P38" s="166"/>
-      <c r="Q38" s="166"/>
-      <c r="R38" s="166"/>
-      <c r="S38" s="166"/>
-      <c r="T38" s="166"/>
-      <c r="U38" s="166"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="163" t="s">
+    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="132"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164" t="s">
+      <c r="B40" s="130"/>
+      <c r="C40" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="164"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="164"/>
-      <c r="R40" s="164"/>
-      <c r="S40" s="164"/>
-      <c r="T40" s="164"/>
-      <c r="U40" s="159" t="s">
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="126" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="164"/>
-      <c r="R41" s="164"/>
-      <c r="S41" s="164"/>
-      <c r="T41" s="164"/>
-      <c r="U41" s="159"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="160" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="130"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
+      <c r="S41" s="131"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="126"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="164"/>
-      <c r="O42" s="164"/>
-      <c r="P42" s="164"/>
-      <c r="Q42" s="164"/>
-      <c r="R42" s="164"/>
-      <c r="S42" s="164"/>
-      <c r="T42" s="164"/>
-      <c r="U42" s="159"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="161" t="s">
+      <c r="B42" s="127"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
+      <c r="S42" s="131"/>
+      <c r="T42" s="131"/>
+      <c r="U42" s="126"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162" t="s">
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
-      <c r="K43" s="162"/>
-      <c r="L43" s="162" t="s">
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162" t="s">
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="R43" s="162"/>
-      <c r="S43" s="162"/>
-      <c r="T43" s="162"/>
-      <c r="U43" s="162"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="128"/>
       <c r="B44" s="61" t="s">
         <v>65</v>
       </c>
@@ -7004,7 +7675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>97</v>
       </c>
@@ -7067,7 +7738,7 @@
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="57"/>
       <c r="B46" s="61" t="s">
         <v>71</v>
@@ -7123,7 +7794,7 @@
       <c r="T46" s="57"/>
       <c r="U46" s="56"/>
     </row>
-    <row r="47" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="57"/>
       <c r="B47" s="57"/>
       <c r="C47" s="57"/>
@@ -7157,7 +7828,7 @@
       <c r="T47" s="57"/>
       <c r="U47" s="56"/>
     </row>
-    <row r="48" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="57"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -7191,7 +7862,7 @@
       <c r="T48" s="57"/>
       <c r="U48" s="56"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57"/>
@@ -7225,93 +7896,93 @@
       <c r="T49" s="57"/>
       <c r="U49" s="56"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="165" t="s">
+    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
       <c r="F50" s="65">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="165" t="s">
+      <c r="G50" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
       <c r="K50" s="65">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="165" t="s">
+      <c r="L50" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="165"/>
-      <c r="N50" s="165"/>
-      <c r="O50" s="165"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
       <c r="P50" s="65">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="165" t="s">
+      <c r="Q50" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="R50" s="165"/>
-      <c r="S50" s="165"/>
-      <c r="T50" s="165"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
       <c r="U50" s="66">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="165" t="s">
+    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
       <c r="F51" s="65">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="165" t="s">
+      <c r="G51" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
       <c r="K51" s="65">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="165" t="s">
+      <c r="L51" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="M51" s="165"/>
-      <c r="N51" s="165"/>
-      <c r="O51" s="165"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="125"/>
       <c r="P51" s="65">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="165" t="s">
+      <c r="Q51" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="R51" s="165"/>
-      <c r="S51" s="165"/>
-      <c r="T51" s="165"/>
+      <c r="R51" s="125"/>
+      <c r="S51" s="125"/>
+      <c r="T51" s="125"/>
       <c r="U51" s="66">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -7328,129 +7999,129 @@
       <c r="N52" s="57"/>
       <c r="O52" s="57"/>
       <c r="P52" s="57"/>
-      <c r="Q52" s="165" t="s">
+      <c r="Q52" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="R52" s="165"/>
-      <c r="S52" s="165"/>
-      <c r="T52" s="165"/>
+      <c r="R52" s="125"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
       <c r="U52" s="67">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="163" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="164" t="s">
+      <c r="B54" s="130"/>
+      <c r="C54" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="164"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="164"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="164"/>
-      <c r="M54" s="164"/>
-      <c r="N54" s="164"/>
-      <c r="O54" s="164"/>
-      <c r="P54" s="164"/>
-      <c r="Q54" s="164"/>
-      <c r="R54" s="164"/>
-      <c r="S54" s="164"/>
-      <c r="T54" s="164"/>
-      <c r="U54" s="159" t="s">
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="131"/>
+      <c r="Q54" s="131"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="131"/>
+      <c r="T54" s="131"/>
+      <c r="U54" s="126" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="164"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="164"/>
-      <c r="P55" s="164"/>
-      <c r="Q55" s="164"/>
-      <c r="R55" s="164"/>
-      <c r="S55" s="164"/>
-      <c r="T55" s="164"/>
-      <c r="U55" s="159"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="160" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="126"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="160"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="164"/>
-      <c r="M56" s="164"/>
-      <c r="N56" s="164"/>
-      <c r="O56" s="164"/>
-      <c r="P56" s="164"/>
-      <c r="Q56" s="164"/>
-      <c r="R56" s="164"/>
-      <c r="S56" s="164"/>
-      <c r="T56" s="164"/>
-      <c r="U56" s="159"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="161" t="s">
+      <c r="B56" s="127"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="131"/>
+      <c r="R56" s="131"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="126"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162" t="s">
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="162"/>
-      <c r="K57" s="162"/>
-      <c r="L57" s="162" t="s">
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="M57" s="162"/>
-      <c r="N57" s="162"/>
-      <c r="O57" s="162"/>
-      <c r="P57" s="162"/>
-      <c r="Q57" s="162" t="s">
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="162"/>
-      <c r="S57" s="162"/>
-      <c r="T57" s="162"/>
-      <c r="U57" s="162"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="129"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="128"/>
       <c r="B58" s="61" t="s">
         <v>65</v>
       </c>
@@ -7512,7 +8183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
         <v>101</v>
       </c>
@@ -7559,7 +8230,7 @@
       <c r="T59" s="57"/>
       <c r="U59" s="56"/>
     </row>
-    <row r="60" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="57"/>
       <c r="B60" s="61" t="s">
         <v>71</v>
@@ -7604,93 +8275,93 @@
       <c r="T60" s="57"/>
       <c r="U60" s="56"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="165" t="s">
+    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
       <c r="F61" s="65">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="165" t="s">
+      <c r="G61" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="125"/>
       <c r="K61" s="65">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="165" t="s">
+      <c r="L61" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="M61" s="165"/>
-      <c r="N61" s="165"/>
-      <c r="O61" s="165"/>
+      <c r="M61" s="125"/>
+      <c r="N61" s="125"/>
+      <c r="O61" s="125"/>
       <c r="P61" s="65">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="165" t="s">
+      <c r="Q61" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="R61" s="165"/>
-      <c r="S61" s="165"/>
-      <c r="T61" s="165"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="125"/>
+      <c r="T61" s="125"/>
       <c r="U61" s="66">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="165" t="s">
+    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
       <c r="F62" s="65">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="165" t="s">
+      <c r="G62" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
       <c r="K62" s="65">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="165" t="s">
+      <c r="L62" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="165"/>
-      <c r="N62" s="165"/>
-      <c r="O62" s="165"/>
+      <c r="M62" s="125"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="125"/>
       <c r="P62" s="65">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="165" t="s">
+      <c r="Q62" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="R62" s="165"/>
-      <c r="S62" s="165"/>
-      <c r="T62" s="165"/>
+      <c r="R62" s="125"/>
+      <c r="S62" s="125"/>
+      <c r="T62" s="125"/>
       <c r="U62" s="66">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -7707,12 +8378,12 @@
       <c r="N63" s="57"/>
       <c r="O63" s="57"/>
       <c r="P63" s="57"/>
-      <c r="Q63" s="165" t="s">
+      <c r="Q63" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="R63" s="165"/>
-      <c r="S63" s="165"/>
-      <c r="T63" s="165"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="125"/>
+      <c r="T63" s="125"/>
       <c r="U63" s="67">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
@@ -7720,29 +8391,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:T56"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:T26"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="Q36:T36"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="L50:O50"/>
@@ -7758,60 +8460,29 @@
     <mergeCell ref="G43:K43"/>
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:T26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:T14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:T56"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="Q62:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:U63">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
@@ -7850,140 +8521,140 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+    </row>
+    <row r="5" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -8018,7 +8689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -8059,7 +8730,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="51" t="s">
         <v>51</v>
@@ -8106,7 +8777,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="34" t="s">
         <v>41</v>
@@ -8162,7 +8833,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="34" t="s">
         <v>37</v>
@@ -8211,7 +8882,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -8256,7 +8927,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -8304,7 +8975,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="49" t="str">
         <f>B10</f>
@@ -8364,7 +9035,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="34" t="s">
         <v>41</v>
@@ -8420,7 +9091,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -8469,7 +9140,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="34"/>
       <c r="C18" s="29"/>
@@ -8513,7 +9184,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -8534,7 +9205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="50" t="str">
         <f>B25</f>
@@ -8564,7 +9235,7 @@
       <c r="J20" s="39"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="34" t="s">
         <v>41</v>
@@ -8589,7 +9260,7 @@
       </c>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="34" t="s">
         <v>37</v>
@@ -8607,7 +9278,7 @@
       </c>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="29"/>
@@ -8620,7 +9291,7 @@
       <c r="J23" s="52"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -8637,7 +9308,7 @@
       <c r="J24" s="39"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="50" t="str">
         <f>B10</f>
@@ -8670,7 +9341,7 @@
       <c r="S25" s="92"/>
       <c r="U25" s="93"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="50"/>
       <c r="C26" s="29">
@@ -8700,7 +9371,7 @@
       <c r="S26" s="92"/>
       <c r="U26" s="93"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="50"/>
       <c r="C27" s="29">
@@ -8730,7 +9401,7 @@
       <c r="S27" s="92"/>
       <c r="U27" s="93"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="50"/>
       <c r="C28" s="29">
@@ -8760,7 +9431,7 @@
       <c r="S28" s="92"/>
       <c r="U28" s="93"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="50"/>
       <c r="C29" s="29">
@@ -8790,7 +9461,7 @@
       <c r="S29" s="92"/>
       <c r="U29" s="93"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="50"/>
       <c r="C30" s="29">
@@ -8821,7 +9492,7 @@
       <c r="S30" s="92"/>
       <c r="U30" s="93"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="50"/>
       <c r="C31" s="29">
@@ -8852,7 +9523,7 @@
       <c r="S31" s="92"/>
       <c r="U31" s="93"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="50"/>
       <c r="C32" s="29">
@@ -8882,7 +9553,7 @@
       <c r="S32" s="92"/>
       <c r="U32" s="93"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="51" t="s">
         <v>52</v>
@@ -8897,7 +9568,7 @@
       <c r="J33" s="39"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="50"/>
       <c r="C34" s="29">
@@ -8924,7 +9595,7 @@
       <c r="J34" s="39"/>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="50"/>
       <c r="C35" s="29">
@@ -8951,7 +9622,7 @@
       <c r="J35" s="39"/>
       <c r="K35" s="31"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="50"/>
       <c r="C36" s="29">
@@ -8978,7 +9649,7 @@
       <c r="J36" s="39"/>
       <c r="K36" s="31"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="50"/>
       <c r="C37" s="29">
@@ -9005,7 +9676,7 @@
       <c r="J37" s="39"/>
       <c r="K37" s="31"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="50"/>
       <c r="C38" s="29">
@@ -9032,7 +9703,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="31"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="50"/>
       <c r="C39" s="29">
@@ -9059,7 +9730,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="31"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="50"/>
       <c r="C40" s="29">
@@ -9086,7 +9757,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="31"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="50"/>
       <c r="C41" s="29">
@@ -9113,7 +9784,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="31"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="50"/>
       <c r="C42" s="29"/>
@@ -9130,7 +9801,7 @@
         <v>0.45599999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="51" t="s">
         <v>55</v>
@@ -9162,7 +9833,7 @@
         <v>3.2215780434782624</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="51" t="s">
         <v>54</v>
@@ -9192,7 +9863,7 @@
         <v>3.6775780434782623</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="34" t="s">
         <v>41</v>
@@ -9217,7 +9888,7 @@
       </c>
       <c r="K45" s="31"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="34" t="s">
         <v>37</v>
@@ -9235,7 +9906,7 @@
       </c>
       <c r="K46" s="31"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="34"/>
       <c r="C47" s="29"/>
@@ -9248,7 +9919,7 @@
       <c r="J47" s="52"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
         <v>5</v>
       </c>
@@ -9275,7 +9946,7 @@
       <c r="J48" s="52"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="50" t="str">
         <f>B25</f>
@@ -9306,7 +9977,7 @@
       <c r="J49" s="39"/>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="50"/>
       <c r="C50" s="29">
@@ -9334,7 +10005,7 @@
       <c r="J50" s="33"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" s="50" t="str">
         <f>B43</f>
@@ -9365,7 +10036,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="31"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" s="50"/>
       <c r="C52" s="29">
@@ -9393,7 +10064,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="31"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" s="50" t="str">
         <f>B44</f>
@@ -9424,7 +10095,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="31"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" s="50"/>
       <c r="C54" s="29">
@@ -9452,7 +10123,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="31"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="34" t="s">
         <v>41</v>
@@ -9477,7 +10148,7 @@
       </c>
       <c r="K55" s="31"/>
     </row>
-    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="34" t="s">
         <v>37</v>
@@ -9495,7 +10166,7 @@
       </c>
       <c r="K56" s="31"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="34"/>
       <c r="C57" s="29"/>
@@ -9508,7 +10179,7 @@
       <c r="J57" s="52"/>
       <c r="K57" s="31"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="43">
         <v>6</v>
       </c>
@@ -9537,7 +10208,7 @@
       </c>
       <c r="K58" s="31"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="27"/>
       <c r="C59" s="9"/>
@@ -9551,7 +10222,7 @@
       <c r="K59" s="4"/>
       <c r="M59" s="44"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="27" t="s">
         <v>17</v>
@@ -9570,7 +10241,7 @@
       <c r="K60" s="4"/>
       <c r="M60" s="44"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="M61" s="44"/>
       <c r="N61" s="45"/>
       <c r="O61" s="45"/>
@@ -9595,15 +10266,15 @@
       <c r="AH61" s="44"/>
       <c r="AI61" s="44"/>
     </row>
-    <row r="62" spans="1:35" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="107">
+      <c r="C62" s="101">
         <f>J60</f>
         <v>152476.70512129119</v>
       </c>
-      <c r="D62" s="108"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="15">
         <v>100</v>
       </c>
@@ -9637,14 +10308,14 @@
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
     </row>
-    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="110">
+      <c r="C63" s="105">
         <v>210000</v>
       </c>
-      <c r="D63" s="111"/>
+      <c r="D63" s="106"/>
       <c r="E63" s="15"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -9670,15 +10341,15 @@
       <c r="AH63" s="44"/>
       <c r="AI63" s="44"/>
     </row>
-    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="110">
+      <c r="C64" s="105">
         <f>C63-C66-C67</f>
         <v>199500</v>
       </c>
-      <c r="D64" s="111"/>
+      <c r="D64" s="106"/>
       <c r="E64" s="15">
         <f>C64/C62*100</f>
         <v>130.83965832112062</v>
@@ -9707,15 +10378,15 @@
       <c r="AH64" s="44"/>
       <c r="AI64" s="44"/>
     </row>
-    <row r="65" spans="2:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="112">
+      <c r="C65" s="107">
         <f>C62-C64</f>
         <v>-47023.29487870881</v>
       </c>
-      <c r="D65" s="112"/>
+      <c r="D65" s="107"/>
       <c r="E65" s="15">
         <f>100-E64</f>
         <v>-30.839658321120623</v>
@@ -9744,15 +10415,15 @@
       <c r="AH65" s="44"/>
       <c r="AI65" s="44"/>
     </row>
-    <row r="66" spans="2:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="107">
+      <c r="C66" s="101">
         <f>C63*0.03</f>
         <v>6300</v>
       </c>
-      <c r="D66" s="108"/>
+      <c r="D66" s="102"/>
       <c r="E66" s="15">
         <v>3</v>
       </c>
@@ -9780,15 +10451,15 @@
       <c r="AH66" s="44"/>
       <c r="AI66" s="44"/>
     </row>
-    <row r="67" spans="2:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="107">
+      <c r="C67" s="101">
         <f>C63*0.02</f>
         <v>4200</v>
       </c>
-      <c r="D67" s="108"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="15">
         <v>2</v>
       </c>
@@ -9818,13 +10489,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A7:F7"/>
@@ -9833,6 +10497,13 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -42,7 +42,7 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="112">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -393,15 +393,19 @@
   </si>
   <si>
     <t>-deduction for ventilation</t>
+  </si>
+  <si>
+    <t>sqm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -817,7 +821,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1034,10 +1038,44 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,21 +1088,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,26 +1124,118 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1121,137 +1256,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2011,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE63"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,96 +2042,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
@@ -2138,12 +2143,12 @@
       <c r="E7" s="94"/>
       <c r="F7" s="94"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2218,7 +2223,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="86" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="29"/>
@@ -2237,7 +2242,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="87" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="29">
@@ -2269,7 +2274,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
-      <c r="B13" s="153"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="29">
         <v>2</v>
       </c>
@@ -2299,7 +2304,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="153"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="29">
         <v>1</v>
       </c>
@@ -2329,7 +2334,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="87" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="29">
@@ -2361,7 +2366,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="153"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
@@ -2391,7 +2396,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="87" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="29">
@@ -2424,7 +2429,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
-      <c r="B18" s="153"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
@@ -2455,7 +2460,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="87" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="29">
@@ -2486,7 +2491,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="153"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
@@ -2502,7 +2507,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="87" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="29">
@@ -2534,7 +2539,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="29">
         <v>-2</v>
       </c>
@@ -2564,7 +2569,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="86" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="29"/>
@@ -2583,7 +2588,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="87" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="29">
@@ -2615,7 +2620,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="153"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="29">
         <v>2</v>
       </c>
@@ -2645,7 +2650,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="153"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="29">
         <v>1</v>
       </c>
@@ -2674,7 +2679,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="87" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="29">
@@ -2705,7 +2710,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="153"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="29">
         <v>2</v>
       </c>
@@ -2734,7 +2739,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="87" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="29">
@@ -2766,7 +2771,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="153"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="29">
         <v>4</v>
       </c>
@@ -2796,7 +2801,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="87" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="29">
@@ -2827,7 +2832,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="87" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="29">
@@ -2884,7 +2889,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="152" t="s">
+      <c r="B34" s="86" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="29"/>
@@ -2903,25 +2908,25 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="154">
+      <c r="C35" s="88">
         <v>2</v>
       </c>
-      <c r="D35" s="155">
-        <v>4.0129999999999999</v>
-      </c>
-      <c r="E35" s="156">
+      <c r="D35" s="89">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="E35" s="90">
         <v>0.23</v>
       </c>
-      <c r="F35" s="156">
+      <c r="F35" s="90">
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G35" s="157">
+      <c r="G35" s="91">
         <f>PRODUCT(C35:F35)</f>
-        <v>1.9691953672660771</v>
+        <v>1.9795001523925628</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="33"/>
@@ -2934,23 +2939,23 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="154">
+      <c r="B36" s="87"/>
+      <c r="C36" s="88">
         <v>2</v>
       </c>
-      <c r="D36" s="155">
-        <v>4.0129999999999999</v>
-      </c>
-      <c r="E36" s="156">
+      <c r="D36" s="89">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="E36" s="90">
         <v>0.1</v>
       </c>
-      <c r="F36" s="156">
+      <c r="F36" s="90">
         <f>4.75/3.281</f>
         <v>1.4477293508076805</v>
       </c>
-      <c r="G36" s="157">
-        <f t="shared" ref="G36:G46" si="6">PRODUCT(C36:F36)</f>
-        <v>1.1619475769582444</v>
+      <c r="G36" s="91">
+        <f t="shared" ref="G36:G47" si="6">PRODUCT(C36:F36)</f>
+        <v>1.1680280402316365</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
@@ -2963,21 +2968,21 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="154">
+      <c r="B37" s="87"/>
+      <c r="C37" s="88">
         <v>1</v>
       </c>
-      <c r="D37" s="155">
+      <c r="D37" s="89">
         <v>4.0129999999999999</v>
       </c>
-      <c r="E37" s="156">
+      <c r="E37" s="90">
         <v>0.1</v>
       </c>
-      <c r="F37" s="156">
+      <c r="F37" s="90">
         <f>F36+F35</f>
         <v>2.5144772935080768</v>
       </c>
-      <c r="G37" s="157">
+      <c r="G37" s="91">
         <f t="shared" si="6"/>
         <v>1.0090597378847912</v>
       </c>
@@ -2991,25 +2996,25 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="154">
+      <c r="C38" s="88">
         <v>2</v>
       </c>
-      <c r="D38" s="155">
-        <v>14.15</v>
-      </c>
-      <c r="E38" s="156">
+      <c r="D38" s="89">
+        <v>14.147</v>
+      </c>
+      <c r="E38" s="90">
         <v>0.23</v>
       </c>
-      <c r="F38" s="156">
+      <c r="F38" s="90">
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G38" s="157">
+      <c r="G38" s="91">
         <f t="shared" si="6"/>
-        <v>6.9434623590368787</v>
+        <v>6.9419902468759513</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
@@ -3021,64 +3026,91 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="154">
+      <c r="B39" s="87"/>
+      <c r="C39" s="88">
         <v>2</v>
       </c>
-      <c r="D39" s="155">
-        <v>14.15</v>
-      </c>
-      <c r="E39" s="156">
+      <c r="D39" s="89">
+        <v>14.147</v>
+      </c>
+      <c r="E39" s="90">
         <v>0.1</v>
       </c>
-      <c r="F39" s="156">
+      <c r="F39" s="90">
         <f>5.75/3.281</f>
         <v>1.752514477293508</v>
       </c>
-      <c r="G39" s="157">
+      <c r="G39" s="91">
         <f t="shared" si="6"/>
-        <v>4.9596159707406278</v>
+        <v>4.9585644620542517</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="33"/>
       <c r="J39" s="8"/>
       <c r="K39" s="31"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="81"/>
+      <c r="N39" s="158">
+        <f>1.76+3.5/3.281</f>
+        <v>2.8267479427003961</v>
+      </c>
+      <c r="O39" s="81">
+        <f>(5.75+3.5)/3.281</f>
+        <v>2.8192624199939043</v>
+      </c>
       <c r="P39" s="81"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="154">
+      <c r="C40" s="88">
         <f>-3*2</f>
         <v>-6</v>
       </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="157"/>
+      <c r="D40" s="89">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="E40" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.70230000000000015</v>
+      </c>
       <c r="H40" s="32"/>
       <c r="I40" s="33"/>
       <c r="J40" s="8"/>
       <c r="K40" s="31"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="81"/>
+      <c r="O40" s="81">
+        <f>3000*4*6000</f>
+        <v>72000000</v>
+      </c>
       <c r="P40" s="81"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154">
+      <c r="B41" s="87"/>
+      <c r="C41" s="88">
         <f>-1*2</f>
         <v>-2</v>
       </c>
-      <c r="D41" s="155"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="157"/>
+      <c r="D41" s="89">
+        <v>2.375</v>
+      </c>
+      <c r="E41" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.23750000000000002</v>
+      </c>
       <c r="H41" s="32"/>
       <c r="I41" s="33"/>
       <c r="J41" s="8"/>
@@ -3089,25 +3121,25 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="154">
+      <c r="C42" s="88">
         <v>6</v>
       </c>
-      <c r="D42" s="155">
+      <c r="D42" s="89">
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="E42" s="156">
+      <c r="E42" s="90">
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="F42" s="156">
+      <c r="F42" s="90">
         <f>F39+F38</f>
         <v>2.8192624199939038</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="91">
         <f t="shared" si="6"/>
         <v>0.77216381175092275</v>
       </c>
@@ -3121,25 +3153,25 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="154">
+      <c r="B43" s="87"/>
+      <c r="C43" s="88">
         <v>4</v>
       </c>
-      <c r="D43" s="155">
+      <c r="D43" s="89">
         <f>1.917/3.281</f>
         <v>0.58427308747333129</v>
       </c>
-      <c r="E43" s="156">
+      <c r="E43" s="90">
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="F43" s="156">
-        <f>F42+F39</f>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="G43" s="157">
+      <c r="F43" s="90">
+        <f>F38+F39</f>
+        <v>2.8192624199939038</v>
+      </c>
+      <c r="G43" s="91">
         <f t="shared" si="6"/>
-        <v>1.3677413048062084</v>
+        <v>0.84344047129716171</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="33"/>
@@ -3151,25 +3183,24 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="154">
-        <v>-14</v>
-      </c>
-      <c r="D44" s="155">
-        <f>2.75/3.281</f>
-        <v>0.8381590978360256</v>
-      </c>
-      <c r="E44" s="156">
+      <c r="C44" s="88">
+        <v>-10</v>
+      </c>
+      <c r="D44" s="89">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E44" s="90">
         <v>0.1</v>
       </c>
-      <c r="F44" s="156">
+      <c r="F44" s="90">
         <v>1.2</v>
       </c>
-      <c r="G44" s="157">
+      <c r="G44" s="91">
         <f t="shared" si="6"/>
-        <v>-1.408107284364523</v>
+        <v>-1.0055999999999998</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="33"/>
@@ -3181,107 +3212,119 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="153" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="154">
+      <c r="B45" s="87"/>
+      <c r="C45" s="88">
         <v>-2</v>
       </c>
-      <c r="D45" s="155">
-        <f>2.75/3.281</f>
-        <v>0.8381590978360256</v>
-      </c>
-      <c r="E45" s="156">
-        <v>0.23</v>
-      </c>
-      <c r="F45" s="156">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="G45" s="157">
-        <f t="shared" si="6"/>
-        <v>-0.41128806690521219</v>
+      <c r="D45" s="89">
+        <v>2.375</v>
+      </c>
+      <c r="E45" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="90">
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="91">
+        <f t="shared" ref="G45" si="7">PRODUCT(C45:F45)</f>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="33"/>
       <c r="J45" s="8"/>
       <c r="K45" s="31"/>
-      <c r="N45" s="41">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
+      <c r="N45" s="41"/>
       <c r="O45" s="81"/>
       <c r="P45" s="81"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="154">
+      <c r="B46" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="88">
         <v>-2</v>
       </c>
-      <c r="D46" s="155">
+      <c r="D46" s="89">
         <f>2.75/3.281</f>
         <v>0.8381590978360256</v>
       </c>
-      <c r="E46" s="156">
-        <v>0.1</v>
-      </c>
-      <c r="F46" s="156">
-        <f>F44</f>
-        <v>1.2</v>
-      </c>
-      <c r="G46" s="157">
+      <c r="E46" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F46" s="90">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="G46" s="91">
         <f t="shared" si="6"/>
-        <v>-0.20115818348064615</v>
+        <v>-0.41128806690521219</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="33"/>
       <c r="J46" s="8"/>
       <c r="K46" s="31"/>
+      <c r="N46" s="41">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
-      <c r="B47" s="153" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="39">
-        <f>SUM(G12:G33)</f>
-        <v>23.688526451553852</v>
-      </c>
-      <c r="H47" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="33">
-        <v>1950.4</v>
-      </c>
-      <c r="J47" s="8">
-        <f>G47*I47</f>
-        <v>46202.101991110634</v>
-      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="88">
+        <v>-2</v>
+      </c>
+      <c r="D47" s="89">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E47" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="90">
+        <f>F44</f>
+        <v>1.2</v>
+      </c>
+      <c r="G47" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.20115818348064615</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="8"/>
       <c r="K47" s="31"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
-      <c r="B48" s="153"/>
+      <c r="B48" s="87" t="s">
+        <v>107</v>
+      </c>
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="8"/>
+      <c r="G48" s="39">
+        <f>SUM(G12:G33)</f>
+        <v>23.688526451553852</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="33">
+        <v>1950.4</v>
+      </c>
+      <c r="J48" s="8">
+        <f>G48*I48</f>
+        <v>46202.101991110634</v>
+      </c>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
-      <c r="B49" s="84" t="s">
-        <v>108</v>
-      </c>
+      <c r="B49" s="87"/>
       <c r="C49" s="29"/>
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
@@ -3292,9 +3335,13 @@
       <c r="J49" s="8"/>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="84"/>
+    <row r="50" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>2</v>
+      </c>
+      <c r="B50" s="84" t="s">
+        <v>108</v>
+      </c>
       <c r="C50" s="29"/>
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
@@ -3304,19 +3351,27 @@
       <c r="I50" s="33"/>
       <c r="J50" s="8"/>
       <c r="K50" s="31"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
+      <c r="B51" s="86" t="str">
+        <f>B11</f>
+        <v>-Block 1</v>
+      </c>
+      <c r="C51" s="29">
+        <v>2</v>
+      </c>
+      <c r="D51" s="30">
+        <v>14.097</v>
+      </c>
+      <c r="E51" s="31">
+        <v>3.2</v>
+      </c>
       <c r="F51" s="31"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="91">
+        <f t="shared" ref="G51:G58" si="8">PRODUCT(C51:F51)</f>
+        <v>90.220799999999997</v>
+      </c>
       <c r="H51" s="32"/>
       <c r="I51" s="33"/>
       <c r="J51" s="8"/>
@@ -3328,12 +3383,21 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="29">
+        <v>2</v>
+      </c>
+      <c r="D52" s="30">
+        <v>5</v>
+      </c>
       <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="39"/>
+      <c r="F52" s="31">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G52" s="91">
+        <f t="shared" si="8"/>
+        <v>4.0600000000000005</v>
+      </c>
       <c r="H52" s="32"/>
       <c r="I52" s="33"/>
       <c r="J52" s="8"/>
@@ -3345,12 +3409,22 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="29">
+        <v>2</v>
+      </c>
+      <c r="D53" s="30">
+        <f>D52/2</f>
+        <v>2.5</v>
+      </c>
       <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="39"/>
+      <c r="F53" s="31">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G53" s="39">
+        <f>C53*0.5*D53*F53</f>
+        <v>2.4125000000000001</v>
+      </c>
       <c r="H53" s="32"/>
       <c r="I53" s="33"/>
       <c r="J53" s="8"/>
@@ -3362,12 +3436,24 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
+      <c r="B54" s="86" t="str">
+        <f>B23</f>
+        <v>-Block 2</v>
+      </c>
+      <c r="C54" s="29">
+        <v>2</v>
+      </c>
+      <c r="D54" s="30">
+        <v>13.945</v>
+      </c>
+      <c r="E54" s="31">
+        <v>3.15</v>
+      </c>
       <c r="F54" s="31"/>
-      <c r="G54" s="39"/>
+      <c r="G54" s="91">
+        <f t="shared" si="8"/>
+        <v>87.853499999999997</v>
+      </c>
       <c r="H54" s="32"/>
       <c r="I54" s="33"/>
       <c r="J54" s="8"/>
@@ -3378,267 +3464,432 @@
       <c r="Q54" s="81"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="153"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="29">
+        <v>2</v>
+      </c>
+      <c r="D55" s="30">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G55" s="91">
+        <f t="shared" si="8"/>
+        <v>3.671052</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="4"/>
-      <c r="M55" s="41"/>
+      <c r="K55" s="31"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="29">
+        <v>2</v>
+      </c>
+      <c r="D56" s="30">
+        <f>D55/2</f>
+        <v>2.2605</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G56" s="39">
+        <f>C56*0.5*D56*F56</f>
+        <v>2.2401554999999997</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="31"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="86" t="str">
+        <f>B34</f>
+        <v>-Block 3</v>
+      </c>
+      <c r="C57" s="29">
+        <v>2</v>
+      </c>
+      <c r="D57" s="30">
+        <v>14.401</v>
+      </c>
+      <c r="E57" s="31">
+        <v>3.35</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="G57" s="91">
+        <f t="shared" si="8"/>
+        <v>96.486699999999999</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="31"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="29">
+        <v>2</v>
+      </c>
+      <c r="D58" s="30">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G58" s="91">
+        <f t="shared" si="8"/>
+        <v>2.8757679999999994</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="31"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="29">
+        <v>2</v>
+      </c>
+      <c r="D59" s="30">
+        <f>D58/2</f>
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G59" s="39">
+        <f>C59*0.5*D59*F59</f>
+        <v>1.744848</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="31"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="39">
+        <f>SUM(G51:G59)</f>
+        <v>291.56532349999998</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="33">
+        <v>69.87</v>
+      </c>
+      <c r="J60" s="8">
+        <f>G60*I60</f>
+        <v>20371.669152945</v>
+      </c>
+      <c r="K60" s="31"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="31"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="4"/>
+      <c r="M62" s="41"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8">
-        <f>SUM(J10:J55)</f>
-        <v>46202.101991110634</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="M56" s="41"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M57" s="41"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="47"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="41"/>
-    </row>
-    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8">
+        <f>SUM(J10:J62)</f>
+        <v>66573.77114405563</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="M63" s="41"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="47"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="41"/>
+      <c r="AC64" s="41"/>
+      <c r="AD64" s="41"/>
+      <c r="AE64" s="41"/>
+    </row>
+    <row r="65" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="92">
-        <f>J56</f>
-        <v>46202.101991110634</v>
-      </c>
-      <c r="D58" s="93"/>
-      <c r="E58" s="15">
+      <c r="C65" s="92">
+        <f>J63</f>
+        <v>66573.77114405563</v>
+      </c>
+      <c r="D65" s="93"/>
+      <c r="E65" s="15">
         <v>100</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="95">
+      <c r="C66" s="96">
         <v>150000</v>
       </c>
-      <c r="D59" s="96"/>
-      <c r="E59" s="15"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="41"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="D66" s="97"/>
+      <c r="E66" s="15"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="41"/>
+      <c r="AA66" s="41"/>
+      <c r="AB66" s="41"/>
+      <c r="AC66" s="41"/>
+      <c r="AD66" s="41"/>
+      <c r="AE66" s="41"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="95">
-        <f>C59-C62-C63</f>
+      <c r="C67" s="96">
+        <f>C66-C69-C70</f>
         <v>142500</v>
       </c>
-      <c r="D60" s="96"/>
-      <c r="E60" s="15">
-        <f>C60/C58*100</f>
-        <v>308.42752571607514</v>
-      </c>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="41"/>
-      <c r="AD60" s="41"/>
-      <c r="AE60" s="41"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+      <c r="D67" s="97"/>
+      <c r="E67" s="15">
+        <f>C67/C65*100</f>
+        <v>214.0482618772661</v>
+      </c>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
+      <c r="AA67" s="41"/>
+      <c r="AB67" s="41"/>
+      <c r="AC67" s="41"/>
+      <c r="AD67" s="41"/>
+      <c r="AE67" s="41"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="97">
-        <f>C58-C60</f>
-        <v>-96297.898008889373</v>
-      </c>
-      <c r="D61" s="97"/>
-      <c r="E61" s="15">
-        <f>100-E60</f>
-        <v>-208.42752571607514</v>
-      </c>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="41"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+      <c r="C68" s="98">
+        <f>C65-C67</f>
+        <v>-75926.22885594437</v>
+      </c>
+      <c r="D68" s="98"/>
+      <c r="E68" s="15">
+        <f>100-E67</f>
+        <v>-114.0482618772661</v>
+      </c>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
+      <c r="AA68" s="41"/>
+      <c r="AB68" s="41"/>
+      <c r="AC68" s="41"/>
+      <c r="AD68" s="41"/>
+      <c r="AE68" s="41"/>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="92">
-        <f>C59*0.03</f>
+      <c r="C69" s="92">
+        <f>C66*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="15">
+      <c r="D69" s="93"/>
+      <c r="E69" s="15">
         <v>3</v>
       </c>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
-      <c r="AB62" s="41"/>
-      <c r="AC62" s="41"/>
-      <c r="AD62" s="41"/>
-      <c r="AE62" s="41"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
+      <c r="AB69" s="41"/>
+      <c r="AC69" s="41"/>
+      <c r="AD69" s="41"/>
+      <c r="AE69" s="41"/>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="92">
-        <f>C59*0.02</f>
+      <c r="C70" s="92">
+        <f>C66*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D63" s="93"/>
-      <c r="E63" s="15">
+      <c r="D70" s="93"/>
+      <c r="E70" s="15">
         <v>2</v>
       </c>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="41"/>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
-      <c r="AB63" s="41"/>
-      <c r="AC63" s="41"/>
-      <c r="AD63" s="41"/>
-      <c r="AE63" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="41"/>
+      <c r="AA70" s="41"/>
+      <c r="AB70" s="41"/>
+      <c r="AC70" s="41"/>
+      <c r="AD70" s="41"/>
+      <c r="AE70" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -3646,6 +3897,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3683,90 +3942,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="98" t="e">
+      <c r="C6" s="111" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3774,11 +4033,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="98" t="e">
+      <c r="J6" s="111" t="e">
         <f>I30</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="99"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
@@ -3787,77 +4046,77 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="I7" s="107" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="I7" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="e">
+      <c r="A8" s="106" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="I8" s="108" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="I8" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="e">
+      <c r="A9" s="106" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="I9" s="108" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="I9" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="103" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="105" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -3876,8 +4135,8 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="e">
@@ -4390,6 +4649,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4403,13 +4669,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4437,117 +4696,117 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="112" t="s">
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="154" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="112"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="154"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="112"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="154"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115" t="s">
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115" t="s">
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="56" t="s">
         <v>51</v>
       </c>
@@ -4691,86 +4950,86 @@
       <c r="U7" s="63"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="60">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="60">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="116" t="s">
+      <c r="L8" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
       <c r="P8" s="60">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="116" t="s">
+      <c r="Q8" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
       <c r="U8" s="64">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="60">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="60">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="116" t="s">
+      <c r="L9" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
       <c r="P9" s="60">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="116" t="s">
+      <c r="Q9" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
       <c r="U9" s="64">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
@@ -4793,152 +5052,152 @@
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="116" t="s">
+      <c r="Q10" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
       <c r="U10" s="65">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="125" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="134" t="s">
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="142" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="135"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="143"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="136"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="144"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="141" t="s">
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="141" t="s">
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="141" t="s">
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="143"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="151"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
+      <c r="A16" s="148"/>
       <c r="B16" s="66" t="s">
         <v>51</v>
       </c>
@@ -5084,86 +5343,86 @@
       <c r="U18" s="73"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="70">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
-      <c r="G19" s="117" t="s">
+      <c r="G19" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="119"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
       <c r="K19" s="70">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L19" s="117" t="s">
+      <c r="L19" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="119"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="126"/>
       <c r="P19" s="70">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="117" t="s">
+      <c r="Q19" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="119"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="126"/>
       <c r="U19" s="74">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="70">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
       <c r="K20" s="70">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="L20" s="117" t="s">
+      <c r="L20" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="126"/>
       <c r="P20" s="70">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
-      <c r="Q20" s="117" t="s">
+      <c r="Q20" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="126"/>
       <c r="U20" s="74">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
@@ -5186,12 +5445,12 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
-      <c r="Q21" s="117" t="s">
+      <c r="Q21" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="119"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="126"/>
       <c r="U21" s="76">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
@@ -5221,117 +5480,117 @@
       <c r="U22" s="76"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="149" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="144" t="s">
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="117" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="144"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="117"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="145" t="s">
+      <c r="A26" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="149"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="144"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="117"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147" t="s">
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147" t="s">
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="49" t="s">
         <v>51</v>
       </c>
@@ -5649,86 +5908,86 @@
       <c r="U34" s="44"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="150"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="53">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="150" t="s">
+      <c r="G35" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
       <c r="K35" s="53">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="150" t="s">
+      <c r="L35" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
       <c r="P35" s="53">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="150" t="s">
+      <c r="Q35" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="150"/>
-      <c r="S35" s="150"/>
-      <c r="T35" s="150"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
       <c r="U35" s="54">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="53">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="150" t="s">
+      <c r="G36" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
       <c r="K36" s="53">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="150" t="s">
+      <c r="L36" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="53">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="150" t="s">
+      <c r="Q36" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="R36" s="150"/>
-      <c r="S36" s="150"/>
-      <c r="T36" s="150"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
       <c r="U36" s="54">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
@@ -5751,152 +6010,152 @@
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
-      <c r="Q37" s="150" t="s">
+      <c r="Q37" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="150"/>
-      <c r="S37" s="150"/>
-      <c r="T37" s="150"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
       <c r="U37" s="55">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="151"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="123"/>
+      <c r="U38" s="123"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="148" t="s">
+      <c r="A40" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="148"/>
-      <c r="C40" s="149" t="s">
+      <c r="B40" s="121"/>
+      <c r="C40" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="149"/>
-      <c r="P40" s="149"/>
-      <c r="Q40" s="149"/>
-      <c r="R40" s="149"/>
-      <c r="S40" s="149"/>
-      <c r="T40" s="149"/>
-      <c r="U40" s="144" t="s">
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="117" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="149"/>
-      <c r="U41" s="144"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="122"/>
+      <c r="U41" s="117"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="145" t="s">
+      <c r="A42" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="145"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="149"/>
-      <c r="S42" s="149"/>
-      <c r="T42" s="149"/>
-      <c r="U42" s="144"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="117"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="147" t="s">
+      <c r="B43" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147" t="s">
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147" t="s">
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147" t="s">
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="49" t="s">
         <v>51</v>
       </c>
@@ -6180,86 +6439,86 @@
       <c r="U49" s="44"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="150" t="s">
+      <c r="A50" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="150"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="53">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="150" t="s">
+      <c r="G50" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
       <c r="K50" s="53">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="150" t="s">
+      <c r="L50" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="150"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="150"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
       <c r="P50" s="53">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="150" t="s">
+      <c r="Q50" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="150"/>
-      <c r="S50" s="150"/>
-      <c r="T50" s="150"/>
+      <c r="R50" s="116"/>
+      <c r="S50" s="116"/>
+      <c r="T50" s="116"/>
       <c r="U50" s="54">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="150"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="53">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="150" t="s">
+      <c r="G51" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
       <c r="K51" s="53">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="150" t="s">
+      <c r="L51" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="150"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="150"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
       <c r="P51" s="53">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="150" t="s">
+      <c r="Q51" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="150"/>
-      <c r="S51" s="150"/>
-      <c r="T51" s="150"/>
+      <c r="R51" s="116"/>
+      <c r="S51" s="116"/>
+      <c r="T51" s="116"/>
       <c r="U51" s="54">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
@@ -6282,129 +6541,129 @@
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
-      <c r="Q52" s="150" t="s">
+      <c r="Q52" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="150"/>
-      <c r="S52" s="150"/>
-      <c r="T52" s="150"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
       <c r="U52" s="55">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="148"/>
-      <c r="C54" s="149" t="s">
+      <c r="B54" s="121"/>
+      <c r="C54" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="149"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="149"/>
-      <c r="N54" s="149"/>
-      <c r="O54" s="149"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="149"/>
-      <c r="R54" s="149"/>
-      <c r="S54" s="149"/>
-      <c r="T54" s="149"/>
-      <c r="U54" s="144" t="s">
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="117" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="148"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="149"/>
-      <c r="K55" s="149"/>
-      <c r="L55" s="149"/>
-      <c r="M55" s="149"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="149"/>
-      <c r="P55" s="149"/>
-      <c r="Q55" s="149"/>
-      <c r="R55" s="149"/>
-      <c r="S55" s="149"/>
-      <c r="T55" s="149"/>
-      <c r="U55" s="144"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="117"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="145"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="149"/>
-      <c r="G56" s="149"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="149"/>
-      <c r="K56" s="149"/>
-      <c r="L56" s="149"/>
-      <c r="M56" s="149"/>
-      <c r="N56" s="149"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="149"/>
-      <c r="R56" s="149"/>
-      <c r="S56" s="149"/>
-      <c r="T56" s="149"/>
-      <c r="U56" s="144"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="122"/>
+      <c r="U56" s="117"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147" t="s">
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="147"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="147" t="s">
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="147"/>
-      <c r="N57" s="147"/>
-      <c r="O57" s="147"/>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="147" t="s">
+      <c r="M57" s="120"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="R57" s="147"/>
-      <c r="S57" s="147"/>
-      <c r="T57" s="147"/>
-      <c r="U57" s="147"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="120"/>
+      <c r="T57" s="120"/>
+      <c r="U57" s="120"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="146"/>
+      <c r="A58" s="119"/>
       <c r="B58" s="49" t="s">
         <v>51</v>
       </c>
@@ -6559,86 +6818,86 @@
       <c r="U60" s="44"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="150" t="s">
+      <c r="A61" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
       <c r="F61" s="53">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="150" t="s">
+      <c r="G61" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="150"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
       <c r="K61" s="53">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="150" t="s">
+      <c r="L61" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="150"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="150"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
       <c r="P61" s="53">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="150" t="s">
+      <c r="Q61" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="R61" s="150"/>
-      <c r="S61" s="150"/>
-      <c r="T61" s="150"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
       <c r="U61" s="54">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="150" t="s">
+      <c r="A62" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="150"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="150"/>
-      <c r="E62" s="150"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
       <c r="F62" s="53">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="150" t="s">
+      <c r="G62" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
       <c r="K62" s="53">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="150" t="s">
+      <c r="L62" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="150"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="150"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
       <c r="P62" s="53">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="150" t="s">
+      <c r="Q62" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="R62" s="150"/>
-      <c r="S62" s="150"/>
-      <c r="T62" s="150"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
       <c r="U62" s="54">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
@@ -6661,12 +6920,12 @@
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="150" t="s">
+      <c r="Q63" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="R63" s="150"/>
-      <c r="S63" s="150"/>
-      <c r="T63" s="150"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
       <c r="U63" s="55">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
@@ -6674,29 +6933,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:T56"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:T26"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="Q36:T36"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="L50:O50"/>
@@ -6712,60 +7002,29 @@
     <mergeCell ref="G43:K43"/>
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:T26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:T14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:T56"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="Q62:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:U63">
     <cfRule type="containsBlanks" dxfId="4" priority="1">

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\school lilaami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\school lilaami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -50,7 +50,7 @@
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,8 +59,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="C58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+urinals</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="117">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -396,18 +430,33 @@
   </si>
   <si>
     <t>sqm</t>
+  </si>
+  <si>
+    <t>-Toilet</t>
+  </si>
+  <si>
+    <t>-at roof</t>
+  </si>
+  <si>
+    <t>- inside toilet</t>
+  </si>
+  <si>
+    <t>-at toilet</t>
+  </si>
+  <si>
+    <t>-roof</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +606,19 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -813,9 +875,9 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -826,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,7 +899,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -850,7 +912,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,7 +928,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +937,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,7 +949,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,7 +970,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,10 +1011,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,7 +1032,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -980,7 +1042,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,7 +1060,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,7 +1070,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,7 +1106,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,6 +1118,23 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,9 +1142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,17 +1151,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,23 +1187,112 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1146,117 +1313,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2015,142 +2077,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="95" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="s">
         <v>98</v>
@@ -2200,7 +2262,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>1</v>
       </c>
@@ -2221,7 +2283,7 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="86" t="s">
         <v>100</v>
@@ -2240,7 +2302,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="87" t="s">
         <v>101</v>
@@ -2272,7 +2334,7 @@
       <c r="P12" s="81"/>
       <c r="Q12" s="81"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="87"/>
       <c r="C13" s="29">
@@ -2302,7 +2364,7 @@
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="87"/>
       <c r="C14" s="29">
@@ -2332,7 +2394,7 @@
       <c r="P14" s="81"/>
       <c r="Q14" s="81"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="87" t="s">
         <v>102</v>
@@ -2364,7 +2426,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="87"/>
       <c r="C16" s="29">
@@ -2394,7 +2456,7 @@
       <c r="P16" s="81"/>
       <c r="Q16" s="81"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="87" t="s">
         <v>103</v>
@@ -2427,7 +2489,7 @@
       <c r="P17" s="81"/>
       <c r="Q17" s="81"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="87"/>
       <c r="C18" s="29">
@@ -2458,7 +2520,7 @@
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="87" t="s">
         <v>104</v>
@@ -2489,7 +2551,7 @@
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="87"/>
       <c r="C20" s="29"/>
@@ -2505,7 +2567,7 @@
       <c r="O20" s="81"/>
       <c r="P20" s="81"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="87" t="s">
         <v>105</v>
@@ -2537,7 +2599,7 @@
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="87"/>
       <c r="C22" s="29">
@@ -2567,7 +2629,7 @@
       <c r="P22" s="81"/>
       <c r="Q22" s="81"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="86" t="s">
         <v>106</v>
@@ -2586,7 +2648,7 @@
       <c r="P23" s="81"/>
       <c r="Q23" s="81"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="87" t="s">
         <v>101</v>
@@ -2618,7 +2680,7 @@
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="87"/>
       <c r="C25" s="29">
@@ -2648,7 +2710,7 @@
       <c r="P25" s="81"/>
       <c r="Q25" s="81"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="87"/>
       <c r="C26" s="29">
@@ -2677,7 +2739,7 @@
       <c r="O26" s="81"/>
       <c r="P26" s="81"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="87" t="s">
         <v>102</v>
@@ -2708,7 +2770,7 @@
       <c r="O27" s="81"/>
       <c r="P27" s="81"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="87"/>
       <c r="C28" s="29">
@@ -2737,7 +2799,7 @@
       <c r="O28" s="81"/>
       <c r="P28" s="81"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="87" t="s">
         <v>103</v>
@@ -2769,7 +2831,7 @@
       <c r="O29" s="81"/>
       <c r="P29" s="81"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="87"/>
       <c r="C30" s="29">
@@ -2799,7 +2861,7 @@
       <c r="O30" s="81"/>
       <c r="P30" s="81"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="87" t="s">
         <v>104</v>
@@ -2830,7 +2892,7 @@
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="87" t="s">
         <v>105</v>
@@ -2861,7 +2923,7 @@
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="83"/>
       <c r="C33" s="29">
@@ -2887,7 +2949,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="86" t="s">
         <v>109</v>
@@ -2906,7 +2968,7 @@
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="87" t="s">
         <v>101</v>
@@ -2937,7 +2999,7 @@
       <c r="P35" s="81"/>
       <c r="Q35" s="81"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="87"/>
       <c r="C36" s="88">
@@ -2954,7 +3016,7 @@
         <v>1.4477293508076805</v>
       </c>
       <c r="G36" s="91">
-        <f t="shared" ref="G36:G47" si="6">PRODUCT(C36:F36)</f>
+        <f t="shared" ref="G36:G60" si="6">PRODUCT(C36:F36)</f>
         <v>1.1680280402316365</v>
       </c>
       <c r="H36" s="32"/>
@@ -2966,7 +3028,7 @@
       <c r="P36" s="81"/>
       <c r="Q36" s="81"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="87"/>
       <c r="C37" s="88">
@@ -2994,7 +3056,7 @@
       <c r="O37" s="81"/>
       <c r="P37" s="81"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="87" t="s">
         <v>102</v>
@@ -3024,7 +3086,7 @@
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="87"/>
       <c r="C39" s="88">
@@ -3048,7 +3110,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="8"/>
       <c r="K39" s="31"/>
-      <c r="N39" s="158">
+      <c r="N39" s="92">
         <f>1.76+3.5/3.281</f>
         <v>2.8267479427003961</v>
       </c>
@@ -3058,7 +3120,7 @@
       </c>
       <c r="P39" s="81"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="87" t="s">
         <v>110</v>
@@ -3091,7 +3153,7 @@
       </c>
       <c r="P40" s="81"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="87"/>
       <c r="C41" s="88">
@@ -3119,7 +3181,7 @@
       <c r="O41" s="81"/>
       <c r="P41" s="81"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="87" t="s">
         <v>103</v>
@@ -3151,7 +3213,7 @@
       <c r="O42" s="81"/>
       <c r="P42" s="81"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="87"/>
       <c r="C43" s="88">
@@ -3181,7 +3243,7 @@
       <c r="O43" s="81"/>
       <c r="P43" s="81"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="87" t="s">
         <v>104</v>
@@ -3210,7 +3272,7 @@
       <c r="O44" s="81"/>
       <c r="P44" s="81"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="87"/>
       <c r="C45" s="88">
@@ -3237,7 +3299,7 @@
       <c r="O45" s="81"/>
       <c r="P45" s="81"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="87" t="s">
         <v>105</v>
@@ -3271,7 +3333,7 @@
       <c r="O46" s="81"/>
       <c r="P46" s="81"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="83"/>
       <c r="C47" s="88">
@@ -3297,599 +3359,1014 @@
       <c r="J47" s="8"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
-      <c r="B48" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="39">
-        <f>SUM(G12:G33)</f>
-        <v>23.688526451553852</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="33">
-        <v>1950.4</v>
-      </c>
-      <c r="J48" s="8">
-        <f>G48*I48</f>
-        <v>46202.101991110634</v>
-      </c>
+      <c r="B48" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="8"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="39"/>
+      <c r="B49" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="88">
+        <v>2</v>
+      </c>
+      <c r="D49" s="89">
+        <v>2.64</v>
+      </c>
+      <c r="E49" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="90">
+        <f>((6.75+8)/2)/3.281</f>
+        <v>2.2477903078329775</v>
+      </c>
+      <c r="G49" s="91">
+        <f t="shared" si="6"/>
+        <v>1.1868332825358121</v>
+      </c>
       <c r="H49" s="32"/>
       <c r="I49" s="33"/>
       <c r="J49" s="8"/>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>2</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="39"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="88">
+        <v>1</v>
+      </c>
+      <c r="D50" s="89">
+        <f>6.4-0.23</f>
+        <v>6.17</v>
+      </c>
+      <c r="E50" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F50" s="90">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G50" s="91">
+        <f t="shared" si="6"/>
+        <v>2.9195138677232548</v>
+      </c>
       <c r="H50" s="32"/>
       <c r="I50" s="33"/>
       <c r="J50" s="8"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
-      <c r="B51" s="86" t="str">
-        <f>B11</f>
-        <v>-Block 1</v>
-      </c>
-      <c r="C51" s="29">
-        <v>2</v>
-      </c>
-      <c r="D51" s="30">
-        <v>14.097</v>
-      </c>
-      <c r="E51" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="F51" s="31"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88">
+        <v>1</v>
+      </c>
+      <c r="D51" s="89">
+        <f>8/3.281</f>
+        <v>2.4382810118866196</v>
+      </c>
+      <c r="E51" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F51" s="90">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
       <c r="G51" s="91">
-        <f t="shared" ref="G51:G58" si="8">PRODUCT(C51:F51)</f>
-        <v>90.220799999999997</v>
+        <f t="shared" si="6"/>
+        <v>1.1537431487211145</v>
       </c>
       <c r="H51" s="32"/>
       <c r="I51" s="33"/>
       <c r="J51" s="8"/>
       <c r="K51" s="31"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="29">
-        <v>2</v>
-      </c>
-      <c r="D52" s="30">
-        <v>5</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31">
-        <v>0.40600000000000003</v>
+      <c r="B52" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="88">
+        <v>1</v>
+      </c>
+      <c r="D52" s="89">
+        <f>(6.4-1.75/3.281)</f>
+        <v>5.8666260286498026</v>
+      </c>
+      <c r="E52" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F52" s="90">
+        <v>0.23</v>
       </c>
       <c r="G52" s="91">
-        <f t="shared" si="8"/>
-        <v>4.0600000000000005</v>
+        <f t="shared" si="6"/>
+        <v>0.31034451691557458</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="33"/>
       <c r="J52" s="8"/>
       <c r="K52" s="31"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="29">
-        <v>2</v>
-      </c>
-      <c r="D53" s="30">
-        <f>D52/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G53" s="39">
-        <f>C53*0.5*D53*F53</f>
-        <v>2.4125000000000001</v>
+      <c r="B53" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="88">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="89">
+        <v>0.8</v>
+      </c>
+      <c r="E53" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F53" s="90">
+        <f>5.75/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="G53" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.3224626638220055</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="33"/>
       <c r="J53" s="8"/>
       <c r="K53" s="31"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
-      <c r="B54" s="86" t="str">
-        <f>B23</f>
-        <v>-Block 2</v>
-      </c>
-      <c r="C54" s="29">
-        <v>2</v>
-      </c>
-      <c r="D54" s="30">
-        <v>13.945</v>
-      </c>
-      <c r="E54" s="31">
-        <v>3.15</v>
-      </c>
-      <c r="F54" s="31"/>
+      <c r="B54" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="88">
+        <v>-2</v>
+      </c>
+      <c r="D54" s="89">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E54" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F54" s="90">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
       <c r="G54" s="91">
-        <f t="shared" si="8"/>
-        <v>87.853499999999997</v>
+        <f t="shared" si="6"/>
+        <v>-7.4993304666872457E-2</v>
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="33"/>
       <c r="J54" s="8"/>
       <c r="K54" s="31"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="29">
-        <v>2</v>
-      </c>
-      <c r="D55" s="30">
-        <v>4.5209999999999999</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31">
-        <v>0.40600000000000003</v>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88">
+        <v>-4</v>
+      </c>
+      <c r="D55" s="89">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E55" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F55" s="90">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
       </c>
       <c r="G55" s="91">
-        <f t="shared" si="8"/>
-        <v>3.671052</v>
+        <f t="shared" si="6"/>
+        <v>-0.14998660933374491</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="33"/>
       <c r="J55" s="8"/>
       <c r="K55" s="31"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="29">
-        <v>2</v>
-      </c>
-      <c r="D56" s="30">
-        <f>D55/2</f>
-        <v>2.2605</v>
-      </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G56" s="39">
-        <f>C56*0.5*D56*F56</f>
-        <v>2.2401554999999997</v>
-      </c>
+      <c r="B56" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="91"/>
       <c r="H56" s="32"/>
       <c r="I56" s="33"/>
       <c r="J56" s="8"/>
       <c r="K56" s="31"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
-      <c r="B57" s="86" t="str">
-        <f>B34</f>
-        <v>-Block 3</v>
-      </c>
-      <c r="C57" s="29">
-        <v>2</v>
-      </c>
-      <c r="D57" s="30">
-        <v>14.401</v>
-      </c>
-      <c r="E57" s="31">
-        <v>3.35</v>
-      </c>
-      <c r="F57" s="31"/>
+      <c r="B57" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="88">
+        <v>1</v>
+      </c>
+      <c r="D57" s="89">
+        <v>2.63</v>
+      </c>
+      <c r="E57" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="90">
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
+      </c>
       <c r="G57" s="91">
-        <f t="shared" si="8"/>
-        <v>96.486699999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.58114903992685163</v>
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="33"/>
       <c r="J57" s="8"/>
       <c r="K57" s="31"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="29">
-        <v>2</v>
-      </c>
-      <c r="D58" s="30">
-        <v>4.0389999999999997</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31">
-        <v>0.35599999999999998</v>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88">
+        <v>1</v>
+      </c>
+      <c r="D58" s="89">
+        <f>6.4-0.23-2.63</f>
+        <v>3.54</v>
+      </c>
+      <c r="E58" s="90">
+        <v>0.23</v>
+      </c>
+      <c r="F58" s="90">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
       </c>
       <c r="G58" s="91">
-        <f t="shared" si="8"/>
-        <v>2.8757679999999994</v>
+        <f t="shared" si="6"/>
+        <v>0.1042255409935995</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="33"/>
       <c r="J58" s="8"/>
       <c r="K58" s="31"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="29">
-        <v>2</v>
-      </c>
-      <c r="D59" s="30">
-        <f>D58/2</f>
-        <v>2.0194999999999999</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="G59" s="39">
-        <f>C59*0.5*D59*F59</f>
-        <v>1.744848</v>
+      <c r="B59" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="88">
+        <v>3</v>
+      </c>
+      <c r="D59" s="89">
+        <v>1</v>
+      </c>
+      <c r="E59" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F59" s="90">
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
+      </c>
+      <c r="G59" s="91">
+        <f t="shared" si="6"/>
+        <v>0.66290765010667485</v>
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="33"/>
       <c r="J59" s="8"/>
       <c r="K59" s="31"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="81"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="39">
-        <f>SUM(G51:G59)</f>
-        <v>291.56532349999998</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="33">
-        <v>69.87</v>
-      </c>
-      <c r="J60" s="8">
-        <f>G60*I60</f>
-        <v>20371.669152945</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C60" s="88">
+        <v>-2</v>
+      </c>
+      <c r="D60" s="89">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E60" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="F60" s="90">
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="G60" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.25545842664920015</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="8"/>
       <c r="K60" s="31"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="87"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="39"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="32"/>
       <c r="I61" s="33"/>
       <c r="J61" s="8"/>
       <c r="K61" s="31"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="28"/>
       <c r="B62" s="87"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="4"/>
-      <c r="M62" s="41"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="27" t="s">
+      <c r="K62" s="31"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="28"/>
+      <c r="B63" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="39">
+        <f>SUM(G12:G55)</f>
+        <v>43.256419361728405</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="33">
+        <v>1950.4</v>
+      </c>
+      <c r="J63" s="8">
+        <f>G63*I63</f>
+        <v>84367.320323115084</v>
+      </c>
+      <c r="K63" s="31"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="28"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="31"/>
+    </row>
+    <row r="65" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+      <c r="A65" s="28">
+        <v>2</v>
+      </c>
+      <c r="B65" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="31"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="28"/>
+      <c r="B66" s="86" t="str">
+        <f>B11</f>
+        <v>-Block 1</v>
+      </c>
+      <c r="C66" s="29">
+        <v>2</v>
+      </c>
+      <c r="D66" s="30">
+        <v>14.097</v>
+      </c>
+      <c r="E66" s="31">
+        <v>3.2</v>
+      </c>
+      <c r="F66" s="31"/>
+      <c r="G66" s="91">
+        <f t="shared" ref="G66:G73" si="8">PRODUCT(C66:F66)</f>
+        <v>90.220799999999997</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="31"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="29">
+        <v>2</v>
+      </c>
+      <c r="D67" s="30">
+        <v>5</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G67" s="91">
+        <f t="shared" si="8"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="31"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="28"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="29">
+        <v>2</v>
+      </c>
+      <c r="D68" s="30">
+        <f>D67/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G68" s="39">
+        <f>C68*0.5*D68*F68</f>
+        <v>2.4125000000000001</v>
+      </c>
+      <c r="H68" s="32"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="31"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="28"/>
+      <c r="B69" s="86" t="str">
+        <f>B23</f>
+        <v>-Block 2</v>
+      </c>
+      <c r="C69" s="29">
+        <v>2</v>
+      </c>
+      <c r="D69" s="30">
+        <v>13.945</v>
+      </c>
+      <c r="E69" s="31">
+        <v>3.15</v>
+      </c>
+      <c r="F69" s="31"/>
+      <c r="G69" s="91">
+        <f t="shared" si="8"/>
+        <v>87.853499999999997</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="31"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="28"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="29">
+        <v>2</v>
+      </c>
+      <c r="D70" s="30">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G70" s="91">
+        <f t="shared" si="8"/>
+        <v>3.671052</v>
+      </c>
+      <c r="H70" s="32"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="31"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="28"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="29">
+        <v>2</v>
+      </c>
+      <c r="D71" s="30">
+        <f>D70/2</f>
+        <v>2.2605</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G71" s="39">
+        <f>C71*0.5*D71*F71</f>
+        <v>2.2401554999999997</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="31"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+      <c r="B72" s="86" t="str">
+        <f>B34</f>
+        <v>-Block 3</v>
+      </c>
+      <c r="C72" s="29">
+        <v>2</v>
+      </c>
+      <c r="D72" s="30">
+        <v>14.401</v>
+      </c>
+      <c r="E72" s="31">
+        <v>3.35</v>
+      </c>
+      <c r="F72" s="31"/>
+      <c r="G72" s="91">
+        <f t="shared" si="8"/>
+        <v>96.486699999999999</v>
+      </c>
+      <c r="H72" s="32"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="31"/>
+      <c r="N72" s="80">
+        <f>2.6*3.281</f>
+        <v>8.5306000000000015</v>
+      </c>
+      <c r="O72" s="41">
+        <f>N72-1.5</f>
+        <v>7.0306000000000015</v>
+      </c>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="28"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="29">
+        <v>2</v>
+      </c>
+      <c r="D73" s="30">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G73" s="91">
+        <f t="shared" si="8"/>
+        <v>2.8757679999999994</v>
+      </c>
+      <c r="H73" s="32"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="31"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="29">
+        <v>2</v>
+      </c>
+      <c r="D74" s="30">
+        <f>D73/2</f>
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G74" s="39">
+        <f>C74*0.5*D74*F74</f>
+        <v>1.744848</v>
+      </c>
+      <c r="H74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="31"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="31"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+      <c r="B76" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="29">
+        <v>1</v>
+      </c>
+      <c r="D76" s="30">
+        <v>6.4</v>
+      </c>
+      <c r="E76" s="31">
+        <f>11.25/3.281</f>
+        <v>3.4288326729655592</v>
+      </c>
+      <c r="F76" s="31"/>
+      <c r="G76" s="91">
+        <f t="shared" ref="G76" si="9">PRODUCT(C76:F76)</f>
+        <v>21.94452910697958</v>
+      </c>
+      <c r="H76" s="32"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="31"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="81"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="39">
+        <f>SUM(G66:G76)</f>
+        <v>313.50985260697956</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I77" s="33">
+        <v>69.87</v>
+      </c>
+      <c r="J77" s="8">
+        <f>G77*I77</f>
+        <v>21904.933401649665</v>
+      </c>
+      <c r="K77" s="31"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="4"/>
+      <c r="M79" s="41"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="10"/>
+      <c r="B80" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8">
-        <f>SUM(J10:J62)</f>
-        <v>66573.77114405563</v>
-      </c>
-      <c r="K63" s="4"/>
-      <c r="M63" s="41"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M64" s="41"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="47"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
-      <c r="AB64" s="41"/>
-      <c r="AC64" s="41"/>
-      <c r="AD64" s="41"/>
-      <c r="AE64" s="41"/>
-    </row>
-    <row r="65" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
+      <c r="C80" s="9"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8">
+        <f>SUM(J10:J79)</f>
+        <v>106272.25372476474</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="M80" s="41"/>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+    </row>
+    <row r="81" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="M81" s="41"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="47"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41"/>
+      <c r="AB81" s="41"/>
+      <c r="AC81" s="41"/>
+      <c r="AD81" s="41"/>
+      <c r="AE81" s="41"/>
+    </row>
+    <row r="82" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="92">
-        <f>J63</f>
-        <v>66573.77114405563</v>
-      </c>
-      <c r="D65" s="93"/>
-      <c r="E65" s="15">
+      <c r="C82" s="99">
+        <f>J80</f>
+        <v>106272.25372476474</v>
+      </c>
+      <c r="D82" s="100"/>
+      <c r="E82" s="15">
         <v>100</v>
       </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="19"/>
+    </row>
+    <row r="83" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B83" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="96">
+      <c r="C83" s="102">
         <v>150000</v>
       </c>
-      <c r="D66" s="97"/>
-      <c r="E66" s="15"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
-      <c r="AB66" s="41"/>
-      <c r="AC66" s="41"/>
-      <c r="AD66" s="41"/>
-      <c r="AE66" s="41"/>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+      <c r="D83" s="103"/>
+      <c r="E83" s="15"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="41"/>
+      <c r="AC83" s="41"/>
+      <c r="AD83" s="41"/>
+      <c r="AE83" s="41"/>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B84" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="96">
-        <f>C66-C69-C70</f>
+      <c r="C84" s="102">
+        <f>C83-C86-C87</f>
         <v>142500</v>
       </c>
-      <c r="D67" s="97"/>
-      <c r="E67" s="15">
-        <f>C67/C65*100</f>
-        <v>214.0482618772661</v>
-      </c>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
-      <c r="AB67" s="41"/>
-      <c r="AC67" s="41"/>
-      <c r="AD67" s="41"/>
-      <c r="AE67" s="41"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+      <c r="D84" s="103"/>
+      <c r="E84" s="15">
+        <f>C84/C82*100</f>
+        <v>134.08956242620181</v>
+      </c>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="41"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="41"/>
+      <c r="AE84" s="41"/>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B85" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="98">
-        <f>C65-C67</f>
-        <v>-75926.22885594437</v>
-      </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="15">
-        <f>100-E67</f>
-        <v>-114.0482618772661</v>
-      </c>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="41"/>
-      <c r="V68" s="41"/>
-      <c r="W68" s="41"/>
-      <c r="X68" s="41"/>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="41"/>
-      <c r="AA68" s="41"/>
-      <c r="AB68" s="41"/>
-      <c r="AC68" s="41"/>
-      <c r="AD68" s="41"/>
-      <c r="AE68" s="41"/>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
+      <c r="C85" s="104">
+        <f>C82-C84</f>
+        <v>-36227.746275235259</v>
+      </c>
+      <c r="D85" s="104"/>
+      <c r="E85" s="15">
+        <f>100-E84</f>
+        <v>-34.089562426201809</v>
+      </c>
+      <c r="M85" s="41"/>
+      <c r="N85" s="41"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+      <c r="S85" s="41"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="41"/>
+      <c r="X85" s="41"/>
+      <c r="Y85" s="41"/>
+      <c r="Z85" s="41"/>
+      <c r="AA85" s="41"/>
+      <c r="AB85" s="41"/>
+      <c r="AC85" s="41"/>
+      <c r="AD85" s="41"/>
+      <c r="AE85" s="41"/>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B86" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="92">
-        <f>C66*0.03</f>
+      <c r="C86" s="99">
+        <f>C83*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D69" s="93"/>
-      <c r="E69" s="15">
+      <c r="D86" s="100"/>
+      <c r="E86" s="15">
         <v>3</v>
       </c>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
-      <c r="AB69" s="41"/>
-      <c r="AC69" s="41"/>
-      <c r="AD69" s="41"/>
-      <c r="AE69" s="41"/>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="41"/>
+      <c r="Z86" s="41"/>
+      <c r="AA86" s="41"/>
+      <c r="AB86" s="41"/>
+      <c r="AC86" s="41"/>
+      <c r="AD86" s="41"/>
+      <c r="AE86" s="41"/>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B87" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="92">
-        <f>C66*0.02</f>
+      <c r="C87" s="99">
+        <f>C83*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D70" s="93"/>
-      <c r="E70" s="15">
+      <c r="D87" s="100"/>
+      <c r="E87" s="15">
         <v>2</v>
       </c>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="41"/>
-      <c r="T70" s="41"/>
-      <c r="U70" s="41"/>
-      <c r="V70" s="41"/>
-      <c r="W70" s="41"/>
-      <c r="X70" s="41"/>
-      <c r="Y70" s="41"/>
-      <c r="Z70" s="41"/>
-      <c r="AA70" s="41"/>
-      <c r="AB70" s="41"/>
-      <c r="AC70" s="41"/>
-      <c r="AD70" s="41"/>
-      <c r="AE70" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -3897,14 +4374,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3915,6 +4384,7 @@
 Er. Milan Phuyal&amp;RApproved By:    
 Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3926,106 +4396,106 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="111" t="e">
+      <c r="C6" s="105" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4033,90 +4503,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="111" t="e">
+      <c r="J6" s="105" t="e">
         <f>I30</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="112"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="106"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="I7" s="108" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="I7" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="e">
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="I8" s="109" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="I8" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="e">
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="I9" s="109" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="I9" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="104" t="s">
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="111" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -4135,10 +4605,10 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -4185,7 +4655,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="43" t="e">
         <f>new!#REF!</f>
@@ -4214,7 +4684,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="40"/>
       <c r="C15" s="15"/>
@@ -4227,7 +4697,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -4270,7 +4740,7 @@
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="43" t="e">
         <f>new!#REF!</f>
@@ -4295,7 +4765,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="40"/>
       <c r="C18" s="15"/>
@@ -4312,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -4355,7 +4825,7 @@
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="43" t="e">
         <f>new!#REF!</f>
@@ -4380,7 +4850,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="40"/>
       <c r="C21" s="15"/>
@@ -4397,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -4440,7 +4910,7 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="43" t="e">
         <f>new!#REF!</f>
@@ -4465,7 +4935,7 @@
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="40"/>
       <c r="C24" s="15"/>
@@ -4482,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -4525,7 +4995,7 @@
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="e">
         <f>new!#REF!</f>
@@ -4550,7 +5020,7 @@
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="40"/>
       <c r="C27" s="15"/>
@@ -4567,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>new!A10</f>
         <v>1</v>
@@ -4610,7 +5080,7 @@
       </c>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="15"/>
@@ -4623,7 +5093,7 @@
       <c r="J29" s="36"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -4649,13 +5119,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4669,6 +5132,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4693,120 +5163,120 @@
       <selection activeCell="A54" sqref="A54:U63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="154" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="119" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="154"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="119"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="119"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157" t="s">
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="121"/>
       <c r="B5" s="56" t="s">
         <v>51</v>
       </c>
@@ -4868,7 +5338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>52</v>
       </c>
@@ -4915,7 +5385,7 @@
       <c r="T6" s="61"/>
       <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="56" t="s">
         <v>57</v>
@@ -4949,93 +5419,93 @@
       <c r="T7" s="61"/>
       <c r="U7" s="63"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="60">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
       <c r="K8" s="60">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="127" t="s">
+      <c r="L8" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="60">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="127" t="s">
+      <c r="Q8" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
       <c r="U8" s="64">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="60">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="127" t="s">
+      <c r="G9" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
       <c r="K9" s="60">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="127" t="s">
+      <c r="L9" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="60">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="127" t="s">
+      <c r="Q9" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
       <c r="U9" s="64">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -5052,152 +5522,152 @@
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="127" t="s">
+      <c r="Q10" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
       <c r="U10" s="65">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="129"/>
+      <c r="C12" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="142" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="141" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="143"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="130"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="142"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="144"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="143"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="149" t="s">
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="149" t="s">
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="149" t="s">
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="151"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="150"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="147"/>
       <c r="B16" s="66" t="s">
         <v>51</v>
       </c>
@@ -5259,7 +5729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
         <v>69</v>
       </c>
@@ -5306,7 +5776,7 @@
       <c r="T17" s="72"/>
       <c r="U17" s="73"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="72"/>
       <c r="B18" s="66" t="s">
         <v>57</v>
@@ -5342,7 +5812,7 @@
       <c r="T18" s="72"/>
       <c r="U18" s="73"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="124" t="s">
         <v>58</v>
       </c>
@@ -5385,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="124" t="s">
         <v>62</v>
       </c>
@@ -5428,7 +5898,7 @@
         <v>25320.239999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -5456,7 +5926,7 @@
         <v>5064.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -5479,118 +5949,118 @@
       <c r="T22" s="79"/>
       <c r="U22" s="76"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="122" t="s">
+      <c r="B24" s="155"/>
+      <c r="C24" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="117" t="s">
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="151" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="117"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="155"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="151"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="117"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="119" t="s">
+      <c r="B26" s="152"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="151"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120" t="s">
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120" t="s">
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120" t="s">
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="153"/>
       <c r="B28" s="49" t="s">
         <v>51</v>
       </c>
@@ -5652,7 +6122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A29" s="52" t="s">
         <v>73</v>
       </c>
@@ -5715,7 +6185,7 @@
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="49" t="s">
         <v>57</v>
@@ -5771,7 +6241,7 @@
       <c r="T30" s="45"/>
       <c r="U30" s="44"/>
     </row>
-    <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -5805,7 +6275,7 @@
       <c r="T31" s="45"/>
       <c r="U31" s="44"/>
     </row>
-    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -5839,7 +6309,7 @@
       <c r="T32" s="45"/>
       <c r="U32" s="44"/>
     </row>
-    <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -5873,7 +6343,7 @@
       <c r="T33" s="45"/>
       <c r="U33" s="44"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -5907,93 +6377,93 @@
       <c r="T34" s="45"/>
       <c r="U34" s="44"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="116" t="s">
+    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
       <c r="F35" s="53">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="116" t="s">
+      <c r="G35" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
       <c r="K35" s="53">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="116" t="s">
+      <c r="L35" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157"/>
       <c r="P35" s="53">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="116" t="s">
+      <c r="Q35" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="116"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="157"/>
       <c r="U35" s="54">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="116" t="s">
+    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
       <c r="F36" s="53">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="116" t="s">
+      <c r="G36" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="53">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="116" t="s">
+      <c r="L36" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
       <c r="P36" s="53">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="116" t="s">
+      <c r="Q36" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="157"/>
       <c r="U36" s="54">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -6010,152 +6480,152 @@
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
-      <c r="Q37" s="116" t="s">
+      <c r="Q37" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
       <c r="U37" s="55">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="123"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="123"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="121" t="s">
+    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="158"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
+      <c r="L38" s="158"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="158"/>
+      <c r="R38" s="158"/>
+      <c r="S38" s="158"/>
+      <c r="T38" s="158"/>
+      <c r="U38" s="158"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="121"/>
-      <c r="C40" s="122" t="s">
+      <c r="B40" s="155"/>
+      <c r="C40" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="117" t="s">
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="156"/>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="156"/>
+      <c r="S40" s="156"/>
+      <c r="T40" s="156"/>
+      <c r="U40" s="151" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="117"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="118" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
+      <c r="U41" s="151"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="117"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="119" t="s">
+      <c r="B42" s="152"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="156"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="156"/>
+      <c r="U42" s="151"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120" t="s">
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120" t="s">
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120" t="s">
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="153"/>
       <c r="B44" s="49" t="s">
         <v>51</v>
       </c>
@@ -6217,7 +6687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
         <v>83</v>
       </c>
@@ -6280,7 +6750,7 @@
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="49" t="s">
         <v>57</v>
@@ -6336,7 +6806,7 @@
       <c r="T46" s="45"/>
       <c r="U46" s="44"/>
     </row>
-    <row r="47" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -6370,7 +6840,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="44"/>
     </row>
-    <row r="48" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -6404,7 +6874,7 @@
       <c r="T48" s="45"/>
       <c r="U48" s="44"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -6438,93 +6908,93 @@
       <c r="T49" s="45"/>
       <c r="U49" s="44"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="116" t="s">
+    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="53">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="116" t="s">
+      <c r="G50" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
       <c r="K50" s="53">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="116" t="s">
+      <c r="L50" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="116"/>
-      <c r="N50" s="116"/>
-      <c r="O50" s="116"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
       <c r="P50" s="53">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="116" t="s">
+      <c r="Q50" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="116"/>
-      <c r="S50" s="116"/>
-      <c r="T50" s="116"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="157"/>
+      <c r="T50" s="157"/>
       <c r="U50" s="54">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="116" t="s">
+    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="157"/>
       <c r="F51" s="53">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="116" t="s">
+      <c r="G51" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
       <c r="K51" s="53">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="116" t="s">
+      <c r="L51" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="157"/>
+      <c r="O51" s="157"/>
       <c r="P51" s="53">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="116" t="s">
+      <c r="Q51" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="116"/>
-      <c r="S51" s="116"/>
-      <c r="T51" s="116"/>
+      <c r="R51" s="157"/>
+      <c r="S51" s="157"/>
+      <c r="T51" s="157"/>
       <c r="U51" s="54">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -6541,129 +7011,129 @@
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
-      <c r="Q52" s="116" t="s">
+      <c r="Q52" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="116"/>
-      <c r="S52" s="116"/>
-      <c r="T52" s="116"/>
+      <c r="R52" s="157"/>
+      <c r="S52" s="157"/>
+      <c r="T52" s="157"/>
       <c r="U52" s="55">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="121" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="121"/>
-      <c r="C54" s="122" t="s">
+      <c r="B54" s="155"/>
+      <c r="C54" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="122"/>
-      <c r="T54" s="122"/>
-      <c r="U54" s="117" t="s">
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="156"/>
+      <c r="S54" s="156"/>
+      <c r="T54" s="156"/>
+      <c r="U54" s="151" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="122"/>
-      <c r="T55" s="122"/>
-      <c r="U55" s="117"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="118" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="155"/>
+      <c r="B55" s="155"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="156"/>
+      <c r="Q55" s="156"/>
+      <c r="R55" s="156"/>
+      <c r="S55" s="156"/>
+      <c r="T55" s="156"/>
+      <c r="U55" s="151"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="118"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="122"/>
-      <c r="T56" s="122"/>
-      <c r="U56" s="117"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="119" t="s">
+      <c r="B56" s="152"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="156"/>
+      <c r="Q56" s="156"/>
+      <c r="R56" s="156"/>
+      <c r="S56" s="156"/>
+      <c r="T56" s="156"/>
+      <c r="U56" s="151"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120" t="s">
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120" t="s">
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="120"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120" t="s">
+      <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="154"/>
+      <c r="Q57" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="119"/>
+      <c r="R57" s="154"/>
+      <c r="S57" s="154"/>
+      <c r="T57" s="154"/>
+      <c r="U57" s="154"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="153"/>
       <c r="B58" s="49" t="s">
         <v>51</v>
       </c>
@@ -6725,7 +7195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="52" t="s">
         <v>87</v>
       </c>
@@ -6772,7 +7242,7 @@
       <c r="T59" s="45"/>
       <c r="U59" s="44"/>
     </row>
-    <row r="60" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="49" t="s">
         <v>57</v>
@@ -6817,93 +7287,93 @@
       <c r="T60" s="45"/>
       <c r="U60" s="44"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="116" t="s">
+    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
       <c r="F61" s="53">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="116" t="s">
+      <c r="G61" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
       <c r="K61" s="53">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="116" t="s">
+      <c r="L61" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="116"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
       <c r="P61" s="53">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="116" t="s">
+      <c r="Q61" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="157"/>
+      <c r="T61" s="157"/>
       <c r="U61" s="54">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="116" t="s">
+    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
       <c r="F62" s="53">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="116" t="s">
+      <c r="G62" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
       <c r="K62" s="53">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="116" t="s">
+      <c r="L62" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
       <c r="P62" s="53">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="116" t="s">
+      <c r="Q62" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
+      <c r="R62" s="157"/>
+      <c r="S62" s="157"/>
+      <c r="T62" s="157"/>
       <c r="U62" s="54">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -6920,12 +7390,12 @@
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="116" t="s">
+      <c r="Q63" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
+      <c r="R63" s="157"/>
+      <c r="S63" s="157"/>
+      <c r="T63" s="157"/>
       <c r="U63" s="55">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
@@ -6933,23 +7403,66 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:T56"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="A38:U38"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:T42"/>
+    <mergeCell ref="U40:U42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:T26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="L19:O19"/>
@@ -6965,66 +7478,23 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:P15"/>
     <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:T26"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="A38:U38"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:T42"/>
-    <mergeCell ref="U40:U42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:T56"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:U63">
     <cfRule type="containsBlanks" dxfId="4" priority="1">

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -42,7 +42,7 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$115</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="130">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -387,9 +387,6 @@
     <t xml:space="preserve">Date:                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Project:- </t>
-  </si>
-  <si>
     <t>Block 1</t>
   </si>
   <si>
@@ -438,13 +435,55 @@
     <t>-at roof</t>
   </si>
   <si>
-    <t>- inside toilet</t>
-  </si>
-  <si>
     <t>-at toilet</t>
   </si>
   <si>
     <t>-roof</t>
+  </si>
+  <si>
+    <t>Kn]g l;d]G6 sqmL6 jf jh| s+qmL6 eTsfO{ !) dL= k/ x6fpg] sfd</t>
+  </si>
+  <si>
+    <t>-toilet 2nd</t>
+  </si>
+  <si>
+    <t>Project:- Seti Devi Secondary School demolish work</t>
+  </si>
+  <si>
+    <t>Wood from Roof</t>
+  </si>
+  <si>
+    <t>-rafter</t>
+  </si>
+  <si>
+    <t>-purlin from wooden plank</t>
+  </si>
+  <si>
+    <t>-chaukosh</t>
+  </si>
+  <si>
+    <t>-Mandir</t>
+  </si>
+  <si>
+    <t>- Inner toilet</t>
+  </si>
+  <si>
+    <t>-Wooden door</t>
+  </si>
+  <si>
+    <t>-at door</t>
+  </si>
+  <si>
+    <t>-Long wall</t>
+  </si>
+  <si>
+    <t>-mandir</t>
+  </si>
+  <si>
+    <t>-inclined slope</t>
+  </si>
+  <si>
+    <t>-step</t>
   </si>
 </sst>
 </file>
@@ -883,7 +922,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1090,9 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1318,6 +1354,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2078,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE87"/>
+  <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,113 +2146,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94" t="s">
+      <c r="A6" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2250,7 +2292,7 @@
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="25"/>
@@ -2266,8 +2308,8 @@
       <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>99</v>
+      <c r="B10" s="83" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
@@ -2278,15 +2320,15 @@
       <c r="I10" s="33"/>
       <c r="J10" s="38"/>
       <c r="K10" s="31"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
-      <c r="B11" s="86" t="s">
-        <v>100</v>
+      <c r="B11" s="85" t="s">
+        <v>99</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -2304,8 +2346,8 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
-      <c r="B12" s="87" t="s">
-        <v>101</v>
+      <c r="B12" s="86" t="s">
+        <v>100</v>
       </c>
       <c r="C12" s="29">
         <v>2</v>
@@ -2336,7 +2378,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
-      <c r="B13" s="87"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="29">
         <v>2</v>
       </c>
@@ -2366,7 +2408,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
-      <c r="B14" s="87"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="29">
         <v>1</v>
       </c>
@@ -2396,8 +2438,8 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="B15" s="87" t="s">
-        <v>102</v>
+      <c r="B15" s="86" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="29">
         <v>2</v>
@@ -2428,7 +2470,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
-      <c r="B16" s="87"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
@@ -2458,8 +2500,8 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
-      <c r="B17" s="87" t="s">
-        <v>103</v>
+      <c r="B17" s="86" t="s">
+        <v>102</v>
       </c>
       <c r="C17" s="29">
         <v>6</v>
@@ -2491,7 +2533,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
@@ -2522,8 +2564,8 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
-      <c r="B19" s="87" t="s">
-        <v>104</v>
+      <c r="B19" s="86" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="29">
         <v>-14</v>
@@ -2553,7 +2595,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
@@ -2569,8 +2611,8 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
-      <c r="B21" s="87" t="s">
-        <v>105</v>
+      <c r="B21" s="86" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="29">
         <v>-2</v>
@@ -2601,7 +2643,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
-      <c r="B22" s="87"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="29">
         <v>-2</v>
       </c>
@@ -2631,8 +2673,8 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
-      <c r="B23" s="86" t="s">
-        <v>106</v>
+      <c r="B23" s="85" t="s">
+        <v>105</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
@@ -2650,8 +2692,8 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
-      <c r="B24" s="87" t="s">
-        <v>101</v>
+      <c r="B24" s="86" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -2682,7 +2724,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
-      <c r="B25" s="87"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="29">
         <v>2</v>
       </c>
@@ -2712,7 +2754,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
-      <c r="B26" s="87"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="29">
         <v>1</v>
       </c>
@@ -2741,8 +2783,8 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="B27" s="87" t="s">
-        <v>102</v>
+      <c r="B27" s="86" t="s">
+        <v>101</v>
       </c>
       <c r="C27" s="29">
         <v>2</v>
@@ -2772,7 +2814,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="29">
         <v>2</v>
       </c>
@@ -2801,8 +2843,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
-      <c r="B29" s="87" t="s">
-        <v>103</v>
+      <c r="B29" s="86" t="s">
+        <v>102</v>
       </c>
       <c r="C29" s="29">
         <v>6</v>
@@ -2833,7 +2875,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
-      <c r="B30" s="87"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="29">
         <v>4</v>
       </c>
@@ -2863,8 +2905,8 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="87" t="s">
-        <v>104</v>
+      <c r="B31" s="86" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="29">
         <v>-14</v>
@@ -2894,8 +2936,8 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
-      <c r="B32" s="87" t="s">
-        <v>105</v>
+      <c r="B32" s="86" t="s">
+        <v>104</v>
       </c>
       <c r="C32" s="29">
         <v>-2</v>
@@ -2925,7 +2967,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
-      <c r="B33" s="83"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="29">
         <v>-2</v>
       </c>
@@ -2951,8 +2993,8 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
-      <c r="B34" s="86" t="s">
-        <v>109</v>
+      <c r="B34" s="85" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="30"/>
@@ -2970,23 +3012,23 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
-      <c r="B35" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="88">
+      <c r="B35" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="87">
         <v>2</v>
       </c>
-      <c r="D35" s="89">
+      <c r="D35" s="88">
         <v>4.0339999999999998</v>
       </c>
-      <c r="E35" s="90">
+      <c r="E35" s="89">
         <v>0.23</v>
       </c>
-      <c r="F35" s="90">
+      <c r="F35" s="89">
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G35" s="91">
+      <c r="G35" s="90">
         <f>PRODUCT(C35:F35)</f>
         <v>1.9795001523925628</v>
       </c>
@@ -3001,22 +3043,22 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="88">
+      <c r="B36" s="86"/>
+      <c r="C36" s="87">
         <v>2</v>
       </c>
-      <c r="D36" s="89">
+      <c r="D36" s="88">
         <v>4.0339999999999998</v>
       </c>
-      <c r="E36" s="90">
+      <c r="E36" s="89">
         <v>0.1</v>
       </c>
-      <c r="F36" s="90">
+      <c r="F36" s="89">
         <f>4.75/3.281</f>
         <v>1.4477293508076805</v>
       </c>
-      <c r="G36" s="91">
-        <f t="shared" ref="G36:G60" si="6">PRODUCT(C36:F36)</f>
+      <c r="G36" s="90">
+        <f t="shared" ref="G36:G61" si="6">PRODUCT(C36:F36)</f>
         <v>1.1680280402316365</v>
       </c>
       <c r="H36" s="32"/>
@@ -3030,21 +3072,21 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88">
+      <c r="B37" s="86"/>
+      <c r="C37" s="87">
         <v>1</v>
       </c>
-      <c r="D37" s="89">
+      <c r="D37" s="88">
         <v>4.0129999999999999</v>
       </c>
-      <c r="E37" s="90">
+      <c r="E37" s="89">
         <v>0.1</v>
       </c>
-      <c r="F37" s="90">
+      <c r="F37" s="89">
         <f>F36+F35</f>
         <v>2.5144772935080768</v>
       </c>
-      <c r="G37" s="91">
+      <c r="G37" s="90">
         <f t="shared" si="6"/>
         <v>1.0090597378847912</v>
       </c>
@@ -3058,23 +3100,23 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="88">
+      <c r="B38" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="87">
         <v>2</v>
       </c>
-      <c r="D38" s="89">
+      <c r="D38" s="88">
         <v>14.147</v>
       </c>
-      <c r="E38" s="90">
+      <c r="E38" s="89">
         <v>0.23</v>
       </c>
-      <c r="F38" s="90">
+      <c r="F38" s="89">
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G38" s="91">
+      <c r="G38" s="90">
         <f t="shared" si="6"/>
         <v>6.9419902468759513</v>
       </c>
@@ -3088,21 +3130,21 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="88">
+      <c r="B39" s="86"/>
+      <c r="C39" s="87">
         <v>2</v>
       </c>
-      <c r="D39" s="89">
+      <c r="D39" s="88">
         <v>14.147</v>
       </c>
-      <c r="E39" s="90">
+      <c r="E39" s="89">
         <v>0.1</v>
       </c>
-      <c r="F39" s="90">
+      <c r="F39" s="89">
         <f>5.75/3.281</f>
         <v>1.752514477293508</v>
       </c>
-      <c r="G39" s="91">
+      <c r="G39" s="90">
         <f t="shared" si="6"/>
         <v>4.9585644620542517</v>
       </c>
@@ -3110,7 +3152,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="8"/>
       <c r="K39" s="31"/>
-      <c r="N39" s="92">
+      <c r="N39" s="91">
         <f>1.76+3.5/3.281</f>
         <v>2.8267479427003961</v>
       </c>
@@ -3122,23 +3164,23 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
-      <c r="B40" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="88">
+      <c r="B40" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="87">
         <f>-3*2</f>
         <v>-6</v>
       </c>
-      <c r="D40" s="89">
+      <c r="D40" s="88">
         <v>2.3410000000000002</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40" s="89">
         <v>0.1</v>
       </c>
-      <c r="F40" s="90">
+      <c r="F40" s="89">
         <v>0.5</v>
       </c>
-      <c r="G40" s="91">
+      <c r="G40" s="90">
         <f t="shared" si="6"/>
         <v>-0.70230000000000015</v>
       </c>
@@ -3155,21 +3197,21 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="88">
+      <c r="B41" s="86"/>
+      <c r="C41" s="87">
         <f>-1*2</f>
         <v>-2</v>
       </c>
-      <c r="D41" s="89">
+      <c r="D41" s="88">
         <v>2.375</v>
       </c>
-      <c r="E41" s="90">
+      <c r="E41" s="89">
         <v>0.1</v>
       </c>
-      <c r="F41" s="90">
+      <c r="F41" s="89">
         <v>0.5</v>
       </c>
-      <c r="G41" s="91">
+      <c r="G41" s="90">
         <f t="shared" si="6"/>
         <v>-0.23750000000000002</v>
       </c>
@@ -3183,25 +3225,25 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
-      <c r="B42" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="88">
+      <c r="B42" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="87">
         <v>6</v>
       </c>
-      <c r="D42" s="89">
+      <c r="D42" s="88">
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="E42" s="90">
+      <c r="E42" s="89">
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="F42" s="90">
+      <c r="F42" s="89">
         <f>F39+F38</f>
         <v>2.8192624199939038</v>
       </c>
-      <c r="G42" s="91">
+      <c r="G42" s="90">
         <f t="shared" si="6"/>
         <v>0.77216381175092275</v>
       </c>
@@ -3215,23 +3257,23 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88">
+      <c r="B43" s="86"/>
+      <c r="C43" s="87">
         <v>4</v>
       </c>
-      <c r="D43" s="89">
+      <c r="D43" s="88">
         <f>1.917/3.281</f>
         <v>0.58427308747333129</v>
       </c>
-      <c r="E43" s="90">
+      <c r="E43" s="89">
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="F43" s="90">
+      <c r="F43" s="89">
         <f>F38+F39</f>
         <v>2.8192624199939038</v>
       </c>
-      <c r="G43" s="91">
+      <c r="G43" s="90">
         <f t="shared" si="6"/>
         <v>0.84344047129716171</v>
       </c>
@@ -3245,22 +3287,22 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="88">
+      <c r="B44" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="87">
         <v>-10</v>
       </c>
-      <c r="D44" s="89">
+      <c r="D44" s="88">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E44" s="90">
+      <c r="E44" s="89">
         <v>0.1</v>
       </c>
-      <c r="F44" s="90">
+      <c r="F44" s="89">
         <v>1.2</v>
       </c>
-      <c r="G44" s="91">
+      <c r="G44" s="90">
         <f t="shared" si="6"/>
         <v>-1.0055999999999998</v>
       </c>
@@ -3274,20 +3316,20 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="88">
+      <c r="B45" s="86"/>
+      <c r="C45" s="87">
         <v>-2</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="88">
         <v>2.375</v>
       </c>
-      <c r="E45" s="90">
+      <c r="E45" s="89">
         <v>0.1</v>
       </c>
-      <c r="F45" s="90">
+      <c r="F45" s="89">
         <v>1.2</v>
       </c>
-      <c r="G45" s="91">
+      <c r="G45" s="90">
         <f t="shared" ref="G45" si="7">PRODUCT(C45:F45)</f>
         <v>-0.57000000000000006</v>
       </c>
@@ -3301,24 +3343,24 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="88">
+      <c r="B46" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="87">
         <v>-2</v>
       </c>
-      <c r="D46" s="89">
+      <c r="D46" s="88">
         <f>2.75/3.281</f>
         <v>0.8381590978360256</v>
       </c>
-      <c r="E46" s="90">
+      <c r="E46" s="89">
         <v>0.23</v>
       </c>
-      <c r="F46" s="90">
+      <c r="F46" s="89">
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G46" s="91">
+      <c r="G46" s="90">
         <f t="shared" si="6"/>
         <v>-0.41128806690521219</v>
       </c>
@@ -3335,22 +3377,22 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="88">
+      <c r="B47" s="82"/>
+      <c r="C47" s="87">
         <v>-2</v>
       </c>
-      <c r="D47" s="89">
+      <c r="D47" s="88">
         <f>2.75/3.281</f>
         <v>0.8381590978360256</v>
       </c>
-      <c r="E47" s="90">
+      <c r="E47" s="89">
         <v>0.1</v>
       </c>
-      <c r="F47" s="90">
+      <c r="F47" s="89">
         <f>F44</f>
         <v>1.2</v>
       </c>
-      <c r="G47" s="91">
+      <c r="G47" s="90">
         <f t="shared" si="6"/>
         <v>-0.20115818348064615</v>
       </c>
@@ -3361,14 +3403,14 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
-      <c r="B48" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
+      <c r="B48" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="87"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="32"/>
       <c r="I48" s="33"/>
       <c r="J48" s="8"/>
@@ -3376,23 +3418,23 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
-      <c r="B49" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="88">
+      <c r="B49" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="87">
         <v>2</v>
       </c>
-      <c r="D49" s="89">
+      <c r="D49" s="88">
         <v>2.64</v>
       </c>
-      <c r="E49" s="90">
+      <c r="E49" s="89">
         <v>0.1</v>
       </c>
-      <c r="F49" s="90">
+      <c r="F49" s="89">
         <f>((6.75+8)/2)/3.281</f>
         <v>2.2477903078329775</v>
       </c>
-      <c r="G49" s="91">
+      <c r="G49" s="90">
         <f t="shared" si="6"/>
         <v>1.1868332825358121</v>
       </c>
@@ -3403,24 +3445,24 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
-      <c r="B50" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="88">
+      <c r="B50" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="87">
         <v>1</v>
       </c>
-      <c r="D50" s="89">
+      <c r="D50" s="88">
         <f>6.4-0.23</f>
         <v>6.17</v>
       </c>
-      <c r="E50" s="90">
+      <c r="E50" s="89">
         <v>0.23</v>
       </c>
-      <c r="F50" s="90">
+      <c r="F50" s="89">
         <f>6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G50" s="91">
+      <c r="G50" s="90">
         <f t="shared" si="6"/>
         <v>2.9195138677232548</v>
       </c>
@@ -3431,22 +3473,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88">
+      <c r="B51" s="86"/>
+      <c r="C51" s="87">
         <v>1</v>
       </c>
-      <c r="D51" s="89">
+      <c r="D51" s="88">
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="E51" s="90">
+      <c r="E51" s="89">
         <v>0.23</v>
       </c>
-      <c r="F51" s="90">
+      <c r="F51" s="89">
         <f>6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G51" s="91">
+      <c r="G51" s="90">
         <f t="shared" si="6"/>
         <v>1.1537431487211145</v>
       </c>
@@ -3457,23 +3499,23 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
-      <c r="B52" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="88">
+      <c r="B52" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="87">
         <v>1</v>
       </c>
-      <c r="D52" s="89">
+      <c r="D52" s="88">
         <f>(6.4-1.75/3.281)</f>
         <v>5.8666260286498026</v>
       </c>
-      <c r="E52" s="90">
+      <c r="E52" s="89">
         <v>0.23</v>
       </c>
-      <c r="F52" s="90">
+      <c r="F52" s="89">
         <v>0.23</v>
       </c>
-      <c r="G52" s="91">
+      <c r="G52" s="90">
         <f t="shared" si="6"/>
         <v>0.31034451691557458</v>
       </c>
@@ -3484,23 +3526,23 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
-      <c r="B53" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="88">
+      <c r="B53" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="87">
         <v>-1</v>
       </c>
-      <c r="D53" s="89">
+      <c r="D53" s="88">
         <v>0.8</v>
       </c>
-      <c r="E53" s="90">
+      <c r="E53" s="89">
         <v>0.23</v>
       </c>
-      <c r="F53" s="90">
+      <c r="F53" s="89">
         <f>5.75/3.281</f>
         <v>1.752514477293508</v>
       </c>
-      <c r="G53" s="91">
+      <c r="G53" s="90">
         <f t="shared" si="6"/>
         <v>-0.3224626638220055</v>
       </c>
@@ -3511,24 +3553,24 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
-      <c r="B54" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="88">
+      <c r="B54" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="87">
         <v>-2</v>
       </c>
-      <c r="D54" s="89">
+      <c r="D54" s="88">
         <f>1.5/3.281</f>
         <v>0.45717768972874123</v>
       </c>
-      <c r="E54" s="90">
+      <c r="E54" s="89">
         <v>0.23</v>
       </c>
-      <c r="F54" s="90">
+      <c r="F54" s="89">
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="G54" s="91">
+      <c r="G54" s="90">
         <f t="shared" si="6"/>
         <v>-7.4993304666872457E-2</v>
       </c>
@@ -3539,22 +3581,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="88">
+      <c r="B55" s="86"/>
+      <c r="C55" s="87">
         <v>-4</v>
       </c>
-      <c r="D55" s="89">
+      <c r="D55" s="88">
         <f>1.5/3.281</f>
         <v>0.45717768972874123</v>
       </c>
-      <c r="E55" s="90">
+      <c r="E55" s="89">
         <v>0.23</v>
       </c>
-      <c r="F55" s="90">
+      <c r="F55" s="89">
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="G55" s="91">
+      <c r="G55" s="90">
         <f t="shared" si="6"/>
         <v>-0.14998660933374491</v>
       </c>
@@ -3565,14 +3607,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
-      <c r="B56" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="91"/>
+      <c r="B56" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="87"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="32"/>
       <c r="I56" s="33"/>
       <c r="J56" s="8"/>
@@ -3580,23 +3622,23 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
-      <c r="B57" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="88">
+      <c r="B57" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="87">
         <v>1</v>
       </c>
-      <c r="D57" s="89">
+      <c r="D57" s="88">
         <v>2.63</v>
       </c>
-      <c r="E57" s="90">
+      <c r="E57" s="89">
         <v>0.1</v>
       </c>
-      <c r="F57" s="90">
+      <c r="F57" s="89">
         <f>7.25/3.281</f>
         <v>2.2096921670222494</v>
       </c>
-      <c r="G57" s="91">
+      <c r="G57" s="90">
         <f t="shared" si="6"/>
         <v>0.58114903992685163</v>
       </c>
@@ -3607,22 +3649,22 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="88">
+      <c r="B58" s="86"/>
+      <c r="C58" s="87">
         <v>1</v>
       </c>
-      <c r="D58" s="89">
+      <c r="D58" s="88">
         <f>6.4-0.23-2.63</f>
         <v>3.54</v>
       </c>
-      <c r="E58" s="90">
+      <c r="E58" s="89">
         <v>0.23</v>
       </c>
-      <c r="F58" s="90">
+      <c r="F58" s="89">
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="G58" s="91">
+      <c r="G58" s="90">
         <f t="shared" si="6"/>
         <v>0.1042255409935995</v>
       </c>
@@ -3633,23 +3675,23 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
-      <c r="B59" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="88">
+      <c r="B59" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="87">
         <v>3</v>
       </c>
-      <c r="D59" s="89">
+      <c r="D59" s="88">
         <v>1</v>
       </c>
-      <c r="E59" s="90">
+      <c r="E59" s="89">
         <v>0.1</v>
       </c>
-      <c r="F59" s="90">
+      <c r="F59" s="89">
         <f>7.25/3.281</f>
         <v>2.2096921670222494</v>
       </c>
-      <c r="G59" s="91">
+      <c r="G59" s="90">
         <f t="shared" si="6"/>
         <v>0.66290765010667485</v>
       </c>
@@ -3660,24 +3702,24 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
-      <c r="B60" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="88">
+      <c r="B60" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="87">
         <v>-2</v>
       </c>
-      <c r="D60" s="89">
+      <c r="D60" s="88">
         <f>2.5/3.281</f>
         <v>0.76196281621456874</v>
       </c>
-      <c r="E60" s="90">
+      <c r="E60" s="89">
         <v>0.1</v>
       </c>
-      <c r="F60" s="90">
+      <c r="F60" s="89">
         <f>5.5/3.281</f>
         <v>1.6763181956720512</v>
       </c>
-      <c r="G60" s="91">
+      <c r="G60" s="90">
         <f t="shared" si="6"/>
         <v>-0.25545842664920015</v>
       </c>
@@ -3688,12 +3730,26 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="91"/>
+      <c r="B61" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="87">
+        <v>1</v>
+      </c>
+      <c r="D61" s="88">
+        <v>2</v>
+      </c>
+      <c r="E61" s="89">
+        <v>0.23</v>
+      </c>
+      <c r="F61" s="89">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G61" s="90">
+        <f t="shared" si="6"/>
+        <v>0.94635781773849437</v>
+      </c>
       <c r="H61" s="32"/>
       <c r="I61" s="33"/>
       <c r="J61" s="8"/>
@@ -3701,12 +3757,25 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="91"/>
+      <c r="B62" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="87">
+        <v>-2</v>
+      </c>
+      <c r="D62" s="88">
+        <v>0.78</v>
+      </c>
+      <c r="E62" s="89">
+        <v>0.23</v>
+      </c>
+      <c r="F62" s="89">
+        <v>1.8</v>
+      </c>
+      <c r="G62" s="90">
+        <f t="shared" ref="G62:G70" si="8">PRODUCT(C62:F62)</f>
+        <v>-0.64584000000000008</v>
+      </c>
       <c r="H62" s="32"/>
       <c r="I62" s="33"/>
       <c r="J62" s="8"/>
@@ -3714,54 +3783,66 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
-      <c r="B63" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="39">
-        <f>SUM(G12:G55)</f>
-        <v>43.256419361728405</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="33">
-        <v>1950.4</v>
-      </c>
-      <c r="J63" s="8">
-        <f>G63*I63</f>
-        <v>84367.320323115084</v>
-      </c>
+      <c r="B63" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="87"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="31"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="39"/>
+      <c r="B64" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="87">
+        <v>1</v>
+      </c>
+      <c r="D64" s="88">
+        <v>2.11</v>
+      </c>
+      <c r="E64" s="89">
+        <v>0.23</v>
+      </c>
+      <c r="F64" s="89">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G64" s="90">
+        <f t="shared" si="8"/>
+        <v>0.99840749771411152</v>
+      </c>
       <c r="H64" s="32"/>
       <c r="I64" s="33"/>
       <c r="J64" s="8"/>
       <c r="K64" s="31"/>
     </row>
-    <row r="65" spans="1:17" ht="60" x14ac:dyDescent="0.3">
-      <c r="A65" s="28">
-        <v>2</v>
-      </c>
-      <c r="B65" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="39"/>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="28"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="87">
+        <v>1</v>
+      </c>
+      <c r="D65" s="88">
+        <v>2.11</v>
+      </c>
+      <c r="E65" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="F65" s="89">
+        <f t="shared" ref="F65:F66" si="9">6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G65" s="90">
+        <f t="shared" si="8"/>
+        <v>0.43409021639743978</v>
+      </c>
       <c r="H65" s="32"/>
       <c r="I65" s="33"/>
       <c r="J65" s="8"/>
@@ -3769,246 +3850,211 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
-      <c r="B66" s="86" t="str">
-        <f>B11</f>
-        <v>-Block 1</v>
-      </c>
-      <c r="C66" s="29">
+      <c r="B66" s="86"/>
+      <c r="C66" s="87">
         <v>2</v>
       </c>
-      <c r="D66" s="30">
-        <v>14.097</v>
-      </c>
-      <c r="E66" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="91">
-        <f t="shared" ref="G66:G73" si="8">PRODUCT(C66:F66)</f>
-        <v>90.220799999999997</v>
+      <c r="D66" s="88">
+        <v>1.68</v>
+      </c>
+      <c r="E66" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="F66" s="89">
+        <f t="shared" si="9"/>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G66" s="90">
+        <f t="shared" si="8"/>
+        <v>0.69125266686985676</v>
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="33"/>
       <c r="J66" s="8"/>
       <c r="K66" s="31"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="81"/>
-      <c r="Q66" s="81"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="29">
-        <v>2</v>
-      </c>
-      <c r="D67" s="30">
-        <v>5</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="G67" s="91">
+      <c r="B67" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="87">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="88">
+        <v>0.78</v>
+      </c>
+      <c r="E67" s="89">
+        <v>0.23</v>
+      </c>
+      <c r="F67" s="89">
+        <f>6/3.281</f>
+        <v>1.8287107589149649</v>
+      </c>
+      <c r="G67" s="90">
         <f t="shared" si="8"/>
-        <v>4.0600000000000005</v>
+        <v>-0.32807071014934469</v>
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="33"/>
       <c r="J67" s="8"/>
       <c r="K67" s="31"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="81"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="29">
-        <v>2</v>
-      </c>
-      <c r="D68" s="30">
-        <f>D67/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G68" s="39">
-        <f>C68*0.5*D68*F68</f>
-        <v>2.4125000000000001</v>
+      <c r="B68" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="87">
+        <v>-2</v>
+      </c>
+      <c r="D68" s="88">
+        <v>0.45</v>
+      </c>
+      <c r="E68" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="F68" s="89">
+        <v>0.3</v>
+      </c>
+      <c r="G68" s="90">
+        <f t="shared" si="8"/>
+        <v>-2.7000000000000003E-2</v>
       </c>
       <c r="H68" s="32"/>
       <c r="I68" s="33"/>
       <c r="J68" s="8"/>
       <c r="K68" s="31"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="81"/>
-      <c r="Q68" s="81"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
-      <c r="B69" s="86" t="str">
-        <f>B23</f>
-        <v>-Block 2</v>
-      </c>
-      <c r="C69" s="29">
-        <v>2</v>
-      </c>
-      <c r="D69" s="30">
-        <v>13.945</v>
-      </c>
-      <c r="E69" s="31">
-        <v>3.15</v>
-      </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="91">
+      <c r="B69" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="87">
+        <v>1</v>
+      </c>
+      <c r="D69" s="88">
+        <f>5.25/3.281</f>
+        <v>1.6001219140505942</v>
+      </c>
+      <c r="E69" s="89">
+        <v>0.23</v>
+      </c>
+      <c r="F69" s="89">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="G69" s="90">
         <f t="shared" si="8"/>
-        <v>87.853499999999997</v>
+        <v>0.28973374822258996</v>
       </c>
       <c r="H69" s="32"/>
       <c r="I69" s="33"/>
       <c r="J69" s="8"/>
       <c r="K69" s="31"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="81"/>
-      <c r="Q69" s="81"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="29">
-        <v>2</v>
-      </c>
-      <c r="D70" s="30">
-        <v>4.5209999999999999</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="G70" s="91">
+      <c r="B70" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="87">
+        <v>1</v>
+      </c>
+      <c r="D70" s="88">
+        <v>0.48</v>
+      </c>
+      <c r="E70" s="89">
+        <v>0.2</v>
+      </c>
+      <c r="F70" s="89">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="G70" s="90">
         <f t="shared" si="8"/>
-        <v>3.671052</v>
+        <v>1.2288936299908564E-2</v>
       </c>
       <c r="H70" s="32"/>
       <c r="I70" s="33"/>
       <c r="J70" s="8"/>
       <c r="K70" s="31"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="29">
-        <v>2</v>
-      </c>
-      <c r="D71" s="30">
-        <f>D70/2</f>
-        <v>2.2605</v>
-      </c>
+      <c r="B71" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="31"/>
-      <c r="F71" s="31">
-        <v>0.99099999999999999</v>
-      </c>
+      <c r="F71" s="31"/>
       <c r="G71" s="39">
-        <f>C71*0.5*D71*F71</f>
-        <v>2.2401554999999997</v>
-      </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="8"/>
+        <f>SUM(G12:G70)</f>
+        <v>46.720463339199377</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="33">
+        <v>1950.4</v>
+      </c>
+      <c r="J71" s="8">
+        <f>G71*I71</f>
+        <v>91123.591696774471</v>
+      </c>
       <c r="K71" s="31"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
-      <c r="B72" s="86" t="str">
-        <f>B34</f>
-        <v>-Block 3</v>
-      </c>
-      <c r="C72" s="29">
-        <v>2</v>
-      </c>
-      <c r="D72" s="30">
-        <v>14.401</v>
-      </c>
-      <c r="E72" s="31">
-        <v>3.35</v>
-      </c>
+      <c r="B72" s="86"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="31"/>
-      <c r="G72" s="91">
-        <f t="shared" si="8"/>
-        <v>96.486699999999999</v>
-      </c>
+      <c r="G72" s="39"/>
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
       <c r="J72" s="8"/>
       <c r="K72" s="31"/>
-      <c r="N72" s="80">
-        <f>2.6*3.281</f>
-        <v>8.5306000000000015</v>
-      </c>
-      <c r="O72" s="41">
-        <f>N72-1.5</f>
-        <v>7.0306000000000015</v>
-      </c>
-      <c r="P72" s="81"/>
-      <c r="Q72" s="81"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="29">
+    </row>
+    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+      <c r="A73" s="28">
         <v>2</v>
       </c>
-      <c r="D73" s="30">
-        <v>4.0389999999999997</v>
-      </c>
+      <c r="B73" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="31"/>
-      <c r="F73" s="31">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="G73" s="91">
-        <f t="shared" si="8"/>
-        <v>2.8757679999999994</v>
-      </c>
+      <c r="F73" s="31"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="32"/>
       <c r="I73" s="33"/>
       <c r="J73" s="8"/>
       <c r="K73" s="31"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="81"/>
-      <c r="Q73" s="81"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
-      <c r="B74" s="86"/>
+      <c r="B74" s="85" t="str">
+        <f>B11</f>
+        <v>-Block 1</v>
+      </c>
       <c r="C74" s="29">
         <v>2</v>
       </c>
       <c r="D74" s="30">
-        <f>D73/2</f>
-        <v>2.0194999999999999</v>
-      </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="G74" s="39">
-        <f>C74*0.5*D74*F74</f>
-        <v>1.744848</v>
+        <v>14.097</v>
+      </c>
+      <c r="E74" s="31">
+        <v>3.2</v>
+      </c>
+      <c r="F74" s="31"/>
+      <c r="G74" s="90">
+        <f t="shared" ref="G74:G83" si="10">PRODUCT(C74:F74)</f>
+        <v>90.220799999999997</v>
       </c>
       <c r="H74" s="32"/>
       <c r="I74" s="33"/>
@@ -4021,14 +4067,21 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
-      <c r="B75" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="29">
+        <v>2</v>
+      </c>
+      <c r="D75" s="30">
+        <v>5</v>
+      </c>
       <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="39"/>
+      <c r="F75" s="31">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G75" s="90">
+        <f t="shared" si="10"/>
+        <v>4.0600000000000005</v>
+      </c>
       <c r="H75" s="32"/>
       <c r="I75" s="33"/>
       <c r="J75" s="8"/>
@@ -4040,23 +4093,21 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
-      <c r="B76" s="87" t="s">
-        <v>116</v>
-      </c>
+      <c r="B76" s="86"/>
       <c r="C76" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="30">
-        <v>6.4</v>
-      </c>
-      <c r="E76" s="31">
-        <f>11.25/3.281</f>
-        <v>3.4288326729655592</v>
-      </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="91">
-        <f t="shared" ref="G76" si="9">PRODUCT(C76:F76)</f>
-        <v>21.94452910697958</v>
+        <f>D75/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G76" s="39">
+        <f>C76*0.5*D76*F76</f>
+        <v>2.4125000000000001</v>
       </c>
       <c r="H76" s="32"/>
       <c r="I76" s="33"/>
@@ -4069,304 +4120,1048 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
-      <c r="B77" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
+      <c r="B77" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="29">
+        <v>2</v>
+      </c>
+      <c r="D77" s="30">
+        <v>0.84</v>
+      </c>
       <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
+      <c r="F77" s="31">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
       <c r="G77" s="39">
-        <f>SUM(G66:G76)</f>
-        <v>313.50985260697956</v>
-      </c>
-      <c r="H77" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I77" s="33">
-        <v>69.87</v>
-      </c>
-      <c r="J77" s="8">
-        <f>G77*I77</f>
-        <v>21904.933401649665</v>
-      </c>
+        <f>C77*0.5*D77*F77</f>
+        <v>1.664126790612618</v>
+      </c>
+      <c r="H77" s="32"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="8"/>
       <c r="K77" s="31"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
+      <c r="B78" s="85" t="str">
+        <f>B23</f>
+        <v>-Block 2</v>
+      </c>
+      <c r="C78" s="29">
+        <v>2</v>
+      </c>
+      <c r="D78" s="30">
+        <v>13.945</v>
+      </c>
+      <c r="E78" s="31">
+        <v>3.15</v>
+      </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="39"/>
+      <c r="G78" s="90">
+        <f t="shared" si="10"/>
+        <v>87.853499999999997</v>
+      </c>
       <c r="H78" s="32"/>
       <c r="I78" s="33"/>
       <c r="J78" s="8"/>
       <c r="K78" s="31"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="81"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="29">
+        <v>2</v>
+      </c>
+      <c r="D79" s="30">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G79" s="90">
+        <f t="shared" si="10"/>
+        <v>3.671052</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="33"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="4"/>
-      <c r="M79" s="41"/>
+      <c r="K79" s="31"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="27" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="29">
+        <v>2</v>
+      </c>
+      <c r="D80" s="30">
+        <f>D79/2</f>
+        <v>2.2605</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G80" s="39">
+        <f>C80*0.5*D80*F80</f>
+        <v>2.2401554999999997</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="31"/>
+      <c r="N80" s="80"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="29">
+        <v>2</v>
+      </c>
+      <c r="D81" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G81" s="39">
+        <f>C81*0.5*D81*F81</f>
+        <v>1.664126790612618</v>
+      </c>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="31"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+      <c r="B82" s="85" t="str">
+        <f>B34</f>
+        <v>-Block 3</v>
+      </c>
+      <c r="C82" s="29">
+        <v>2</v>
+      </c>
+      <c r="D82" s="30">
+        <v>14.401</v>
+      </c>
+      <c r="E82" s="31">
+        <v>3.35</v>
+      </c>
+      <c r="F82" s="31"/>
+      <c r="G82" s="90">
+        <f t="shared" si="10"/>
+        <v>96.486699999999999</v>
+      </c>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="31"/>
+      <c r="N82" s="80">
+        <f>2.6*3.281</f>
+        <v>8.5306000000000015</v>
+      </c>
+      <c r="O82" s="41">
+        <f>N82-1.5</f>
+        <v>7.0306000000000015</v>
+      </c>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="29">
+        <v>2</v>
+      </c>
+      <c r="D83" s="30">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G83" s="90">
+        <f t="shared" si="10"/>
+        <v>2.8757679999999994</v>
+      </c>
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="31"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="29">
+        <v>2</v>
+      </c>
+      <c r="D84" s="30">
+        <f>D83/2</f>
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G84" s="39">
+        <f>C84*0.5*D84*F84</f>
+        <v>1.744848</v>
+      </c>
+      <c r="H84" s="32"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="31"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="81"/>
+      <c r="Q84" s="81"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="28"/>
+      <c r="B85" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="29">
+        <v>2</v>
+      </c>
+      <c r="D85" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G85" s="39">
+        <f>C85*0.5*D85*F85</f>
+        <v>1.664126790612618</v>
+      </c>
+      <c r="H85" s="32"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="31"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" s="81"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="28"/>
+      <c r="B86" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="31"/>
+      <c r="N86" s="80"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="28"/>
+      <c r="B87" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="29">
+        <v>1</v>
+      </c>
+      <c r="D87" s="30">
+        <v>6.4</v>
+      </c>
+      <c r="E87" s="31">
+        <f>11.25/3.281</f>
+        <v>3.4288326729655592</v>
+      </c>
+      <c r="F87" s="31"/>
+      <c r="G87" s="90">
+        <f t="shared" ref="G87" si="11">PRODUCT(C87:F87)</f>
+        <v>21.94452910697958</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="31"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="28"/>
+      <c r="B88" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="29">
+        <v>1</v>
+      </c>
+      <c r="D88" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31">
+        <f>5.75/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="G88" s="39">
+        <f>C88*0.5*D88*F88</f>
+        <v>0.70100579091740323</v>
+      </c>
+      <c r="H88" s="32"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="31"/>
+      <c r="N88" s="80"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="28"/>
+      <c r="B89" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="39">
+        <f>SUM(G74:G88)</f>
+        <v>319.20323876973481</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I89" s="33">
+        <v>69.87</v>
+      </c>
+      <c r="J89" s="8">
+        <f>G89*I89</f>
+        <v>22302.730292841374</v>
+      </c>
+      <c r="K89" s="31"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="28"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="31"/>
+    </row>
+    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="A91" s="28">
+        <v>3</v>
+      </c>
+      <c r="B91" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="31"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="7">
+        <f>(46+9+9)/12/3.281</f>
+        <v>1.6255206745910797</v>
+      </c>
+      <c r="E92" s="7">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G92" s="90">
+        <f t="shared" ref="G92:G94" si="12">PRODUCT(C92:F92)</f>
+        <v>0.162552067459108</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="4"/>
+      <c r="M92" s="41"/>
+      <c r="N92">
+        <f>0.78+0.78+(14)/12/3.281</f>
+        <v>1.9155826475667987</v>
+      </c>
+      <c r="O92">
+        <f>N92*3.281</f>
+        <v>6.285026666666667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7">
+        <f>2.11+0.15</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E93" s="7">
+        <f>2.01+0.15</f>
+        <v>2.1599999999999997</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G93" s="90">
+        <f t="shared" si="12"/>
+        <v>0.48815999999999993</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="4"/>
+      <c r="M93" s="41"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="9">
+        <v>4</v>
+      </c>
+      <c r="D94" s="7">
+        <f>((1.5+5.25)/2)/3.281</f>
+        <v>1.0286498018896677</v>
+      </c>
+      <c r="E94" s="7">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G94" s="90">
+        <f t="shared" si="12"/>
+        <v>0.15675857998928189</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="4"/>
+      <c r="M94" s="41"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="28"/>
+      <c r="B95" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="39">
+        <f>SUM(G92:G94)</f>
+        <v>0.80747064744838981</v>
+      </c>
+      <c r="H95" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I95" s="33">
+        <v>3680</v>
+      </c>
+      <c r="J95" s="8">
+        <f>G95*I95</f>
+        <v>2971.4919826100745</v>
+      </c>
+      <c r="K95" s="31"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="31"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A97" s="28">
+        <v>4</v>
+      </c>
+      <c r="B97" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="31"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A98" s="28"/>
+      <c r="B98" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="29">
+        <v>9</v>
+      </c>
+      <c r="D98" s="30">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="E98" s="31">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F98" s="31">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G98" s="90">
+        <f t="shared" ref="G98:G104" si="13">PRODUCT(C98:F98)</f>
+        <v>0.11678989331722038</v>
+      </c>
+      <c r="H98" s="32"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="31"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A99" s="10"/>
+      <c r="B99" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="9">
+        <v>2</v>
+      </c>
+      <c r="D99" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E99" s="7">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F99" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G99" s="90">
+        <f t="shared" si="13"/>
+        <v>2.4771726220528492E-2</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="4"/>
+      <c r="M99" s="41"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="9">
+        <v>1</v>
+      </c>
+      <c r="D100" s="7">
+        <f>2*(5.75/3.281)+0.8</f>
+        <v>4.3050289545870157</v>
+      </c>
+      <c r="E100" s="7">
+        <f>2.25/12/3.281</f>
+        <v>5.7147211216092654E-2</v>
+      </c>
+      <c r="F100" s="7">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G100" s="90">
+        <f t="shared" si="13"/>
+        <v>1.56215330030973E-2</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="4"/>
+      <c r="M100" s="41"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="9">
+        <v>2</v>
+      </c>
+      <c r="D101" s="7">
+        <f>2*(5.5/3.281)+2.5/3.281</f>
+        <v>4.1145992075586708</v>
+      </c>
+      <c r="E101" s="7">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F101" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G101" s="90">
+        <f t="shared" si="13"/>
+        <v>3.1851789086514648E-2</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="4"/>
+      <c r="M101" s="41"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A102" s="10"/>
+      <c r="B102" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="9">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7">
+        <f>0.78+1.8*2</f>
+        <v>4.38</v>
+      </c>
+      <c r="E102" s="7">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F102" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G102" s="90">
+        <f t="shared" si="13"/>
+        <v>3.390630026434837E-2</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="4"/>
+      <c r="M102" s="41"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="9">
+        <v>2</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G103" s="90"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="4"/>
+      <c r="M103" s="41"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A104" s="10"/>
+      <c r="B104" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="7">
+        <f>0.78+2*(6/3.281)</f>
+        <v>4.4374215178299297</v>
+      </c>
+      <c r="E104" s="7">
+        <f>3.5/12/3.281</f>
+        <v>8.8895661891699687E-2</v>
+      </c>
+      <c r="F104" s="7">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G104" s="90">
+        <f t="shared" si="13"/>
+        <v>2.504746538910662E-2</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="4"/>
+      <c r="M104" s="41"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A105" s="10"/>
+      <c r="B105" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G105" s="90"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="4"/>
+      <c r="M105" s="41"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
+      <c r="B106" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="39">
+        <f>SUM(G98:G104)</f>
+        <v>0.24798870728081582</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="33"/>
+      <c r="J106" s="8">
+        <f>G106*I106</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="31"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="84"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="4"/>
+      <c r="M107" s="41"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8">
-        <f>SUM(J10:J79)</f>
-        <v>106272.25372476474</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="M80" s="41"/>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="48"/>
-    </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="M81" s="41"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="47"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="41"/>
-      <c r="V81" s="41"/>
-      <c r="W81" s="41"/>
-      <c r="X81" s="41"/>
-      <c r="Y81" s="41"/>
-      <c r="Z81" s="41"/>
-      <c r="AA81" s="41"/>
-      <c r="AB81" s="41"/>
-      <c r="AC81" s="41"/>
-      <c r="AD81" s="41"/>
-      <c r="AE81" s="41"/>
-    </row>
-    <row r="82" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="17" t="s">
+      <c r="C108" s="9"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8">
+        <f>SUM(J10:J92)</f>
+        <v>113426.32198961584</v>
+      </c>
+      <c r="K108" s="4"/>
+      <c r="M108" s="41"/>
+      <c r="P108" s="48"/>
+      <c r="Q108" s="48"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M109" s="41"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="47"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="41"/>
+      <c r="X109" s="41"/>
+      <c r="Y109" s="41"/>
+      <c r="Z109" s="41"/>
+      <c r="AA109" s="41"/>
+      <c r="AB109" s="41"/>
+      <c r="AC109" s="41"/>
+      <c r="AD109" s="41"/>
+      <c r="AE109" s="41"/>
+    </row>
+    <row r="110" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="99">
-        <f>J80</f>
-        <v>106272.25372476474</v>
-      </c>
-      <c r="D82" s="100"/>
-      <c r="E82" s="15">
+      <c r="C110" s="98">
+        <f>J108</f>
+        <v>113426.32198961584</v>
+      </c>
+      <c r="D110" s="99"/>
+      <c r="E110" s="15">
         <v>100</v>
       </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="23"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="42"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="19"/>
-      <c r="Z82" s="19"/>
-      <c r="AA82" s="19"/>
-      <c r="AB82" s="19"/>
-      <c r="AC82" s="19"/>
-      <c r="AD82" s="19"/>
-      <c r="AE82" s="19"/>
-    </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B83" s="17" t="s">
+      <c r="F110" s="19"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="23"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="19"/>
+      <c r="X110" s="19"/>
+      <c r="Y110" s="19"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="19"/>
+      <c r="AB110" s="19"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="19"/>
+      <c r="AE110" s="19"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B111" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="102">
+      <c r="C111" s="101">
         <v>150000</v>
       </c>
-      <c r="D83" s="103"/>
-      <c r="E83" s="15"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="42"/>
-      <c r="T83" s="42"/>
-      <c r="U83" s="41"/>
-      <c r="V83" s="41"/>
-      <c r="W83" s="41"/>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
-      <c r="AA83" s="41"/>
-      <c r="AB83" s="41"/>
-      <c r="AC83" s="41"/>
-      <c r="AD83" s="41"/>
-      <c r="AE83" s="41"/>
-    </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B84" s="17" t="s">
+      <c r="D111" s="102"/>
+      <c r="E111" s="15"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="41"/>
+      <c r="V111" s="41"/>
+      <c r="W111" s="41"/>
+      <c r="X111" s="41"/>
+      <c r="Y111" s="41"/>
+      <c r="Z111" s="41"/>
+      <c r="AA111" s="41"/>
+      <c r="AB111" s="41"/>
+      <c r="AC111" s="41"/>
+      <c r="AD111" s="41"/>
+      <c r="AE111" s="41"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B112" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="102">
-        <f>C83-C86-C87</f>
+      <c r="C112" s="101">
+        <f>C111-C114-C115</f>
         <v>142500</v>
       </c>
-      <c r="D84" s="103"/>
-      <c r="E84" s="15">
-        <f>C84/C82*100</f>
-        <v>134.08956242620181</v>
-      </c>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
-      <c r="V84" s="41"/>
-      <c r="W84" s="41"/>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
-      <c r="AB84" s="41"/>
-      <c r="AC84" s="41"/>
-      <c r="AD84" s="41"/>
-      <c r="AE84" s="41"/>
-    </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B85" s="17" t="s">
+      <c r="D112" s="102"/>
+      <c r="E112" s="15">
+        <f>C112/C110*100</f>
+        <v>125.63221437528922</v>
+      </c>
+      <c r="M112" s="41"/>
+      <c r="N112" s="41"/>
+      <c r="O112" s="41"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="41"/>
+      <c r="S112" s="41"/>
+      <c r="T112" s="41"/>
+      <c r="U112" s="41"/>
+      <c r="V112" s="41"/>
+      <c r="W112" s="41"/>
+      <c r="X112" s="41"/>
+      <c r="Y112" s="41"/>
+      <c r="Z112" s="41"/>
+      <c r="AA112" s="41"/>
+      <c r="AB112" s="41"/>
+      <c r="AC112" s="41"/>
+      <c r="AD112" s="41"/>
+      <c r="AE112" s="41"/>
+    </row>
+    <row r="113" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B113" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="104">
-        <f>C82-C84</f>
-        <v>-36227.746275235259</v>
-      </c>
-      <c r="D85" s="104"/>
-      <c r="E85" s="15">
-        <f>100-E84</f>
-        <v>-34.089562426201809</v>
-      </c>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="41"/>
-      <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
-      <c r="V85" s="41"/>
-      <c r="W85" s="41"/>
-      <c r="X85" s="41"/>
-      <c r="Y85" s="41"/>
-      <c r="Z85" s="41"/>
-      <c r="AA85" s="41"/>
-      <c r="AB85" s="41"/>
-      <c r="AC85" s="41"/>
-      <c r="AD85" s="41"/>
-      <c r="AE85" s="41"/>
-    </row>
-    <row r="86" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B86" s="17" t="s">
+      <c r="C113" s="103">
+        <f>C110-C112</f>
+        <v>-29073.678010384159</v>
+      </c>
+      <c r="D113" s="103"/>
+      <c r="E113" s="15">
+        <f>100-E112</f>
+        <v>-25.632214375289223</v>
+      </c>
+      <c r="M113" s="41"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="41"/>
+      <c r="S113" s="41"/>
+      <c r="T113" s="41"/>
+      <c r="U113" s="41"/>
+      <c r="V113" s="41"/>
+      <c r="W113" s="41"/>
+      <c r="X113" s="41"/>
+      <c r="Y113" s="41"/>
+      <c r="Z113" s="41"/>
+      <c r="AA113" s="41"/>
+      <c r="AB113" s="41"/>
+      <c r="AC113" s="41"/>
+      <c r="AD113" s="41"/>
+      <c r="AE113" s="41"/>
+    </row>
+    <row r="114" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B114" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="99">
-        <f>C83*0.03</f>
+      <c r="C114" s="98">
+        <f>C111*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D86" s="100"/>
-      <c r="E86" s="15">
+      <c r="D114" s="99"/>
+      <c r="E114" s="15">
         <v>3</v>
       </c>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
-      <c r="V86" s="41"/>
-      <c r="W86" s="41"/>
-      <c r="X86" s="41"/>
-      <c r="Y86" s="41"/>
-      <c r="Z86" s="41"/>
-      <c r="AA86" s="41"/>
-      <c r="AB86" s="41"/>
-      <c r="AC86" s="41"/>
-      <c r="AD86" s="41"/>
-      <c r="AE86" s="41"/>
-    </row>
-    <row r="87" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B87" s="17" t="s">
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="41"/>
+      <c r="S114" s="41"/>
+      <c r="T114" s="41"/>
+      <c r="U114" s="41"/>
+      <c r="V114" s="41"/>
+      <c r="W114" s="41"/>
+      <c r="X114" s="41"/>
+      <c r="Y114" s="41"/>
+      <c r="Z114" s="41"/>
+      <c r="AA114" s="41"/>
+      <c r="AB114" s="41"/>
+      <c r="AC114" s="41"/>
+      <c r="AD114" s="41"/>
+      <c r="AE114" s="41"/>
+    </row>
+    <row r="115" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B115" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="99">
-        <f>C83*0.02</f>
+      <c r="C115" s="98">
+        <f>C111*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D87" s="100"/>
-      <c r="E87" s="15">
+      <c r="D115" s="99"/>
+      <c r="E115" s="15">
         <v>2</v>
       </c>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="41"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="41"/>
+      <c r="M115" s="41"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="41"/>
+      <c r="P115" s="41"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="41"/>
+      <c r="S115" s="41"/>
+      <c r="T115" s="41"/>
+      <c r="U115" s="41"/>
+      <c r="V115" s="41"/>
+      <c r="W115" s="41"/>
+      <c r="X115" s="41"/>
+      <c r="Y115" s="41"/>
+      <c r="Z115" s="41"/>
+      <c r="AA115" s="41"/>
+      <c r="AB115" s="41"/>
+      <c r="AC115" s="41"/>
+      <c r="AD115" s="41"/>
+      <c r="AE115" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -4412,90 +5207,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="105" t="e">
+      <c r="C6" s="104" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="106"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4503,11 +5298,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="105" t="e">
+      <c r="J6" s="104" t="e">
         <f>I30</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="106"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
@@ -4516,77 +5311,77 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="I7" s="114" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="I7" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="e">
+      <c r="A8" s="111" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="I8" s="115" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="I8" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="112" t="e">
+      <c r="A9" s="111" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="I9" s="115" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="I9" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="110" t="s">
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="110" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -4605,8 +5400,8 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="e">
@@ -5166,117 +5961,117 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="119" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="118" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="119"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="118"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="118"/>
     </row>
     <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122" t="s">
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
     </row>
     <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="56" t="s">
         <v>51</v>
       </c>
@@ -5420,86 +6215,86 @@
       <c r="U7" s="63"/>
     </row>
     <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="60">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
       <c r="K8" s="60">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="60">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="123" t="s">
+      <c r="Q8" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
       <c r="U8" s="64">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="60">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
       <c r="K9" s="60">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="123" t="s">
+      <c r="L9" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
       <c r="P9" s="60">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="123" t="s">
+      <c r="Q9" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
       <c r="U9" s="64">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
@@ -5522,152 +6317,152 @@
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="123" t="s">
+      <c r="Q10" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
       <c r="U10" s="65">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="132" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="141" t="s">
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="140" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="142"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="141"/>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="143"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="142"/>
     </row>
     <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="148" t="s">
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="148" t="s">
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="148" t="s">
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="149"/>
     </row>
     <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="66" t="s">
         <v>51</v>
       </c>
@@ -5813,86 +6608,86 @@
       <c r="U18" s="73"/>
     </row>
     <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="70">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
-      <c r="G19" s="124" t="s">
+      <c r="G19" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
       <c r="K19" s="70">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L19" s="124" t="s">
+      <c r="L19" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="126"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="70">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="124" t="s">
+      <c r="Q19" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="126"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="125"/>
       <c r="U19" s="74">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="70">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="G20" s="124" t="s">
+      <c r="G20" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
       <c r="K20" s="70">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="L20" s="124" t="s">
+      <c r="L20" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="126"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="70">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
-      <c r="Q20" s="124" t="s">
+      <c r="Q20" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="126"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="125"/>
       <c r="U20" s="74">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
@@ -5915,12 +6710,12 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
-      <c r="Q21" s="124" t="s">
+      <c r="Q21" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="126"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="125"/>
       <c r="U21" s="76">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
@@ -5950,117 +6745,117 @@
       <c r="U22" s="76"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="156" t="s">
+      <c r="B24" s="154"/>
+      <c r="C24" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="151" t="s">
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="150" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="155"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="151"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="150"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="152" t="s">
+      <c r="A26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="151"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="150"/>
     </row>
     <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154" t="s">
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154" t="s">
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154" t="s">
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="153"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="49" t="s">
         <v>51</v>
       </c>
@@ -6378,86 +7173,86 @@
       <c r="U34" s="44"/>
     </row>
     <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
       <c r="F35" s="53">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="157" t="s">
+      <c r="G35" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
       <c r="K35" s="53">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="157" t="s">
+      <c r="L35" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="157"/>
-      <c r="N35" s="157"/>
-      <c r="O35" s="157"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
       <c r="P35" s="53">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="157" t="s">
+      <c r="Q35" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="157"/>
-      <c r="S35" s="157"/>
-      <c r="T35" s="157"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
       <c r="U35" s="54">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
       <c r="F36" s="53">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="157" t="s">
+      <c r="G36" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
       <c r="K36" s="53">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="157" t="s">
+      <c r="L36" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="156"/>
       <c r="P36" s="53">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="157" t="s">
+      <c r="Q36" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="R36" s="157"/>
-      <c r="S36" s="157"/>
-      <c r="T36" s="157"/>
+      <c r="R36" s="156"/>
+      <c r="S36" s="156"/>
+      <c r="T36" s="156"/>
       <c r="U36" s="54">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
@@ -6480,152 +7275,152 @@
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
-      <c r="Q37" s="157" t="s">
+      <c r="Q37" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="157"/>
-      <c r="S37" s="157"/>
-      <c r="T37" s="157"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
       <c r="U37" s="55">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="158"/>
-      <c r="S38" s="158"/>
-      <c r="T38" s="158"/>
-      <c r="U38" s="158"/>
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="155"/>
-      <c r="C40" s="156" t="s">
+      <c r="B40" s="154"/>
+      <c r="C40" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
-      <c r="N40" s="156"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="156"/>
-      <c r="R40" s="156"/>
-      <c r="S40" s="156"/>
-      <c r="T40" s="156"/>
-      <c r="U40" s="151" t="s">
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="155"/>
+      <c r="R40" s="155"/>
+      <c r="S40" s="155"/>
+      <c r="T40" s="155"/>
+      <c r="U40" s="150" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="155"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="156"/>
-      <c r="U41" s="151"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="150"/>
     </row>
     <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="152" t="s">
+      <c r="A42" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="156"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="151"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="155"/>
+      <c r="Q42" s="155"/>
+      <c r="R42" s="155"/>
+      <c r="S42" s="155"/>
+      <c r="T42" s="155"/>
+      <c r="U42" s="150"/>
     </row>
     <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="153" t="s">
+      <c r="A43" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154" t="s">
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154" t="s">
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154" t="s">
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="153"/>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
+      <c r="R43" s="153"/>
+      <c r="S43" s="153"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="153"/>
     </row>
     <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
+      <c r="A44" s="152"/>
       <c r="B44" s="49" t="s">
         <v>51</v>
       </c>
@@ -6909,86 +7704,86 @@
       <c r="U49" s="44"/>
     </row>
     <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="157"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
       <c r="F50" s="53">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="157" t="s">
+      <c r="G50" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
       <c r="K50" s="53">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="157" t="s">
+      <c r="L50" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="157"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
       <c r="P50" s="53">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="157" t="s">
+      <c r="Q50" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="157"/>
-      <c r="S50" s="157"/>
-      <c r="T50" s="157"/>
+      <c r="R50" s="156"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="156"/>
       <c r="U50" s="54">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="157" t="s">
+      <c r="A51" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="157"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
       <c r="F51" s="53">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="157" t="s">
+      <c r="G51" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
       <c r="K51" s="53">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="157" t="s">
+      <c r="L51" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
-      <c r="O51" s="157"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
       <c r="P51" s="53">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="157" t="s">
+      <c r="Q51" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="157"/>
-      <c r="S51" s="157"/>
-      <c r="T51" s="157"/>
+      <c r="R51" s="156"/>
+      <c r="S51" s="156"/>
+      <c r="T51" s="156"/>
       <c r="U51" s="54">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
@@ -7011,129 +7806,129 @@
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
-      <c r="Q52" s="157" t="s">
+      <c r="Q52" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="157"/>
-      <c r="S52" s="157"/>
-      <c r="T52" s="157"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
       <c r="U52" s="55">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="155" t="s">
+      <c r="A54" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="155"/>
-      <c r="C54" s="156" t="s">
+      <c r="B54" s="154"/>
+      <c r="C54" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="156"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="156"/>
-      <c r="R54" s="156"/>
-      <c r="S54" s="156"/>
-      <c r="T54" s="156"/>
-      <c r="U54" s="151" t="s">
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="155"/>
+      <c r="Q54" s="155"/>
+      <c r="R54" s="155"/>
+      <c r="S54" s="155"/>
+      <c r="T54" s="155"/>
+      <c r="U54" s="150" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="155"/>
-      <c r="B55" s="155"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="156"/>
-      <c r="R55" s="156"/>
-      <c r="S55" s="156"/>
-      <c r="T55" s="156"/>
-      <c r="U55" s="151"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="154"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="155"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="155"/>
+      <c r="S55" s="155"/>
+      <c r="T55" s="155"/>
+      <c r="U55" s="150"/>
     </row>
     <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="152"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="156"/>
-      <c r="R56" s="156"/>
-      <c r="S56" s="156"/>
-      <c r="T56" s="156"/>
-      <c r="U56" s="151"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155"/>
+      <c r="S56" s="155"/>
+      <c r="T56" s="155"/>
+      <c r="U56" s="150"/>
     </row>
     <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154" t="s">
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="154"/>
-      <c r="L57" s="154" t="s">
+      <c r="H57" s="153"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="153"/>
+      <c r="L57" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="154"/>
-      <c r="N57" s="154"/>
-      <c r="O57" s="154"/>
-      <c r="P57" s="154"/>
-      <c r="Q57" s="154" t="s">
+      <c r="M57" s="153"/>
+      <c r="N57" s="153"/>
+      <c r="O57" s="153"/>
+      <c r="P57" s="153"/>
+      <c r="Q57" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="R57" s="154"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="154"/>
-      <c r="U57" s="154"/>
+      <c r="R57" s="153"/>
+      <c r="S57" s="153"/>
+      <c r="T57" s="153"/>
+      <c r="U57" s="153"/>
     </row>
     <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="153"/>
+      <c r="A58" s="152"/>
       <c r="B58" s="49" t="s">
         <v>51</v>
       </c>
@@ -7288,86 +8083,86 @@
       <c r="U60" s="44"/>
     </row>
     <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
       <c r="F61" s="53">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="157" t="s">
+      <c r="G61" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
       <c r="K61" s="53">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="157" t="s">
+      <c r="L61" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
       <c r="P61" s="53">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="157" t="s">
+      <c r="Q61" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="R61" s="157"/>
-      <c r="S61" s="157"/>
-      <c r="T61" s="157"/>
+      <c r="R61" s="156"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="156"/>
       <c r="U61" s="54">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="157" t="s">
+      <c r="A62" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="157"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
       <c r="F62" s="53">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="157" t="s">
+      <c r="G62" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
       <c r="K62" s="53">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="157" t="s">
+      <c r="L62" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
       <c r="P62" s="53">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="157" t="s">
+      <c r="Q62" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="R62" s="157"/>
-      <c r="S62" s="157"/>
-      <c r="T62" s="157"/>
+      <c r="R62" s="156"/>
+      <c r="S62" s="156"/>
+      <c r="T62" s="156"/>
       <c r="U62" s="54">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
@@ -7390,12 +8185,12 @@
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="157" t="s">
+      <c r="Q63" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="R63" s="157"/>
-      <c r="S63" s="157"/>
-      <c r="T63" s="157"/>
+      <c r="R63" s="156"/>
+      <c r="S63" s="156"/>
+      <c r="T63" s="156"/>
       <c r="U63" s="55">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\school lilaami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\school lilaami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$122</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -50,7 +50,7 @@
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="135">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -484,18 +484,33 @@
   </si>
   <si>
     <t>-step</t>
+  </si>
+  <si>
+    <t>kmnfd] sfd -Rofgn PËn 6L cflb_ x6fpg] sfo{ lemSg]</t>
+  </si>
+  <si>
+    <t>Length (m)</t>
+  </si>
+  <si>
+    <t>Total Weight (kg)</t>
+  </si>
+  <si>
+    <t>Unit length (Kg/m)</t>
+  </si>
+  <si>
+    <t>-at truss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +674,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Preeti"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +751,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -914,20 +940,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,7 +964,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,7 +977,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,7 +993,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,7 +1002,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +1014,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,7 +1035,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,10 +1076,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,7 +1097,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1081,7 +1107,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1125,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1135,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,7 +1168,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,11 +1180,33 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,23 +1219,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,26 +1255,118 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1242,124 +1387,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2120,141 +2155,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="s">
         <v>97</v>
@@ -2304,7 +2339,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>1</v>
       </c>
@@ -2320,12 +2355,12 @@
       <c r="I10" s="33"/>
       <c r="J10" s="38"/>
       <c r="K10" s="31"/>
-      <c r="N10" s="158"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="85" t="s">
         <v>99</v>
@@ -2344,7 +2379,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="86" t="s">
         <v>100</v>
@@ -2376,7 +2411,7 @@
       <c r="P12" s="81"/>
       <c r="Q12" s="81"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="86"/>
       <c r="C13" s="29">
@@ -2406,7 +2441,7 @@
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="86"/>
       <c r="C14" s="29">
@@ -2436,7 +2471,7 @@
       <c r="P14" s="81"/>
       <c r="Q14" s="81"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="86" t="s">
         <v>101</v>
@@ -2468,7 +2503,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="86"/>
       <c r="C16" s="29">
@@ -2498,7 +2533,7 @@
       <c r="P16" s="81"/>
       <c r="Q16" s="81"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="86" t="s">
         <v>102</v>
@@ -2531,7 +2566,7 @@
       <c r="P17" s="81"/>
       <c r="Q17" s="81"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="86"/>
       <c r="C18" s="29">
@@ -2562,7 +2597,7 @@
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="86" t="s">
         <v>103</v>
@@ -2593,7 +2628,7 @@
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="86"/>
       <c r="C20" s="29"/>
@@ -2609,7 +2644,7 @@
       <c r="O20" s="81"/>
       <c r="P20" s="81"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="86" t="s">
         <v>104</v>
@@ -2641,7 +2676,7 @@
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="86"/>
       <c r="C22" s="29">
@@ -2671,7 +2706,7 @@
       <c r="P22" s="81"/>
       <c r="Q22" s="81"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="85" t="s">
         <v>105</v>
@@ -2690,7 +2725,7 @@
       <c r="P23" s="81"/>
       <c r="Q23" s="81"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="86" t="s">
         <v>100</v>
@@ -2722,7 +2757,7 @@
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="86"/>
       <c r="C25" s="29">
@@ -2752,7 +2787,7 @@
       <c r="P25" s="81"/>
       <c r="Q25" s="81"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="86"/>
       <c r="C26" s="29">
@@ -2781,7 +2816,7 @@
       <c r="O26" s="81"/>
       <c r="P26" s="81"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="86" t="s">
         <v>101</v>
@@ -2812,7 +2847,7 @@
       <c r="O27" s="81"/>
       <c r="P27" s="81"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="86"/>
       <c r="C28" s="29">
@@ -2841,7 +2876,7 @@
       <c r="O28" s="81"/>
       <c r="P28" s="81"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="86" t="s">
         <v>102</v>
@@ -2873,7 +2908,7 @@
       <c r="O29" s="81"/>
       <c r="P29" s="81"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="86"/>
       <c r="C30" s="29">
@@ -2903,7 +2938,7 @@
       <c r="O30" s="81"/>
       <c r="P30" s="81"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="86" t="s">
         <v>103</v>
@@ -2934,7 +2969,7 @@
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="86" t="s">
         <v>104</v>
@@ -2965,7 +3000,7 @@
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="82"/>
       <c r="C33" s="29">
@@ -2991,7 +3026,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="85" t="s">
         <v>108</v>
@@ -3010,7 +3045,7 @@
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="86" t="s">
         <v>100</v>
@@ -3041,7 +3076,7 @@
       <c r="P35" s="81"/>
       <c r="Q35" s="81"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="86"/>
       <c r="C36" s="87">
@@ -3070,7 +3105,7 @@
       <c r="P36" s="81"/>
       <c r="Q36" s="81"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="86"/>
       <c r="C37" s="87">
@@ -3098,7 +3133,7 @@
       <c r="O37" s="81"/>
       <c r="P37" s="81"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="86" t="s">
         <v>101</v>
@@ -3128,7 +3163,7 @@
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="86"/>
       <c r="C39" s="87">
@@ -3162,7 +3197,7 @@
       </c>
       <c r="P39" s="81"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="86" t="s">
         <v>109</v>
@@ -3195,7 +3230,7 @@
       </c>
       <c r="P40" s="81"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="86"/>
       <c r="C41" s="87">
@@ -3223,7 +3258,7 @@
       <c r="O41" s="81"/>
       <c r="P41" s="81"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="86" t="s">
         <v>102</v>
@@ -3255,7 +3290,7 @@
       <c r="O42" s="81"/>
       <c r="P42" s="81"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="86"/>
       <c r="C43" s="87">
@@ -3285,7 +3320,7 @@
       <c r="O43" s="81"/>
       <c r="P43" s="81"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="86" t="s">
         <v>103</v>
@@ -3314,7 +3349,7 @@
       <c r="O44" s="81"/>
       <c r="P44" s="81"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="86"/>
       <c r="C45" s="87">
@@ -3341,7 +3376,7 @@
       <c r="O45" s="81"/>
       <c r="P45" s="81"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="86" t="s">
         <v>104</v>
@@ -3375,7 +3410,7 @@
       <c r="O46" s="81"/>
       <c r="P46" s="81"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="82"/>
       <c r="C47" s="87">
@@ -3401,7 +3436,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="85" t="s">
         <v>111</v>
@@ -3416,7 +3451,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="86" t="s">
         <v>100</v>
@@ -3443,7 +3478,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="86" t="s">
         <v>101</v>
@@ -3471,7 +3506,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="86"/>
       <c r="C51" s="87">
@@ -3497,7 +3532,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="31"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="86" t="s">
         <v>112</v>
@@ -3524,7 +3559,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="31"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="86" t="s">
         <v>104</v>
@@ -3551,7 +3586,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="31"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="86" t="s">
         <v>103</v>
@@ -3579,7 +3614,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="31"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="86"/>
       <c r="C55" s="87">
@@ -3605,7 +3640,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="31"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="86" t="s">
         <v>123</v>
@@ -3620,7 +3655,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="31"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="86" t="s">
         <v>101</v>
@@ -3647,7 +3682,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="31"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="86"/>
       <c r="C58" s="87">
@@ -3673,7 +3708,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="31"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="86" t="s">
         <v>100</v>
@@ -3700,7 +3735,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="31"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="86" t="s">
         <v>104</v>
@@ -3728,7 +3763,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="31"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="86" t="s">
         <v>116</v>
@@ -3755,7 +3790,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="31"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="86" t="s">
         <v>104</v>
@@ -3781,7 +3816,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="31"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="85" t="s">
         <v>122</v>
@@ -3796,7 +3831,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="31"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="86" t="s">
         <v>126</v>
@@ -3823,7 +3858,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="31"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="86"/>
       <c r="C65" s="87">
@@ -3848,7 +3883,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="31"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="86"/>
       <c r="C66" s="87">
@@ -3873,7 +3908,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="86" t="s">
         <v>104</v>
@@ -3900,7 +3935,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="31"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="86" t="s">
         <v>103</v>
@@ -3926,7 +3961,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="31"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="86" t="s">
         <v>112</v>
@@ -3954,7 +3989,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="31"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="86" t="s">
         <v>129</v>
@@ -3981,7 +4016,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="31"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="86" t="s">
         <v>106</v>
@@ -3990,7 +4025,7 @@
       <c r="D71" s="30"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
-      <c r="G71" s="39">
+      <c r="G71" s="38">
         <f>SUM(G12:G70)</f>
         <v>46.720463339199377</v>
       </c>
@@ -4006,7 +4041,7 @@
       </c>
       <c r="K71" s="31"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="86"/>
       <c r="C72" s="29"/>
@@ -4019,7 +4054,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="31"/>
     </row>
-    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>2</v>
       </c>
@@ -4036,7 +4071,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="31"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="85" t="str">
         <f>B11</f>
@@ -4065,7 +4100,7 @@
       <c r="P74" s="81"/>
       <c r="Q74" s="81"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="85"/>
       <c r="C75" s="29">
@@ -4091,7 +4126,7 @@
       <c r="P75" s="81"/>
       <c r="Q75" s="81"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="86"/>
       <c r="C76" s="29">
@@ -4118,7 +4153,7 @@
       <c r="P76" s="81"/>
       <c r="Q76" s="81"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="86" t="s">
         <v>125</v>
@@ -4147,7 +4182,7 @@
       <c r="P77" s="81"/>
       <c r="Q77" s="81"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="85" t="str">
         <f>B23</f>
@@ -4176,7 +4211,7 @@
       <c r="P78" s="81"/>
       <c r="Q78" s="81"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="85"/>
       <c r="C79" s="29">
@@ -4202,7 +4237,7 @@
       <c r="P79" s="81"/>
       <c r="Q79" s="81"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="86"/>
       <c r="C80" s="29">
@@ -4229,7 +4264,7 @@
       <c r="P80" s="81"/>
       <c r="Q80" s="81"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="86" t="s">
         <v>125</v>
@@ -4258,7 +4293,7 @@
       <c r="P81" s="81"/>
       <c r="Q81" s="81"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="85" t="str">
         <f>B34</f>
@@ -4293,7 +4328,7 @@
       <c r="P82" s="81"/>
       <c r="Q82" s="81"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="85"/>
       <c r="C83" s="29">
@@ -4319,7 +4354,7 @@
       <c r="P83" s="81"/>
       <c r="Q83" s="81"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="85"/>
       <c r="C84" s="29">
@@ -4346,7 +4381,7 @@
       <c r="P84" s="81"/>
       <c r="Q84" s="81"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="86" t="s">
         <v>125</v>
@@ -4375,7 +4410,7 @@
       <c r="P85" s="81"/>
       <c r="Q85" s="81"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="85" t="s">
         <v>113</v>
@@ -4394,7 +4429,7 @@
       <c r="P86" s="81"/>
       <c r="Q86" s="81"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="86" t="s">
         <v>114</v>
@@ -4423,7 +4458,7 @@
       <c r="P87" s="81"/>
       <c r="Q87" s="81"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="28"/>
       <c r="B88" s="86" t="s">
         <v>125</v>
@@ -4452,7 +4487,7 @@
       <c r="P88" s="81"/>
       <c r="Q88" s="81"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" s="86" t="s">
         <v>106</v>
@@ -4461,7 +4496,7 @@
       <c r="D89" s="30"/>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
-      <c r="G89" s="39">
+      <c r="G89" s="38">
         <f>SUM(G74:G88)</f>
         <v>319.20323876973481</v>
       </c>
@@ -4477,7 +4512,7 @@
       </c>
       <c r="K89" s="31"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="B90" s="86"/>
       <c r="C90" s="29"/>
@@ -4490,7 +4525,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="31"/>
     </row>
-    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>3</v>
       </c>
@@ -4507,7 +4542,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="31"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="86" t="s">
         <v>113</v>
@@ -4544,7 +4579,7 @@
         <v>6.285026666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="86" t="s">
         <v>127</v>
@@ -4573,7 +4608,7 @@
       <c r="K93" s="4"/>
       <c r="M93" s="41"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="86" t="s">
         <v>128</v>
@@ -4602,7 +4637,7 @@
       <c r="K94" s="4"/>
       <c r="M94" s="41"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="86" t="s">
         <v>106</v>
@@ -4611,7 +4646,7 @@
       <c r="D95" s="30"/>
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
-      <c r="G95" s="39">
+      <c r="G95" s="38">
         <f>SUM(G92:G94)</f>
         <v>0.80747064744838981</v>
       </c>
@@ -4627,7 +4662,7 @@
       </c>
       <c r="K95" s="31"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="86"/>
       <c r="C96" s="29"/>
@@ -4640,528 +4675,631 @@
       <c r="J96" s="8"/>
       <c r="K96" s="31"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
         <v>4</v>
       </c>
-      <c r="B97" s="159" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="39"/>
+      <c r="B97" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="G97" s="162"/>
       <c r="H97" s="32"/>
       <c r="I97" s="33"/>
       <c r="J97" s="8"/>
       <c r="K97" s="31"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
-      <c r="B98" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="29">
-        <v>9</v>
-      </c>
-      <c r="D98" s="30">
-        <f>11/3.281</f>
-        <v>3.3526363913441024</v>
-      </c>
-      <c r="E98" s="31">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
-      </c>
-      <c r="F98" s="31">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G98" s="90">
-        <f t="shared" ref="G98:G104" si="13">PRODUCT(C98:F98)</f>
-        <v>0.11678989331722038</v>
-      </c>
+      <c r="B98" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="32"/>
       <c r="I98" s="33"/>
       <c r="J98" s="8"/>
       <c r="K98" s="31"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="9">
-        <v>2</v>
-      </c>
-      <c r="D99" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="E99" s="7">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
-      </c>
-      <c r="F99" s="7">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G99" s="90">
-        <f t="shared" si="13"/>
-        <v>2.4771726220528492E-2</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="90"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="4"/>
       <c r="M99" s="41"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" s="9">
-        <v>1</v>
-      </c>
-      <c r="D100" s="7">
-        <f>2*(5.75/3.281)+0.8</f>
-        <v>4.3050289545870157</v>
-      </c>
-      <c r="E100" s="7">
-        <f>2.25/12/3.281</f>
-        <v>5.7147211216092654E-2</v>
-      </c>
-      <c r="F100" s="7">
-        <f>2.5/12/3.281</f>
-        <v>6.3496901351214066E-2</v>
-      </c>
-      <c r="G100" s="90">
-        <f t="shared" si="13"/>
-        <v>1.56215330030973E-2</v>
-      </c>
+      <c r="B100" s="86"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="90"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="4"/>
       <c r="M100" s="41"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="86"/>
-      <c r="C101" s="9">
-        <v>2</v>
-      </c>
-      <c r="D101" s="7">
-        <f>2*(5.5/3.281)+2.5/3.281</f>
-        <v>4.1145992075586708</v>
-      </c>
-      <c r="E101" s="7">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
-      </c>
-      <c r="F101" s="7">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G101" s="90">
-        <f t="shared" si="13"/>
-        <v>3.1851789086514648E-2</v>
-      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="90"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="4"/>
       <c r="M101" s="41"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
-      <c r="B102" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="9">
-        <v>2</v>
-      </c>
-      <c r="D102" s="7">
-        <f>0.78+1.8*2</f>
-        <v>4.38</v>
-      </c>
-      <c r="E102" s="7">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
-      </c>
-      <c r="F102" s="7">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G102" s="90">
-        <f t="shared" si="13"/>
-        <v>3.390630026434837E-2</v>
-      </c>
+      <c r="B102" s="86"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="90"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="4"/>
       <c r="M102" s="41"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
-      <c r="B103" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="9">
+    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="160"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="31"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="28">
+        <v>5</v>
+      </c>
+      <c r="B104" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="31"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="29">
+        <v>9</v>
+      </c>
+      <c r="D105" s="30">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="E105" s="31">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F105" s="31">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G105" s="90">
+        <f t="shared" ref="G105:G111" si="13">PRODUCT(C105:F105)</f>
+        <v>0.11678989331722038</v>
+      </c>
+      <c r="H105" s="32"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="31"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="9">
         <v>2</v>
       </c>
-      <c r="D103" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="G103" s="90"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="4"/>
-      <c r="M103" s="41"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="9">
+      <c r="D106" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E106" s="7">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F106" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G106" s="90">
+        <f t="shared" si="13"/>
+        <v>2.4771726220528492E-2</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="4"/>
+      <c r="M106" s="41"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="9">
         <v>1</v>
       </c>
-      <c r="D104" s="7">
-        <f>0.78+2*(6/3.281)</f>
-        <v>4.4374215178299297</v>
-      </c>
-      <c r="E104" s="7">
-        <f>3.5/12/3.281</f>
-        <v>8.8895661891699687E-2</v>
-      </c>
-      <c r="F104" s="7">
+      <c r="D107" s="7">
+        <f>2*(5.75/3.281)+0.8</f>
+        <v>4.3050289545870157</v>
+      </c>
+      <c r="E107" s="7">
+        <f>2.25/12/3.281</f>
+        <v>5.7147211216092654E-2</v>
+      </c>
+      <c r="F107" s="7">
         <f>2.5/12/3.281</f>
         <v>6.3496901351214066E-2</v>
       </c>
-      <c r="G104" s="90">
+      <c r="G107" s="90">
         <f t="shared" si="13"/>
-        <v>2.504746538910662E-2</v>
-      </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="4"/>
-      <c r="M104" s="41"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="9">
-        <v>1</v>
-      </c>
-      <c r="D105" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="G105" s="90"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="4"/>
-      <c r="M105" s="41"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
-      <c r="B106" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="39">
-        <f>SUM(G98:G104)</f>
-        <v>0.24798870728081582</v>
-      </c>
-      <c r="H106" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I106" s="33"/>
-      <c r="J106" s="8">
-        <f>G106*I106</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="31"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="86"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="84"/>
+        <v>1.56215330030973E-2</v>
+      </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="4"/>
       <c r="M107" s="41"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
-      <c r="B108" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="84"/>
+      <c r="B108" s="86"/>
+      <c r="C108" s="9">
+        <v>2</v>
+      </c>
+      <c r="D108" s="7">
+        <f>2*(5.5/3.281)+2.5/3.281</f>
+        <v>4.1145992075586708</v>
+      </c>
+      <c r="E108" s="7">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F108" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G108" s="90">
+        <f t="shared" si="13"/>
+        <v>3.1851789086514648E-2</v>
+      </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="8">
+      <c r="J108" s="8"/>
+      <c r="K108" s="4"/>
+      <c r="M108" s="41"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="9">
+        <v>2</v>
+      </c>
+      <c r="D109" s="7">
+        <f>0.78+1.8*2</f>
+        <v>4.38</v>
+      </c>
+      <c r="E109" s="7">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F109" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G109" s="90">
+        <f t="shared" si="13"/>
+        <v>3.390630026434837E-2</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="4"/>
+      <c r="M109" s="41"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="9">
+        <v>2</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G110" s="90"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="4"/>
+      <c r="M110" s="41"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7">
+        <f>0.78+2*(6/3.281)</f>
+        <v>4.4374215178299297</v>
+      </c>
+      <c r="E111" s="7">
+        <f>3.5/12/3.281</f>
+        <v>8.8895661891699687E-2</v>
+      </c>
+      <c r="F111" s="7">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G111" s="90">
+        <f t="shared" si="13"/>
+        <v>2.504746538910662E-2</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="4"/>
+      <c r="M111" s="41"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G112" s="90"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="4"/>
+      <c r="M112" s="41"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="38">
+        <f>SUM(G105:G111)</f>
+        <v>0.24798870728081582</v>
+      </c>
+      <c r="H113" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="33"/>
+      <c r="J113" s="8">
+        <f>G113*I113</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="31"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="86"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="4"/>
+      <c r="M114" s="41"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="84"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8">
         <f>SUM(J10:J92)</f>
         <v>113426.32198961584</v>
       </c>
-      <c r="K108" s="4"/>
-      <c r="M108" s="41"/>
-      <c r="P108" s="48"/>
-      <c r="Q108" s="48"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="M109" s="41"/>
-      <c r="N109" s="42"/>
-      <c r="O109" s="42"/>
-      <c r="P109" s="47"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
-      <c r="T109" s="42"/>
-      <c r="U109" s="41"/>
-      <c r="V109" s="41"/>
-      <c r="W109" s="41"/>
-      <c r="X109" s="41"/>
-      <c r="Y109" s="41"/>
-      <c r="Z109" s="41"/>
-      <c r="AA109" s="41"/>
-      <c r="AB109" s="41"/>
-      <c r="AC109" s="41"/>
-      <c r="AD109" s="41"/>
-      <c r="AE109" s="41"/>
-    </row>
-    <row r="110" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="17" t="s">
+      <c r="K115" s="4"/>
+      <c r="M115" s="41"/>
+      <c r="P115" s="48"/>
+      <c r="Q115" s="48"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M116" s="41"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="47"/>
+      <c r="R116" s="42"/>
+      <c r="S116" s="42"/>
+      <c r="T116" s="42"/>
+      <c r="U116" s="41"/>
+      <c r="V116" s="41"/>
+      <c r="W116" s="41"/>
+      <c r="X116" s="41"/>
+      <c r="Y116" s="41"/>
+      <c r="Z116" s="41"/>
+      <c r="AA116" s="41"/>
+      <c r="AB116" s="41"/>
+      <c r="AC116" s="41"/>
+      <c r="AD116" s="41"/>
+      <c r="AE116" s="41"/>
+    </row>
+    <row r="117" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="98">
-        <f>J108</f>
+      <c r="C117" s="94">
+        <f>J115</f>
         <v>113426.32198961584</v>
       </c>
-      <c r="D110" s="99"/>
-      <c r="E110" s="15">
+      <c r="D117" s="95"/>
+      <c r="E117" s="15">
         <v>100</v>
       </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="23"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="42"/>
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
-      <c r="Q110" s="42"/>
-      <c r="R110" s="42"/>
-      <c r="S110" s="42"/>
-      <c r="T110" s="42"/>
-      <c r="U110" s="19"/>
-      <c r="V110" s="19"/>
-      <c r="W110" s="19"/>
-      <c r="X110" s="19"/>
-      <c r="Y110" s="19"/>
-      <c r="Z110" s="19"/>
-      <c r="AA110" s="19"/>
-      <c r="AB110" s="19"/>
-      <c r="AC110" s="19"/>
-      <c r="AD110" s="19"/>
-      <c r="AE110" s="19"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B111" s="17" t="s">
+      <c r="F117" s="19"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="23"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="42"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B118" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="101">
+      <c r="C118" s="98">
         <v>150000</v>
       </c>
-      <c r="D111" s="102"/>
-      <c r="E111" s="15"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
-      <c r="T111" s="42"/>
-      <c r="U111" s="41"/>
-      <c r="V111" s="41"/>
-      <c r="W111" s="41"/>
-      <c r="X111" s="41"/>
-      <c r="Y111" s="41"/>
-      <c r="Z111" s="41"/>
-      <c r="AA111" s="41"/>
-      <c r="AB111" s="41"/>
-      <c r="AC111" s="41"/>
-      <c r="AD111" s="41"/>
-      <c r="AE111" s="41"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B112" s="17" t="s">
+      <c r="D118" s="99"/>
+      <c r="E118" s="15"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="42"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="42"/>
+      <c r="U118" s="41"/>
+      <c r="V118" s="41"/>
+      <c r="W118" s="41"/>
+      <c r="X118" s="41"/>
+      <c r="Y118" s="41"/>
+      <c r="Z118" s="41"/>
+      <c r="AA118" s="41"/>
+      <c r="AB118" s="41"/>
+      <c r="AC118" s="41"/>
+      <c r="AD118" s="41"/>
+      <c r="AE118" s="41"/>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B119" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="101">
-        <f>C111-C114-C115</f>
+      <c r="C119" s="98">
+        <f>C118-C121-C122</f>
         <v>142500</v>
       </c>
-      <c r="D112" s="102"/>
-      <c r="E112" s="15">
-        <f>C112/C110*100</f>
+      <c r="D119" s="99"/>
+      <c r="E119" s="15">
+        <f>C119/C117*100</f>
         <v>125.63221437528922</v>
       </c>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="41"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
-      <c r="R112" s="41"/>
-      <c r="S112" s="41"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
-      <c r="V112" s="41"/>
-      <c r="W112" s="41"/>
-      <c r="X112" s="41"/>
-      <c r="Y112" s="41"/>
-      <c r="Z112" s="41"/>
-      <c r="AA112" s="41"/>
-      <c r="AB112" s="41"/>
-      <c r="AC112" s="41"/>
-      <c r="AD112" s="41"/>
-      <c r="AE112" s="41"/>
-    </row>
-    <row r="113" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B113" s="17" t="s">
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="41"/>
+      <c r="S119" s="41"/>
+      <c r="T119" s="41"/>
+      <c r="U119" s="41"/>
+      <c r="V119" s="41"/>
+      <c r="W119" s="41"/>
+      <c r="X119" s="41"/>
+      <c r="Y119" s="41"/>
+      <c r="Z119" s="41"/>
+      <c r="AA119" s="41"/>
+      <c r="AB119" s="41"/>
+      <c r="AC119" s="41"/>
+      <c r="AD119" s="41"/>
+      <c r="AE119" s="41"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B120" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="103">
-        <f>C110-C112</f>
+      <c r="C120" s="100">
+        <f>C117-C119</f>
         <v>-29073.678010384159</v>
       </c>
-      <c r="D113" s="103"/>
-      <c r="E113" s="15">
-        <f>100-E112</f>
+      <c r="D120" s="100"/>
+      <c r="E120" s="15">
+        <f>100-E119</f>
         <v>-25.632214375289223</v>
       </c>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="41"/>
-      <c r="S113" s="41"/>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
-      <c r="V113" s="41"/>
-      <c r="W113" s="41"/>
-      <c r="X113" s="41"/>
-      <c r="Y113" s="41"/>
-      <c r="Z113" s="41"/>
-      <c r="AA113" s="41"/>
-      <c r="AB113" s="41"/>
-      <c r="AC113" s="41"/>
-      <c r="AD113" s="41"/>
-      <c r="AE113" s="41"/>
-    </row>
-    <row r="114" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B114" s="17" t="s">
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="41"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="41"/>
+      <c r="S120" s="41"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="41"/>
+      <c r="X120" s="41"/>
+      <c r="Y120" s="41"/>
+      <c r="Z120" s="41"/>
+      <c r="AA120" s="41"/>
+      <c r="AB120" s="41"/>
+      <c r="AC120" s="41"/>
+      <c r="AD120" s="41"/>
+      <c r="AE120" s="41"/>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B121" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="98">
-        <f>C111*0.03</f>
+      <c r="C121" s="94">
+        <f>C118*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D114" s="99"/>
-      <c r="E114" s="15">
+      <c r="D121" s="95"/>
+      <c r="E121" s="15">
         <v>3</v>
       </c>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="41"/>
-      <c r="S114" s="41"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
-      <c r="V114" s="41"/>
-      <c r="W114" s="41"/>
-      <c r="X114" s="41"/>
-      <c r="Y114" s="41"/>
-      <c r="Z114" s="41"/>
-      <c r="AA114" s="41"/>
-      <c r="AB114" s="41"/>
-      <c r="AC114" s="41"/>
-      <c r="AD114" s="41"/>
-      <c r="AE114" s="41"/>
-    </row>
-    <row r="115" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B115" s="17" t="s">
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="41"/>
+      <c r="S121" s="41"/>
+      <c r="T121" s="41"/>
+      <c r="U121" s="41"/>
+      <c r="V121" s="41"/>
+      <c r="W121" s="41"/>
+      <c r="X121" s="41"/>
+      <c r="Y121" s="41"/>
+      <c r="Z121" s="41"/>
+      <c r="AA121" s="41"/>
+      <c r="AB121" s="41"/>
+      <c r="AC121" s="41"/>
+      <c r="AD121" s="41"/>
+      <c r="AE121" s="41"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B122" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="98">
-        <f>C111*0.02</f>
+      <c r="C122" s="94">
+        <f>C118*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D115" s="99"/>
-      <c r="E115" s="15">
+      <c r="D122" s="95"/>
+      <c r="E122" s="15">
         <v>2</v>
       </c>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
-      <c r="O115" s="41"/>
-      <c r="P115" s="41"/>
-      <c r="Q115" s="41"/>
-      <c r="R115" s="41"/>
-      <c r="S115" s="41"/>
-      <c r="T115" s="41"/>
-      <c r="U115" s="41"/>
-      <c r="V115" s="41"/>
-      <c r="W115" s="41"/>
-      <c r="X115" s="41"/>
-      <c r="Y115" s="41"/>
-      <c r="Z115" s="41"/>
-      <c r="AA115" s="41"/>
-      <c r="AB115" s="41"/>
-      <c r="AC115" s="41"/>
-      <c r="AD115" s="41"/>
-      <c r="AE115" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="41"/>
+      <c r="T122" s="41"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="41"/>
+      <c r="W122" s="41"/>
+      <c r="X122" s="41"/>
+      <c r="Y122" s="41"/>
+      <c r="Z122" s="41"/>
+      <c r="AA122" s="41"/>
+      <c r="AB122" s="41"/>
+      <c r="AC122" s="41"/>
+      <c r="AD122" s="41"/>
+      <c r="AE122" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -5169,6 +5307,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5191,106 +5337,106 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="107" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="108" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="104" t="e">
+      <c r="C6" s="113" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="105"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5298,90 +5444,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="104" t="e">
+      <c r="J6" s="113" t="e">
         <f>I30</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="105"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="114"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="I7" s="113" t="s">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="I7" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="111" t="e">
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="I8" s="114" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="I8" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="e">
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="I9" s="114" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="I9" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="109" t="s">
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="109" t="s">
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="110" t="s">
+      <c r="K11" s="107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -5400,10 +5546,10 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5450,7 +5596,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="43" t="e">
         <f>new!#REF!</f>
@@ -5479,7 +5625,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="40"/>
       <c r="C15" s="15"/>
@@ -5492,7 +5638,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5535,7 +5681,7 @@
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="43" t="e">
         <f>new!#REF!</f>
@@ -5560,7 +5706,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="40"/>
       <c r="C18" s="15"/>
@@ -5577,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5620,7 +5766,7 @@
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="43" t="e">
         <f>new!#REF!</f>
@@ -5645,7 +5791,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="40"/>
       <c r="C21" s="15"/>
@@ -5662,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5705,7 +5851,7 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="43" t="e">
         <f>new!#REF!</f>
@@ -5730,7 +5876,7 @@
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="40"/>
       <c r="C24" s="15"/>
@@ -5747,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5790,7 +5936,7 @@
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="e">
         <f>new!#REF!</f>
@@ -5815,7 +5961,7 @@
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="40"/>
       <c r="C27" s="15"/>
@@ -5832,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>new!A10</f>
         <v>1</v>
@@ -5875,7 +6021,7 @@
       </c>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="15"/>
@@ -5888,7 +6034,7 @@
       <c r="J29" s="36"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -5914,6 +6060,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5927,13 +6080,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5958,120 +6104,120 @@
       <selection activeCell="A54" sqref="A54:U63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="117" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="118" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="156" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="118"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="156"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="118"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="156"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121" t="s">
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121" t="s">
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="158"/>
       <c r="B5" s="56" t="s">
         <v>51</v>
       </c>
@@ -6133,7 +6279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>52</v>
       </c>
@@ -6180,7 +6326,7 @@
       <c r="T6" s="61"/>
       <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="56" t="s">
         <v>57</v>
@@ -6214,93 +6360,93 @@
       <c r="T7" s="61"/>
       <c r="U7" s="63"/>
     </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="60">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="60">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
       <c r="P8" s="60">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="122" t="s">
+      <c r="Q8" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
       <c r="U8" s="64">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="s">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="60">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
       <c r="K9" s="60">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
       <c r="P9" s="60">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="122" t="s">
+      <c r="Q9" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
       <c r="U9" s="64">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -6317,152 +6463,152 @@
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="122" t="s">
+      <c r="Q10" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
       <c r="U10" s="65">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="127" t="s">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="132"/>
+      <c r="C12" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="140" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="144" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="129"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="141"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="143" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="145"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="142"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
+      <c r="B14" s="148"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="146"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="147" t="s">
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="147" t="s">
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="147" t="s">
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="149"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="146"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="153"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="150"/>
       <c r="B16" s="66" t="s">
         <v>51</v>
       </c>
@@ -6524,7 +6670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>69</v>
       </c>
@@ -6571,7 +6717,7 @@
       <c r="T17" s="72"/>
       <c r="U17" s="73"/>
     </row>
-    <row r="18" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="66" t="s">
         <v>57</v>
@@ -6607,93 +6753,93 @@
       <c r="T18" s="72"/>
       <c r="U18" s="73"/>
     </row>
-    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="123" t="s">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
       <c r="F19" s="70">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
       <c r="K19" s="70">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L19" s="123" t="s">
+      <c r="L19" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="125"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="128"/>
       <c r="P19" s="70">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="123" t="s">
+      <c r="Q19" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="125"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="128"/>
       <c r="U19" s="74">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="123" t="s">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="70">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
       <c r="K20" s="70">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="128"/>
       <c r="P20" s="70">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
-      <c r="Q20" s="123" t="s">
+      <c r="Q20" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="125"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="128"/>
       <c r="U20" s="74">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -6710,18 +6856,18 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
-      <c r="Q21" s="123" t="s">
+      <c r="Q21" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="125"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="128"/>
       <c r="U21" s="76">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -6744,118 +6890,118 @@
       <c r="T22" s="79"/>
       <c r="U22" s="76"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="154" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155" t="s">
+      <c r="B24" s="123"/>
+      <c r="C24" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="150" t="s">
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="119" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="150"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="151" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="119"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="150"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="152" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="119"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153" t="s">
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="121"/>
       <c r="B28" s="49" t="s">
         <v>51</v>
       </c>
@@ -6917,7 +7063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>73</v>
       </c>
@@ -6980,7 +7126,7 @@
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="49" t="s">
         <v>57</v>
@@ -7036,7 +7182,7 @@
       <c r="T30" s="45"/>
       <c r="U30" s="44"/>
     </row>
-    <row r="31" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -7070,7 +7216,7 @@
       <c r="T31" s="45"/>
       <c r="U31" s="44"/>
     </row>
-    <row r="32" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -7104,7 +7250,7 @@
       <c r="T32" s="45"/>
       <c r="U32" s="44"/>
     </row>
-    <row r="33" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -7138,7 +7284,7 @@
       <c r="T33" s="45"/>
       <c r="U33" s="44"/>
     </row>
-    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -7172,93 +7318,93 @@
       <c r="T34" s="45"/>
       <c r="U34" s="44"/>
     </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="156" t="s">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="53">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="156" t="s">
+      <c r="G35" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
       <c r="K35" s="53">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="156" t="s">
+      <c r="L35" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
       <c r="P35" s="53">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="156" t="s">
+      <c r="Q35" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="156"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="156"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
       <c r="U35" s="54">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="156" t="s">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="53">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="156" t="s">
+      <c r="G36" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
       <c r="K36" s="53">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="156" t="s">
+      <c r="L36" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
       <c r="P36" s="53">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="156" t="s">
+      <c r="Q36" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="R36" s="156"/>
-      <c r="S36" s="156"/>
-      <c r="T36" s="156"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
       <c r="U36" s="54">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -7275,152 +7421,152 @@
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
-      <c r="Q37" s="156" t="s">
+      <c r="Q37" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="156"/>
-      <c r="S37" s="156"/>
-      <c r="T37" s="156"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
       <c r="U37" s="55">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="157"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="157"/>
-      <c r="S38" s="157"/>
-      <c r="T38" s="157"/>
-      <c r="U38" s="157"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="154" t="s">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="125"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="125"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="155" t="s">
+      <c r="B40" s="123"/>
+      <c r="C40" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="155"/>
-      <c r="Q40" s="155"/>
-      <c r="R40" s="155"/>
-      <c r="S40" s="155"/>
-      <c r="T40" s="155"/>
-      <c r="U40" s="150" t="s">
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="124"/>
+      <c r="P40" s="124"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="119" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="154"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
-      <c r="P41" s="155"/>
-      <c r="Q41" s="155"/>
-      <c r="R41" s="155"/>
-      <c r="S41" s="155"/>
-      <c r="T41" s="155"/>
-      <c r="U41" s="150"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="151" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="124"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="124"/>
+      <c r="U41" s="119"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="155"/>
-      <c r="P42" s="155"/>
-      <c r="Q42" s="155"/>
-      <c r="R42" s="155"/>
-      <c r="S42" s="155"/>
-      <c r="T42" s="155"/>
-      <c r="U42" s="150"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="152" t="s">
+      <c r="B42" s="120"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="124"/>
+      <c r="P42" s="124"/>
+      <c r="Q42" s="124"/>
+      <c r="R42" s="124"/>
+      <c r="S42" s="124"/>
+      <c r="T42" s="124"/>
+      <c r="U42" s="119"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153" t="s">
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153" t="s">
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="153"/>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="153" t="s">
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="153"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="121"/>
       <c r="B44" s="49" t="s">
         <v>51</v>
       </c>
@@ -7482,7 +7628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>83</v>
       </c>
@@ -7545,7 +7691,7 @@
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="49" t="s">
         <v>57</v>
@@ -7601,7 +7747,7 @@
       <c r="T46" s="45"/>
       <c r="U46" s="44"/>
     </row>
-    <row r="47" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -7635,7 +7781,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="44"/>
     </row>
-    <row r="48" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -7669,7 +7815,7 @@
       <c r="T48" s="45"/>
       <c r="U48" s="44"/>
     </row>
-    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -7703,93 +7849,93 @@
       <c r="T49" s="45"/>
       <c r="U49" s="44"/>
     </row>
-    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="156" t="s">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="53">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="156" t="s">
+      <c r="G50" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
       <c r="K50" s="53">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="156" t="s">
+      <c r="L50" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
+      <c r="M50" s="118"/>
+      <c r="N50" s="118"/>
+      <c r="O50" s="118"/>
       <c r="P50" s="53">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="156" t="s">
+      <c r="Q50" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="156"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="156"/>
+      <c r="R50" s="118"/>
+      <c r="S50" s="118"/>
+      <c r="T50" s="118"/>
       <c r="U50" s="54">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="156" t="s">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="156"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="53">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="156" t="s">
+      <c r="G51" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
       <c r="K51" s="53">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="156" t="s">
+      <c r="L51" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
+      <c r="M51" s="118"/>
+      <c r="N51" s="118"/>
+      <c r="O51" s="118"/>
       <c r="P51" s="53">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="156" t="s">
+      <c r="Q51" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="156"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="156"/>
+      <c r="R51" s="118"/>
+      <c r="S51" s="118"/>
+      <c r="T51" s="118"/>
       <c r="U51" s="54">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -7806,129 +7952,129 @@
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
-      <c r="Q52" s="156" t="s">
+      <c r="Q52" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="156"/>
-      <c r="S52" s="156"/>
-      <c r="T52" s="156"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
       <c r="U52" s="55">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="154" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="154"/>
-      <c r="C54" s="155" t="s">
+      <c r="B54" s="123"/>
+      <c r="C54" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="155"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="155"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
-      <c r="N54" s="155"/>
-      <c r="O54" s="155"/>
-      <c r="P54" s="155"/>
-      <c r="Q54" s="155"/>
-      <c r="R54" s="155"/>
-      <c r="S54" s="155"/>
-      <c r="T54" s="155"/>
-      <c r="U54" s="150" t="s">
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="124"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="124"/>
+      <c r="P54" s="124"/>
+      <c r="Q54" s="124"/>
+      <c r="R54" s="124"/>
+      <c r="S54" s="124"/>
+      <c r="T54" s="124"/>
+      <c r="U54" s="119" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="154"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="155"/>
-      <c r="H55" s="155"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="155"/>
-      <c r="L55" s="155"/>
-      <c r="M55" s="155"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="155"/>
-      <c r="Q55" s="155"/>
-      <c r="R55" s="155"/>
-      <c r="S55" s="155"/>
-      <c r="T55" s="155"/>
-      <c r="U55" s="150"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="151" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="123"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="124"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="124"/>
+      <c r="U55" s="119"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="151"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155"/>
-      <c r="S56" s="155"/>
-      <c r="T56" s="155"/>
-      <c r="U56" s="150"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="152" t="s">
+      <c r="B56" s="120"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="124"/>
+      <c r="T56" s="124"/>
+      <c r="U56" s="119"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153" t="s">
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153" t="s">
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="153"/>
-      <c r="N57" s="153"/>
-      <c r="O57" s="153"/>
-      <c r="P57" s="153"/>
-      <c r="Q57" s="153" t="s">
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="R57" s="153"/>
-      <c r="S57" s="153"/>
-      <c r="T57" s="153"/>
-      <c r="U57" s="153"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="152"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="122"/>
+      <c r="T57" s="122"/>
+      <c r="U57" s="122"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="121"/>
       <c r="B58" s="49" t="s">
         <v>51</v>
       </c>
@@ -7990,7 +8136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
         <v>87</v>
       </c>
@@ -8037,7 +8183,7 @@
       <c r="T59" s="45"/>
       <c r="U59" s="44"/>
     </row>
-    <row r="60" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="49" t="s">
         <v>57</v>
@@ -8082,93 +8228,93 @@
       <c r="T60" s="45"/>
       <c r="U60" s="44"/>
     </row>
-    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="156" t="s">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="53">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="156" t="s">
+      <c r="G61" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
       <c r="K61" s="53">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="156" t="s">
+      <c r="L61" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
+      <c r="M61" s="118"/>
+      <c r="N61" s="118"/>
+      <c r="O61" s="118"/>
       <c r="P61" s="53">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="156" t="s">
+      <c r="Q61" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="R61" s="156"/>
-      <c r="S61" s="156"/>
-      <c r="T61" s="156"/>
+      <c r="R61" s="118"/>
+      <c r="S61" s="118"/>
+      <c r="T61" s="118"/>
       <c r="U61" s="54">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="156" t="s">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
       <c r="F62" s="53">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="156" t="s">
+      <c r="G62" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
       <c r="K62" s="53">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="156" t="s">
+      <c r="L62" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
+      <c r="M62" s="118"/>
+      <c r="N62" s="118"/>
+      <c r="O62" s="118"/>
       <c r="P62" s="53">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="156" t="s">
+      <c r="Q62" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="R62" s="156"/>
-      <c r="S62" s="156"/>
-      <c r="T62" s="156"/>
+      <c r="R62" s="118"/>
+      <c r="S62" s="118"/>
+      <c r="T62" s="118"/>
       <c r="U62" s="54">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -8185,12 +8331,12 @@
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="156" t="s">
+      <c r="Q63" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="R63" s="156"/>
-      <c r="S63" s="156"/>
-      <c r="T63" s="156"/>
+      <c r="R63" s="118"/>
+      <c r="S63" s="118"/>
+      <c r="T63" s="118"/>
       <c r="U63" s="55">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
@@ -8198,29 +8344,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:T56"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:T26"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="Q36:T36"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="L50:O50"/>
@@ -8236,60 +8413,29 @@
     <mergeCell ref="G43:K43"/>
     <mergeCell ref="L43:P43"/>
     <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:T26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:T14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:T56"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="Q62:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:U63">
     <cfRule type="containsBlanks" dxfId="4" priority="1">

--- a/ofc/school lilaami/School lilaam.xlsx
+++ b/ofc/school lilaami/School lilaam.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\school lilaami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\school lilaami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$169</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -50,7 +50,7 @@
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="163">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -499,16 +499,100 @@
   </si>
   <si>
     <t>-at truss</t>
+  </si>
+  <si>
+    <t>MS steel pipe 1" diagnal member of 2.5mm thickness</t>
+  </si>
+  <si>
+    <t>MS steel pipe 3/4" diagnal member of 2.5mm thickness</t>
+  </si>
+  <si>
+    <t>MS steel pipe 1 1/4" inclined member of 2.5mm thickness</t>
+  </si>
+  <si>
+    <t>MS steel pipe 1 1/4" bottom member of 2.5mm thickness</t>
+  </si>
+  <si>
+    <t>MS steel pipe 1" bottom member of 2.5mm thickness</t>
+  </si>
+  <si>
+    <t>-Purlins</t>
+  </si>
+  <si>
+    <t>-At long window</t>
+  </si>
+  <si>
+    <t>-horizontal bar as grill</t>
+  </si>
+  <si>
+    <t>-vertical bars as grill</t>
+  </si>
+  <si>
+    <t>-At small window</t>
+  </si>
+  <si>
+    <t>-Ventilation part</t>
+  </si>
+  <si>
+    <t>-35*35*4mm Equal angles at windows</t>
+  </si>
+  <si>
+    <t>-horizontal element</t>
+  </si>
+  <si>
+    <t>-vertical element</t>
+  </si>
+  <si>
+    <t>-35*35*4mm Equal angles at doors</t>
+  </si>
+  <si>
+    <t>-35*35*4mm Equal angles at ventilations</t>
+  </si>
+  <si>
+    <t>-55*55*6mm equal angle at Long wall lintel level</t>
+  </si>
+  <si>
+    <t>-Block 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>-rebars at windows</t>
+  </si>
+  <si>
+    <t>-diagnol members as grill</t>
+  </si>
+  <si>
+    <t>-vertical members as grill</t>
+  </si>
+  <si>
+    <t>-Light Channel section of size 150*50*4 as vertical post</t>
+  </si>
+  <si>
+    <t>assume 2.5ft below GL</t>
+  </si>
+  <si>
+    <t>-For truss at block 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>-Light Channel section of size ISMC 75 as top chord</t>
+  </si>
+  <si>
+    <t>-Light Channel section of size 40*32*5 as purlins</t>
+  </si>
+  <si>
+    <t>-Light Channel section of size ISMC 75 as purlins</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -940,20 +1024,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,7 +1048,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -977,7 +1061,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -993,7 +1077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,7 +1086,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1098,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,7 +1119,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,10 +1160,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,7 +1181,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1107,7 +1191,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,7 +1209,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,7 +1219,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,7 +1252,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,12 +1264,36 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,15 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2155,141 +2254,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE122"/>
+  <dimension ref="A1:AE169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="97" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="s">
         <v>97</v>
@@ -2339,7 +2438,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>1</v>
       </c>
@@ -2360,7 +2459,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="85" t="s">
         <v>99</v>
@@ -2379,7 +2478,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="86" t="s">
         <v>100</v>
@@ -2411,7 +2510,7 @@
       <c r="P12" s="81"/>
       <c r="Q12" s="81"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="86"/>
       <c r="C13" s="29">
@@ -2441,7 +2540,7 @@
       <c r="P13" s="81"/>
       <c r="Q13" s="81"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="86"/>
       <c r="C14" s="29">
@@ -2471,7 +2570,7 @@
       <c r="P14" s="81"/>
       <c r="Q14" s="81"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="86" t="s">
         <v>101</v>
@@ -2503,7 +2602,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="86"/>
       <c r="C16" s="29">
@@ -2533,7 +2632,7 @@
       <c r="P16" s="81"/>
       <c r="Q16" s="81"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="86" t="s">
         <v>102</v>
@@ -2566,7 +2665,7 @@
       <c r="P17" s="81"/>
       <c r="Q17" s="81"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="86"/>
       <c r="C18" s="29">
@@ -2597,7 +2696,7 @@
       <c r="P18" s="81"/>
       <c r="Q18" s="81"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="86" t="s">
         <v>103</v>
@@ -2628,7 +2727,7 @@
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="86"/>
       <c r="C20" s="29"/>
@@ -2644,7 +2743,7 @@
       <c r="O20" s="81"/>
       <c r="P20" s="81"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="86" t="s">
         <v>104</v>
@@ -2676,7 +2775,7 @@
       <c r="P21" s="81"/>
       <c r="Q21" s="81"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="86"/>
       <c r="C22" s="29">
@@ -2706,7 +2805,7 @@
       <c r="P22" s="81"/>
       <c r="Q22" s="81"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="85" t="s">
         <v>105</v>
@@ -2725,7 +2824,7 @@
       <c r="P23" s="81"/>
       <c r="Q23" s="81"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="86" t="s">
         <v>100</v>
@@ -2757,7 +2856,7 @@
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="86"/>
       <c r="C25" s="29">
@@ -2787,7 +2886,7 @@
       <c r="P25" s="81"/>
       <c r="Q25" s="81"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="86"/>
       <c r="C26" s="29">
@@ -2816,7 +2915,7 @@
       <c r="O26" s="81"/>
       <c r="P26" s="81"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="86" t="s">
         <v>101</v>
@@ -2847,7 +2946,7 @@
       <c r="O27" s="81"/>
       <c r="P27" s="81"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="86"/>
       <c r="C28" s="29">
@@ -2876,7 +2975,7 @@
       <c r="O28" s="81"/>
       <c r="P28" s="81"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="86" t="s">
         <v>102</v>
@@ -2908,7 +3007,7 @@
       <c r="O29" s="81"/>
       <c r="P29" s="81"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="86"/>
       <c r="C30" s="29">
@@ -2938,7 +3037,7 @@
       <c r="O30" s="81"/>
       <c r="P30" s="81"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="86" t="s">
         <v>103</v>
@@ -2969,7 +3068,7 @@
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="86" t="s">
         <v>104</v>
@@ -3000,7 +3099,7 @@
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="82"/>
       <c r="C33" s="29">
@@ -3026,7 +3125,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="85" t="s">
         <v>108</v>
@@ -3045,7 +3144,7 @@
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="86" t="s">
         <v>100</v>
@@ -3076,7 +3175,7 @@
       <c r="P35" s="81"/>
       <c r="Q35" s="81"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="86"/>
       <c r="C36" s="87">
@@ -3105,7 +3204,7 @@
       <c r="P36" s="81"/>
       <c r="Q36" s="81"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="86"/>
       <c r="C37" s="87">
@@ -3133,7 +3232,7 @@
       <c r="O37" s="81"/>
       <c r="P37" s="81"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="86" t="s">
         <v>101</v>
@@ -3163,7 +3262,7 @@
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="86"/>
       <c r="C39" s="87">
@@ -3197,7 +3296,7 @@
       </c>
       <c r="P39" s="81"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="86" t="s">
         <v>109</v>
@@ -3230,7 +3329,7 @@
       </c>
       <c r="P40" s="81"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="86"/>
       <c r="C41" s="87">
@@ -3258,7 +3357,7 @@
       <c r="O41" s="81"/>
       <c r="P41" s="81"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="86" t="s">
         <v>102</v>
@@ -3290,7 +3389,7 @@
       <c r="O42" s="81"/>
       <c r="P42" s="81"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="86"/>
       <c r="C43" s="87">
@@ -3320,7 +3419,7 @@
       <c r="O43" s="81"/>
       <c r="P43" s="81"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="86" t="s">
         <v>103</v>
@@ -3349,7 +3448,7 @@
       <c r="O44" s="81"/>
       <c r="P44" s="81"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="86"/>
       <c r="C45" s="87">
@@ -3376,7 +3475,7 @@
       <c r="O45" s="81"/>
       <c r="P45" s="81"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="86" t="s">
         <v>104</v>
@@ -3410,7 +3509,7 @@
       <c r="O46" s="81"/>
       <c r="P46" s="81"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="82"/>
       <c r="C47" s="87">
@@ -3436,7 +3535,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="85" t="s">
         <v>111</v>
@@ -3451,7 +3550,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="86" t="s">
         <v>100</v>
@@ -3478,7 +3577,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="86" t="s">
         <v>101</v>
@@ -3506,7 +3605,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" s="86"/>
       <c r="C51" s="87">
@@ -3532,7 +3631,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="31"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" s="86" t="s">
         <v>112</v>
@@ -3559,7 +3658,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="31"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" s="86" t="s">
         <v>104</v>
@@ -3586,7 +3685,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="31"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" s="86" t="s">
         <v>103</v>
@@ -3614,7 +3713,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="31"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="86"/>
       <c r="C55" s="87">
@@ -3640,7 +3739,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="31"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="86" t="s">
         <v>123</v>
@@ -3655,7 +3754,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="31"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="86" t="s">
         <v>101</v>
@@ -3682,7 +3781,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="31"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="86"/>
       <c r="C58" s="87">
@@ -3708,7 +3807,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="31"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="86" t="s">
         <v>100</v>
@@ -3735,7 +3834,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="31"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="86" t="s">
         <v>104</v>
@@ -3763,7 +3862,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="31"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="86" t="s">
         <v>116</v>
@@ -3790,7 +3889,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="31"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="86" t="s">
         <v>104</v>
@@ -3816,7 +3915,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="31"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="85" t="s">
         <v>122</v>
@@ -3831,7 +3930,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="31"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="86" t="s">
         <v>126</v>
@@ -3858,7 +3957,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="31"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="86"/>
       <c r="C65" s="87">
@@ -3883,7 +3982,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="31"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" s="86"/>
       <c r="C66" s="87">
@@ -3908,7 +4007,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="86" t="s">
         <v>104</v>
@@ -3935,7 +4034,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="31"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="86" t="s">
         <v>103</v>
@@ -3961,7 +4060,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="31"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="86" t="s">
         <v>112</v>
@@ -3989,7 +4088,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="31"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="86" t="s">
         <v>129</v>
@@ -4016,7 +4115,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="31"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="86" t="s">
         <v>106</v>
@@ -4041,7 +4140,7 @@
       </c>
       <c r="K71" s="31"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="86"/>
       <c r="C72" s="29"/>
@@ -4054,7 +4153,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="31"/>
     </row>
-    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
         <v>2</v>
       </c>
@@ -4071,7 +4170,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="31"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="85" t="str">
         <f>B11</f>
@@ -4100,7 +4199,7 @@
       <c r="P74" s="81"/>
       <c r="Q74" s="81"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="85"/>
       <c r="C75" s="29">
@@ -4126,7 +4225,7 @@
       <c r="P75" s="81"/>
       <c r="Q75" s="81"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="86"/>
       <c r="C76" s="29">
@@ -4153,7 +4252,7 @@
       <c r="P76" s="81"/>
       <c r="Q76" s="81"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="86" t="s">
         <v>125</v>
@@ -4182,7 +4281,7 @@
       <c r="P77" s="81"/>
       <c r="Q77" s="81"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="85" t="str">
         <f>B23</f>
@@ -4211,7 +4310,7 @@
       <c r="P78" s="81"/>
       <c r="Q78" s="81"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="85"/>
       <c r="C79" s="29">
@@ -4237,7 +4336,7 @@
       <c r="P79" s="81"/>
       <c r="Q79" s="81"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="86"/>
       <c r="C80" s="29">
@@ -4264,7 +4363,7 @@
       <c r="P80" s="81"/>
       <c r="Q80" s="81"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="86" t="s">
         <v>125</v>
@@ -4293,7 +4392,7 @@
       <c r="P81" s="81"/>
       <c r="Q81" s="81"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" s="85" t="str">
         <f>B34</f>
@@ -4328,7 +4427,7 @@
       <c r="P82" s="81"/>
       <c r="Q82" s="81"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="85"/>
       <c r="C83" s="29">
@@ -4354,7 +4453,7 @@
       <c r="P83" s="81"/>
       <c r="Q83" s="81"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="85"/>
       <c r="C84" s="29">
@@ -4381,7 +4480,7 @@
       <c r="P84" s="81"/>
       <c r="Q84" s="81"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="86" t="s">
         <v>125</v>
@@ -4410,7 +4509,7 @@
       <c r="P85" s="81"/>
       <c r="Q85" s="81"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="85" t="s">
         <v>113</v>
@@ -4429,7 +4528,7 @@
       <c r="P86" s="81"/>
       <c r="Q86" s="81"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="86" t="s">
         <v>114</v>
@@ -4458,7 +4557,7 @@
       <c r="P87" s="81"/>
       <c r="Q87" s="81"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="28"/>
       <c r="B88" s="86" t="s">
         <v>125</v>
@@ -4487,7 +4586,7 @@
       <c r="P88" s="81"/>
       <c r="Q88" s="81"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="86" t="s">
         <v>106</v>
@@ -4512,7 +4611,7 @@
       </c>
       <c r="K89" s="31"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="28"/>
       <c r="B90" s="86"/>
       <c r="C90" s="29"/>
@@ -4525,7 +4624,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="31"/>
     </row>
-    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.3">
       <c r="A91" s="28">
         <v>3</v>
       </c>
@@ -4542,7 +4641,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="31"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="86" t="s">
         <v>113</v>
@@ -4579,7 +4678,7 @@
         <v>6.285026666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="86" t="s">
         <v>127</v>
@@ -4608,7 +4707,7 @@
       <c r="K93" s="4"/>
       <c r="M93" s="41"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="86" t="s">
         <v>128</v>
@@ -4637,7 +4736,7 @@
       <c r="K94" s="4"/>
       <c r="M94" s="41"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
       <c r="B95" s="86" t="s">
         <v>106</v>
@@ -4662,7 +4761,7 @@
       </c>
       <c r="K95" s="31"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="86"/>
       <c r="C96" s="29"/>
@@ -4675,32 +4774,32 @@
       <c r="J96" s="8"/>
       <c r="K96" s="31"/>
     </row>
-    <row r="97" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="28">
         <v>4</v>
       </c>
-      <c r="B97" s="160" t="s">
+      <c r="B97" s="94" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="161" t="s">
+      <c r="D97" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="162" t="s">
+      <c r="E97" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="162" t="s">
+      <c r="F97" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="162"/>
+      <c r="G97" s="96"/>
       <c r="H97" s="32"/>
       <c r="I97" s="33"/>
       <c r="J97" s="8"/>
       <c r="K97" s="31"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
       <c r="B98" s="85" t="s">
         <v>108</v>
@@ -4715,7 +4814,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="31"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="86" t="s">
         <v>134</v>
@@ -4731,572 +4830,1844 @@
       <c r="K99" s="4"/>
       <c r="M99" s="41"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="86"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="90"/>
+      <c r="B100" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="9">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D100" s="7">
+        <f>10.5/3.281</f>
+        <v>3.2002438281011885</v>
+      </c>
+      <c r="E100" s="7">
+        <v>2.46</v>
+      </c>
+      <c r="F100" s="7">
+        <f>PRODUCT(C100:E100)</f>
+        <v>78.725998171289234</v>
+      </c>
+      <c r="G100" s="90">
+        <f>F100/1000</f>
+        <v>7.8725998171289238E-2</v>
+      </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="4"/>
       <c r="M100" s="41"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="90"/>
+      <c r="B101" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="9">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D101" s="7">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E101" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" ref="F101:F103" si="13">PRODUCT(C101:E101)</f>
+        <v>23.407497714111546</v>
+      </c>
+      <c r="G101" s="90">
+        <f t="shared" ref="G101:G148" si="14">F101/1000</f>
+        <v>2.3407497714111547E-2</v>
+      </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="4"/>
       <c r="M101" s="41"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="86"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="90"/>
+      <c r="B102" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="9">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D102" s="7">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E102" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="13"/>
+        <v>6.8576653459311183</v>
+      </c>
+      <c r="G102" s="90">
+        <f t="shared" si="14"/>
+        <v>6.8576653459311186E-3</v>
+      </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
-      <c r="K102" s="4"/>
+      <c r="K102" s="97"/>
       <c r="M102" s="41"/>
     </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="160"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
+    <row r="103" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="9">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D103" s="7">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="E103" s="7">
+        <v>2.46</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="13"/>
+        <v>116.727</v>
+      </c>
+      <c r="G103" s="90">
+        <f t="shared" si="14"/>
+        <v>0.116727</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="8"/>
-      <c r="K103" s="31"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="28">
-        <v>5</v>
-      </c>
-      <c r="B104" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
+      <c r="K103" s="97"/>
+      <c r="M103" s="41"/>
+    </row>
+    <row r="104" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="10"/>
+      <c r="B104" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="9">
+        <v>2</v>
+      </c>
+      <c r="D104" s="7">
+        <v>14.147</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="F104" s="7">
+        <f t="shared" ref="F104:F108" si="15">PRODUCT(C104:E104)</f>
+        <v>54.324480000000001</v>
+      </c>
+      <c r="G104" s="90">
+        <f t="shared" si="14"/>
+        <v>5.4324480000000001E-2</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="8"/>
-      <c r="K104" s="31"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
+      <c r="K104" s="4"/>
+      <c r="M104" s="41"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="10"/>
       <c r="B105" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="29">
-        <v>9</v>
-      </c>
-      <c r="D105" s="30">
-        <f>11/3.281</f>
-        <v>3.3526363913441024</v>
-      </c>
-      <c r="E105" s="31">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
-      </c>
-      <c r="F105" s="31">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
+        <v>140</v>
+      </c>
+      <c r="C105" s="9">
+        <v>8</v>
+      </c>
+      <c r="D105" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="E105" s="7">
+        <v>3.56</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="15"/>
+        <v>410.11200000000002</v>
       </c>
       <c r="G105" s="90">
-        <f t="shared" ref="G105:G111" si="13">PRODUCT(C105:F105)</f>
-        <v>0.11678989331722038</v>
-      </c>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
+        <f t="shared" si="14"/>
+        <v>0.41011200000000003</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="K105" s="31"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K105" s="97"/>
+      <c r="M105" s="41"/>
+      <c r="O105">
+        <f>3.6+5*0.05-0.05</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C106" s="9">
-        <v>2</v>
-      </c>
-      <c r="D106" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="E106" s="7">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
-      </c>
-      <c r="F106" s="7">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G106" s="90">
-        <f t="shared" si="13"/>
-        <v>2.4771726220528492E-2</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
-      <c r="K106" s="4"/>
+      <c r="K106" s="97"/>
       <c r="M106" s="41"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="86" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C107" s="9">
-        <v>1</v>
+        <f>2*7</f>
+        <v>14</v>
       </c>
       <c r="D107" s="7">
-        <f>2*(5.75/3.281)+0.8</f>
-        <v>4.3050289545870157</v>
+        <v>2.375</v>
       </c>
       <c r="E107" s="7">
-        <f>2.25/12/3.281</f>
-        <v>5.7147211216092654E-2</v>
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F107" s="7">
-        <f>2.5/12/3.281</f>
-        <v>6.3496901351214066E-2</v>
+        <f t="shared" si="15"/>
+        <v>29.555555555555554</v>
       </c>
       <c r="G107" s="90">
-        <f t="shared" si="13"/>
-        <v>1.56215330030973E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.9555555555555554E-2</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
-      <c r="K107" s="4"/>
+      <c r="K107" s="97"/>
       <c r="M107" s="41"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="86"/>
+      <c r="B108" s="86" t="s">
+        <v>143</v>
+      </c>
       <c r="C108" s="9">
-        <v>2</v>
+        <f>2*9</f>
+        <v>18</v>
       </c>
       <c r="D108" s="7">
-        <f>2*(5.5/3.281)+2.5/3.281</f>
-        <v>4.1145992075586708</v>
+        <v>1.2</v>
       </c>
       <c r="E108" s="7">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F108" s="7">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
+        <f t="shared" si="15"/>
+        <v>19.199999999999996</v>
       </c>
       <c r="G108" s="90">
-        <f t="shared" si="13"/>
-        <v>3.1851789086514648E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
-      <c r="K108" s="4"/>
+      <c r="K108" s="97"/>
       <c r="M108" s="41"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" s="9">
-        <v>2</v>
-      </c>
-      <c r="D109" s="7">
-        <f>0.78+1.8*2</f>
-        <v>4.38</v>
-      </c>
-      <c r="E109" s="7">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
-      </c>
-      <c r="F109" s="7">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G109" s="90">
-        <f t="shared" si="13"/>
-        <v>3.390630026434837E-2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
-      <c r="K109" s="4"/>
+      <c r="K109" s="97"/>
       <c r="M109" s="41"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="86" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C110" s="9">
-        <v>2</v>
+        <f>10*3</f>
+        <v>30</v>
       </c>
       <c r="D110" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="E110" s="7"/>
+        <v>2.375</v>
+      </c>
+      <c r="E110" s="7">
+        <f>6*6/162</f>
+        <v>0.22222222222222221</v>
+      </c>
       <c r="F110" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="G110" s="90"/>
+        <f t="shared" ref="F110:F112" si="16">PRODUCT(C110:E110)</f>
+        <v>15.833333333333332</v>
+      </c>
+      <c r="G110" s="90">
+        <f t="shared" si="14"/>
+        <v>1.5833333333333331E-2</v>
+      </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
-      <c r="K110" s="4"/>
+      <c r="K110" s="97"/>
       <c r="M110" s="41"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="86" t="s">
-        <v>122</v>
-      </c>
+      <c r="B111" s="86"/>
       <c r="C111" s="9">
-        <v>1</v>
+        <f>10*4</f>
+        <v>40</v>
       </c>
       <c r="D111" s="7">
-        <f>0.78+2*(6/3.281)</f>
-        <v>4.4374215178299297</v>
+        <v>2.375</v>
       </c>
       <c r="E111" s="7">
-        <f>3.5/12/3.281</f>
-        <v>8.8895661891699687E-2</v>
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F111" s="7">
-        <f>2.5/12/3.281</f>
-        <v>6.3496901351214066E-2</v>
+        <f t="shared" ref="F111" si="17">PRODUCT(C111:E111)</f>
+        <v>84.444444444444443</v>
       </c>
       <c r="G111" s="90">
-        <f t="shared" si="13"/>
-        <v>2.504746538910662E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.4444444444444447E-2</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
-      <c r="K111" s="4"/>
+      <c r="K111" s="97"/>
       <c r="M111" s="41"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="86" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C112" s="9">
-        <v>1</v>
+        <f>10*2</f>
+        <v>20</v>
       </c>
       <c r="D112" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="E112" s="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="E112" s="7">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
       <c r="F112" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="G112" s="90"/>
+        <f t="shared" si="16"/>
+        <v>9.481481481481481</v>
+      </c>
+      <c r="G112" s="90">
+        <f t="shared" si="14"/>
+        <v>9.4814814814814814E-3</v>
+      </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
-      <c r="K112" s="4"/>
+      <c r="K112" s="97"/>
       <c r="M112" s="41"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="38">
-        <f>SUM(G105:G111)</f>
-        <v>0.24798870728081582</v>
-      </c>
-      <c r="H113" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I113" s="33"/>
-      <c r="J113" s="8">
-        <f>G113*I113</f>
-        <v>0</v>
-      </c>
-      <c r="K113" s="31"/>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="10"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="9">
+        <f>10*1</f>
+        <v>10</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E113" s="7">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F113" s="7">
+        <f t="shared" ref="F113:F114" si="18">PRODUCT(C113:E113)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G113" s="90">
+        <f t="shared" si="14"/>
+        <v>1.0666666666666666E-2</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="97"/>
+      <c r="M113" s="41"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="86"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="84"/>
+      <c r="B114" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="9">
+        <f>8*8</f>
+        <v>64</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="E114" s="7">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F114" s="7">
+        <f t="shared" si="18"/>
+        <v>12.389135802469134</v>
+      </c>
+      <c r="G114" s="90">
+        <f t="shared" si="14"/>
+        <v>1.2389135802469134E-2</v>
+      </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
-      <c r="K114" s="4"/>
+      <c r="K114" s="97"/>
       <c r="M114" s="41"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="27" t="s">
-        <v>17</v>
+      <c r="B115" s="86" t="s">
+        <v>146</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="84"/>
+      <c r="G115" s="90"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
-      <c r="J115" s="8">
+      <c r="J115" s="8"/>
+      <c r="K115" s="97"/>
+      <c r="M115" s="41"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="9">
+        <f>4*2+2*10</f>
+        <v>28</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E116" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F116" s="7">
+        <f t="shared" ref="F116" si="19">PRODUCT(C116:E116)</f>
+        <v>70.56</v>
+      </c>
+      <c r="G116" s="90">
+        <f t="shared" si="14"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="97"/>
+      <c r="M116" s="41"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="9">
+        <f>10*2+4*2</f>
+        <v>28</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E117" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F117" s="7">
+        <f t="shared" ref="F117" si="20">PRODUCT(C117:E117)</f>
+        <v>49.2744</v>
+      </c>
+      <c r="G117" s="90">
+        <f t="shared" si="14"/>
+        <v>4.9274400000000003E-2</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="97"/>
+      <c r="M117" s="41"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="10"/>
+      <c r="B118" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="90"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="97"/>
+      <c r="M118" s="41"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="10"/>
+      <c r="B119" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" s="9">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D119" s="7">
+        <f>1.2+3.5/3.281</f>
+        <v>2.266747942700396</v>
+      </c>
+      <c r="E119" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F119" s="7">
+        <f t="shared" ref="F119:F120" si="21">PRODUCT(C119:E119)</f>
+        <v>19.040682718683328</v>
+      </c>
+      <c r="G119" s="90">
+        <f t="shared" si="14"/>
+        <v>1.9040682718683328E-2</v>
+      </c>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="97"/>
+      <c r="M119" s="41"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="9">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E120" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F120" s="7">
+        <f t="shared" si="21"/>
+        <v>7.0392000000000001</v>
+      </c>
+      <c r="G120" s="90">
+        <f t="shared" si="14"/>
+        <v>7.0391999999999998E-3</v>
+      </c>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="97"/>
+      <c r="M120" s="41"/>
+    </row>
+    <row r="121" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="90"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="97"/>
+      <c r="M121" s="41"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="10"/>
+      <c r="B122" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" s="9">
+        <f>4*8</f>
+        <v>32</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="E122" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F122" s="7">
+        <f t="shared" ref="F122:F123" si="22">PRODUCT(C122:E122)</f>
+        <v>32.927999999999997</v>
+      </c>
+      <c r="G122" s="90">
+        <f t="shared" si="14"/>
+        <v>3.2927999999999999E-2</v>
+      </c>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="97"/>
+      <c r="M122" s="41"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="10"/>
+      <c r="B123" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="9">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D123" s="7">
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="E123" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F123" s="7">
+        <f t="shared" si="22"/>
+        <v>19.975200000000001</v>
+      </c>
+      <c r="G123" s="90">
+        <f t="shared" si="14"/>
+        <v>1.9975200000000002E-2</v>
+      </c>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="97"/>
+      <c r="M123" s="41"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="86"/>
+      <c r="C124" s="9">
+        <f t="shared" ref="C124:C126" si="23">2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D124" s="7">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="E124" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F124" s="7">
+        <f t="shared" ref="F124:F127" si="24">PRODUCT(C124:E124)</f>
+        <v>19.664400000000004</v>
+      </c>
+      <c r="G124" s="90">
+        <f t="shared" si="14"/>
+        <v>1.9664400000000005E-2</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="97"/>
+      <c r="M124" s="41"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="10"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="9">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="D125" s="7">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="E125" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F125" s="7">
+        <f t="shared" si="24"/>
+        <v>19.630800000000001</v>
+      </c>
+      <c r="G125" s="90">
+        <f t="shared" si="14"/>
+        <v>1.96308E-2</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="97"/>
+      <c r="M125" s="41"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="10"/>
+      <c r="B126" s="86"/>
+      <c r="C126" s="9">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="D126" s="7">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="E126" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F126" s="7">
+        <f t="shared" si="24"/>
+        <v>19.706400000000002</v>
+      </c>
+      <c r="G126" s="90">
+        <f t="shared" si="14"/>
+        <v>1.9706400000000002E-2</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="97"/>
+      <c r="M126" s="41"/>
+    </row>
+    <row r="127" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="10"/>
+      <c r="B127" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" s="9">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="E127" s="7">
+        <v>4.95</v>
+      </c>
+      <c r="F127" s="7">
+        <f t="shared" si="24"/>
+        <v>71.28</v>
+      </c>
+      <c r="G127" s="90">
+        <f t="shared" si="14"/>
+        <v>7.1279999999999996E-2</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="97"/>
+      <c r="M127" s="41"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="10"/>
+      <c r="B128" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="90"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="97"/>
+      <c r="M128" s="41"/>
+    </row>
+    <row r="129" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="10"/>
+      <c r="B129" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="97"/>
+      <c r="M129" s="41"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="10"/>
+      <c r="B130" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130" s="9">
+        <f>14*2</f>
+        <v>28</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E130" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F130" s="7">
+        <f t="shared" ref="F130:F131" si="25">PRODUCT(C130:E130)</f>
+        <v>70.56</v>
+      </c>
+      <c r="G130" s="90">
+        <f t="shared" si="14"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="97"/>
+      <c r="M130" s="41"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="10"/>
+      <c r="B131" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C131" s="9">
+        <f>14*2</f>
+        <v>28</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E131" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F131" s="7">
+        <f t="shared" si="25"/>
+        <v>49.2744</v>
+      </c>
+      <c r="G131" s="90">
+        <f t="shared" si="14"/>
+        <v>4.9274400000000003E-2</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="97"/>
+      <c r="M131" s="41"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="10"/>
+      <c r="B132" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="90"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="97"/>
+      <c r="M132" s="41"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="10"/>
+      <c r="B133" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="9">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D133" s="7">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E133" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F133" s="7">
+        <f t="shared" ref="F133:F134" si="26">PRODUCT(C133:E133)</f>
+        <v>16.641267906126181</v>
+      </c>
+      <c r="G133" s="90">
+        <f t="shared" si="14"/>
+        <v>1.6641267906126182E-2</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="97"/>
+      <c r="M133" s="41"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="10"/>
+      <c r="B134" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="9">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E134" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F134" s="7">
+        <f t="shared" si="26"/>
+        <v>7.0392000000000001</v>
+      </c>
+      <c r="G134" s="90">
+        <f t="shared" si="14"/>
+        <v>7.0391999999999998E-3</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="97"/>
+      <c r="M134" s="41"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="10"/>
+      <c r="B135" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="90"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="97"/>
+      <c r="M135" s="41"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="10"/>
+      <c r="B136" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="9">
+        <f>14*6</f>
+        <v>84</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E136" s="7">
+        <f>7*7/162</f>
+        <v>0.30246913580246915</v>
+      </c>
+      <c r="F136" s="7">
+        <f t="shared" ref="F136:F137" si="27">PRODUCT(C136:E136)</f>
+        <v>21.291407407407409</v>
+      </c>
+      <c r="G136" s="90">
+        <f t="shared" si="14"/>
+        <v>2.1291407407407408E-2</v>
+      </c>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="97"/>
+      <c r="M136" s="41"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="9">
+        <f>14*5</f>
+        <v>70</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E137" s="7">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F137" s="7">
+        <f t="shared" si="27"/>
+        <v>51.851851851851848</v>
+      </c>
+      <c r="G137" s="90">
+        <f t="shared" si="14"/>
+        <v>5.185185185185185E-2</v>
+      </c>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="97"/>
+      <c r="M137" s="41"/>
+    </row>
+    <row r="138" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="10"/>
+      <c r="B138" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="90"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="97"/>
+      <c r="M138" s="41"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="10"/>
+      <c r="B139" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="9">
+        <f>8*2*2</f>
+        <v>32</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E139" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F139" s="7">
+        <f t="shared" ref="F139:F140" si="28">PRODUCT(C139:E139)</f>
+        <v>20.16</v>
+      </c>
+      <c r="G139" s="90">
+        <f t="shared" si="14"/>
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="97"/>
+      <c r="M139" s="41"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="10"/>
+      <c r="B140" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" s="9">
+        <v>2</v>
+      </c>
+      <c r="D140" s="7">
+        <v>13.38</v>
+      </c>
+      <c r="E140" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F140" s="7">
+        <f t="shared" si="28"/>
+        <v>56.196000000000005</v>
+      </c>
+      <c r="G140" s="90">
+        <f t="shared" si="14"/>
+        <v>5.6196000000000003E-2</v>
+      </c>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="97"/>
+      <c r="M140" s="41"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="10"/>
+      <c r="B141" s="86"/>
+      <c r="C141" s="9">
+        <v>2</v>
+      </c>
+      <c r="D141" s="7">
+        <v>13.233000000000001</v>
+      </c>
+      <c r="E141" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F141" s="7">
+        <f t="shared" ref="F141" si="29">PRODUCT(C141:E141)</f>
+        <v>55.578600000000002</v>
+      </c>
+      <c r="G141" s="90">
+        <f t="shared" si="14"/>
+        <v>5.5578599999999999E-2</v>
+      </c>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="97"/>
+      <c r="M141" s="41"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="10"/>
+      <c r="B142" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="9">
+        <f>5*4*2*2</f>
+        <v>80</v>
+      </c>
+      <c r="D142" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E142" s="7">
+        <f>11*11/162</f>
+        <v>0.74691358024691357</v>
+      </c>
+      <c r="F142" s="7">
+        <f t="shared" ref="F142" si="30">PRODUCT(C142:E142)</f>
+        <v>17.925925925925924</v>
+      </c>
+      <c r="G142" s="90">
+        <f t="shared" si="14"/>
+        <v>1.7925925925925925E-2</v>
+      </c>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="97"/>
+      <c r="M142" s="41"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="10"/>
+      <c r="B143" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="9">
+        <f>6*8*2</f>
+        <v>96</v>
+      </c>
+      <c r="D143" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E143" s="7">
+        <f>11*11/162</f>
+        <v>0.74691358024691357</v>
+      </c>
+      <c r="F143" s="7">
+        <f t="shared" ref="F143:F144" si="31">PRODUCT(C143:E143)</f>
+        <v>43.022222222222219</v>
+      </c>
+      <c r="G143" s="90">
+        <f t="shared" si="14"/>
+        <v>4.3022222222222219E-2</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="97"/>
+      <c r="M143" s="41"/>
+    </row>
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="98"/>
+      <c r="B144" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="100">
+        <f>5*2*2</f>
+        <v>20</v>
+      </c>
+      <c r="D144" s="15">
+        <f>2.75+0.75</f>
+        <v>3.5</v>
+      </c>
+      <c r="E144" s="15">
+        <v>7.37</v>
+      </c>
+      <c r="F144" s="15">
+        <f t="shared" si="31"/>
+        <v>515.9</v>
+      </c>
+      <c r="G144" s="90">
+        <f t="shared" si="14"/>
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="H144" s="38"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="38"/>
+      <c r="K144" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="M144" s="19"/>
+    </row>
+    <row r="145" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="98"/>
+      <c r="B145" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="100"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="90"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="38"/>
+      <c r="K145" s="101"/>
+      <c r="M145" s="19"/>
+    </row>
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="98"/>
+      <c r="B146" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" s="100">
+        <f>2*5*2</f>
+        <v>20</v>
+      </c>
+      <c r="D146" s="15">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="E146" s="15">
+        <v>7.14</v>
+      </c>
+      <c r="F146" s="15">
+        <f t="shared" ref="F146" si="32">PRODUCT(C146:E146)</f>
+        <v>435.23316062176167</v>
+      </c>
+      <c r="G146" s="90">
+        <f t="shared" si="14"/>
+        <v>0.43523316062176165</v>
+      </c>
+      <c r="H146" s="38"/>
+      <c r="I146" s="38"/>
+      <c r="J146" s="38"/>
+      <c r="K146" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="M146" s="19"/>
+    </row>
+    <row r="147" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="10"/>
+      <c r="B147" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="100">
+        <f>6*2*2</f>
+        <v>24</v>
+      </c>
+      <c r="D147" s="15">
+        <f>((13.843+13.691)/2)/3.281</f>
+        <v>4.1959768363303871</v>
+      </c>
+      <c r="E147" s="15">
+        <v>7.14</v>
+      </c>
+      <c r="F147" s="15">
+        <f t="shared" ref="F147" si="33">PRODUCT(C147:E147)</f>
+        <v>719.022590673575</v>
+      </c>
+      <c r="G147" s="90">
+        <f t="shared" si="14"/>
+        <v>0.71902259067357499</v>
+      </c>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="97"/>
+      <c r="M147" s="41"/>
+    </row>
+    <row r="148" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="10"/>
+      <c r="B148" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" s="100">
+        <f>5*2</f>
+        <v>10</v>
+      </c>
+      <c r="D148" s="15">
+        <f>(4.75+7.667+4.75+1.5+2)/3.281</f>
+        <v>6.298994209082597</v>
+      </c>
+      <c r="E148" s="15">
+        <v>4.82</v>
+      </c>
+      <c r="F148" s="15">
+        <f t="shared" ref="F148" si="34">PRODUCT(C148:E148)</f>
+        <v>303.61152087778117</v>
+      </c>
+      <c r="G148" s="90">
+        <f t="shared" si="14"/>
+        <v>0.30361152087778115</v>
+      </c>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="97"/>
+      <c r="M148" s="41"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="28"/>
+      <c r="B149" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C149" s="29"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="38">
+        <f>SUM(G100:G148)</f>
+        <v>3.5841324887206163</v>
+      </c>
+      <c r="H149" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I149" s="33">
+        <v>3541.11</v>
+      </c>
+      <c r="J149" s="8">
+        <f>G149*I149</f>
+        <v>12691.807397133462</v>
+      </c>
+      <c r="K149" s="31"/>
+    </row>
+    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="28"/>
+      <c r="B150" s="94"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="31"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" s="28">
+        <v>5</v>
+      </c>
+      <c r="B151" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" s="29"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="31"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="28"/>
+      <c r="B152" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="29">
+        <v>9</v>
+      </c>
+      <c r="D152" s="30">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="E152" s="31">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F152" s="31">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G152" s="90">
+        <f t="shared" ref="G152:G158" si="35">PRODUCT(C152:F152)</f>
+        <v>0.11678989331722038</v>
+      </c>
+      <c r="H152" s="32"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="31"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" s="10"/>
+      <c r="B153" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="9">
+        <v>2</v>
+      </c>
+      <c r="D153" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E153" s="7">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F153" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G153" s="90">
+        <f t="shared" si="35"/>
+        <v>2.4771726220528492E-2</v>
+      </c>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="4"/>
+      <c r="M153" s="41"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="10"/>
+      <c r="B154" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="9">
+        <v>1</v>
+      </c>
+      <c r="D154" s="7">
+        <f>2*(5.75/3.281)+0.8</f>
+        <v>4.3050289545870157</v>
+      </c>
+      <c r="E154" s="7">
+        <f>2.25/12/3.281</f>
+        <v>5.7147211216092654E-2</v>
+      </c>
+      <c r="F154" s="7">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G154" s="90">
+        <f t="shared" si="35"/>
+        <v>1.56215330030973E-2</v>
+      </c>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="4"/>
+      <c r="M154" s="41"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="10"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="9">
+        <v>2</v>
+      </c>
+      <c r="D155" s="7">
+        <f>2*(5.5/3.281)+2.5/3.281</f>
+        <v>4.1145992075586708</v>
+      </c>
+      <c r="E155" s="7">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F155" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G155" s="90">
+        <f t="shared" si="35"/>
+        <v>3.1851789086514648E-2</v>
+      </c>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="4"/>
+      <c r="M155" s="41"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" s="10"/>
+      <c r="B156" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="9">
+        <v>2</v>
+      </c>
+      <c r="D156" s="7">
+        <f>0.78+1.8*2</f>
+        <v>4.38</v>
+      </c>
+      <c r="E156" s="7">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F156" s="7">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G156" s="90">
+        <f t="shared" si="35"/>
+        <v>3.390630026434837E-2</v>
+      </c>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="4"/>
+      <c r="M156" s="41"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="10"/>
+      <c r="B157" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="9">
+        <v>2</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G157" s="90"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="4"/>
+      <c r="M157" s="41"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="10"/>
+      <c r="B158" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="9">
+        <v>1</v>
+      </c>
+      <c r="D158" s="7">
+        <f>0.78+2*(6/3.281)</f>
+        <v>4.4374215178299297</v>
+      </c>
+      <c r="E158" s="7">
+        <f>3.5/12/3.281</f>
+        <v>8.8895661891699687E-2</v>
+      </c>
+      <c r="F158" s="7">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G158" s="90">
+        <f t="shared" si="35"/>
+        <v>2.504746538910662E-2</v>
+      </c>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="4"/>
+      <c r="M158" s="41"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="10"/>
+      <c r="B159" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="9">
+        <v>1</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G159" s="90"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="4"/>
+      <c r="M159" s="41"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="28"/>
+      <c r="B160" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" s="29"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="38">
+        <f>SUM(G152:G158)</f>
+        <v>0.24798870728081582</v>
+      </c>
+      <c r="H160" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I160" s="33"/>
+      <c r="J160" s="8">
+        <f>G160*I160</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="31"/>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A161" s="10"/>
+      <c r="B161" s="86"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="84"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="4"/>
+      <c r="M161" s="41"/>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A162" s="10"/>
+      <c r="B162" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="84"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8">
         <f>SUM(J10:J92)</f>
         <v>113426.32198961584</v>
       </c>
-      <c r="K115" s="4"/>
-      <c r="M115" s="41"/>
-      <c r="P115" s="48"/>
-      <c r="Q115" s="48"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M116" s="41"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="42"/>
-      <c r="P116" s="47"/>
-      <c r="R116" s="42"/>
-      <c r="S116" s="42"/>
-      <c r="T116" s="42"/>
-      <c r="U116" s="41"/>
-      <c r="V116" s="41"/>
-      <c r="W116" s="41"/>
-      <c r="X116" s="41"/>
-      <c r="Y116" s="41"/>
-      <c r="Z116" s="41"/>
-      <c r="AA116" s="41"/>
-      <c r="AB116" s="41"/>
-      <c r="AC116" s="41"/>
-      <c r="AD116" s="41"/>
-      <c r="AE116" s="41"/>
-    </row>
-    <row r="117" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="17" t="s">
+      <c r="K162" s="4"/>
+      <c r="M162" s="41"/>
+      <c r="P162" s="48"/>
+      <c r="Q162" s="48"/>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M163" s="41"/>
+      <c r="N163" s="42"/>
+      <c r="O163" s="42"/>
+      <c r="P163" s="47"/>
+      <c r="R163" s="42"/>
+      <c r="S163" s="42"/>
+      <c r="T163" s="42"/>
+      <c r="U163" s="41"/>
+      <c r="V163" s="41"/>
+      <c r="W163" s="41"/>
+      <c r="X163" s="41"/>
+      <c r="Y163" s="41"/>
+      <c r="Z163" s="41"/>
+      <c r="AA163" s="41"/>
+      <c r="AB163" s="41"/>
+      <c r="AC163" s="41"/>
+      <c r="AD163" s="41"/>
+      <c r="AE163" s="41"/>
+    </row>
+    <row r="164" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C117" s="94">
-        <f>J115</f>
+      <c r="C164" s="102">
+        <f>J162</f>
         <v>113426.32198961584</v>
       </c>
-      <c r="D117" s="95"/>
-      <c r="E117" s="15">
+      <c r="D164" s="103"/>
+      <c r="E164" s="15">
         <v>100</v>
       </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="21"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="23"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="42"/>
-      <c r="P117" s="42"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="42"/>
-      <c r="T117" s="42"/>
-      <c r="U117" s="19"/>
-      <c r="V117" s="19"/>
-      <c r="W117" s="19"/>
-      <c r="X117" s="19"/>
-      <c r="Y117" s="19"/>
-      <c r="Z117" s="19"/>
-      <c r="AA117" s="19"/>
-      <c r="AB117" s="19"/>
-      <c r="AC117" s="19"/>
-      <c r="AD117" s="19"/>
-      <c r="AE117" s="19"/>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="22"/>
+      <c r="K164" s="23"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="42"/>
+      <c r="O164" s="42"/>
+      <c r="P164" s="42"/>
+      <c r="Q164" s="42"/>
+      <c r="R164" s="42"/>
+      <c r="S164" s="42"/>
+      <c r="T164" s="42"/>
+      <c r="U164" s="19"/>
+      <c r="V164" s="19"/>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
+      <c r="Y164" s="19"/>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="19"/>
+      <c r="AB164" s="19"/>
+      <c r="AC164" s="19"/>
+      <c r="AD164" s="19"/>
+      <c r="AE164" s="19"/>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B165" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="98">
+      <c r="C165" s="106">
         <v>150000</v>
       </c>
-      <c r="D118" s="99"/>
-      <c r="E118" s="15"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="42"/>
-      <c r="O118" s="42"/>
-      <c r="P118" s="42"/>
-      <c r="Q118" s="42"/>
-      <c r="R118" s="42"/>
-      <c r="S118" s="42"/>
-      <c r="T118" s="42"/>
-      <c r="U118" s="41"/>
-      <c r="V118" s="41"/>
-      <c r="W118" s="41"/>
-      <c r="X118" s="41"/>
-      <c r="Y118" s="41"/>
-      <c r="Z118" s="41"/>
-      <c r="AA118" s="41"/>
-      <c r="AB118" s="41"/>
-      <c r="AC118" s="41"/>
-      <c r="AD118" s="41"/>
-      <c r="AE118" s="41"/>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
+      <c r="D165" s="107"/>
+      <c r="E165" s="15"/>
+      <c r="M165" s="41"/>
+      <c r="N165" s="42"/>
+      <c r="O165" s="42"/>
+      <c r="P165" s="42"/>
+      <c r="Q165" s="42"/>
+      <c r="R165" s="42"/>
+      <c r="S165" s="42"/>
+      <c r="T165" s="42"/>
+      <c r="U165" s="41"/>
+      <c r="V165" s="41"/>
+      <c r="W165" s="41"/>
+      <c r="X165" s="41"/>
+      <c r="Y165" s="41"/>
+      <c r="Z165" s="41"/>
+      <c r="AA165" s="41"/>
+      <c r="AB165" s="41"/>
+      <c r="AC165" s="41"/>
+      <c r="AD165" s="41"/>
+      <c r="AE165" s="41"/>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B166" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="98">
-        <f>C118-C121-C122</f>
+      <c r="C166" s="106">
+        <f>C165-C168-C169</f>
         <v>142500</v>
       </c>
-      <c r="D119" s="99"/>
-      <c r="E119" s="15">
-        <f>C119/C117*100</f>
+      <c r="D166" s="107"/>
+      <c r="E166" s="15">
+        <f>C166/C164*100</f>
         <v>125.63221437528922</v>
       </c>
-      <c r="M119" s="41"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="41"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="41"/>
-      <c r="R119" s="41"/>
-      <c r="S119" s="41"/>
-      <c r="T119" s="41"/>
-      <c r="U119" s="41"/>
-      <c r="V119" s="41"/>
-      <c r="W119" s="41"/>
-      <c r="X119" s="41"/>
-      <c r="Y119" s="41"/>
-      <c r="Z119" s="41"/>
-      <c r="AA119" s="41"/>
-      <c r="AB119" s="41"/>
-      <c r="AC119" s="41"/>
-      <c r="AD119" s="41"/>
-      <c r="AE119" s="41"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B120" s="17" t="s">
+      <c r="M166" s="41"/>
+      <c r="N166" s="41"/>
+      <c r="O166" s="41"/>
+      <c r="P166" s="41"/>
+      <c r="Q166" s="41"/>
+      <c r="R166" s="41"/>
+      <c r="S166" s="41"/>
+      <c r="T166" s="41"/>
+      <c r="U166" s="41"/>
+      <c r="V166" s="41"/>
+      <c r="W166" s="41"/>
+      <c r="X166" s="41"/>
+      <c r="Y166" s="41"/>
+      <c r="Z166" s="41"/>
+      <c r="AA166" s="41"/>
+      <c r="AB166" s="41"/>
+      <c r="AC166" s="41"/>
+      <c r="AD166" s="41"/>
+      <c r="AE166" s="41"/>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B167" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="100">
-        <f>C117-C119</f>
+      <c r="C167" s="108">
+        <f>C164-C166</f>
         <v>-29073.678010384159</v>
       </c>
-      <c r="D120" s="100"/>
-      <c r="E120" s="15">
-        <f>100-E119</f>
+      <c r="D167" s="108"/>
+      <c r="E167" s="15">
+        <f>100-E166</f>
         <v>-25.632214375289223</v>
       </c>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="41"/>
-      <c r="P120" s="41"/>
-      <c r="Q120" s="41"/>
-      <c r="R120" s="41"/>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="41"/>
-      <c r="X120" s="41"/>
-      <c r="Y120" s="41"/>
-      <c r="Z120" s="41"/>
-      <c r="AA120" s="41"/>
-      <c r="AB120" s="41"/>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41"/>
-      <c r="AE120" s="41"/>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B121" s="17" t="s">
+      <c r="M167" s="41"/>
+      <c r="N167" s="41"/>
+      <c r="O167" s="41"/>
+      <c r="P167" s="41"/>
+      <c r="Q167" s="41"/>
+      <c r="R167" s="41"/>
+      <c r="S167" s="41"/>
+      <c r="T167" s="41"/>
+      <c r="U167" s="41"/>
+      <c r="V167" s="41"/>
+      <c r="W167" s="41"/>
+      <c r="X167" s="41"/>
+      <c r="Y167" s="41"/>
+      <c r="Z167" s="41"/>
+      <c r="AA167" s="41"/>
+      <c r="AB167" s="41"/>
+      <c r="AC167" s="41"/>
+      <c r="AD167" s="41"/>
+      <c r="AE167" s="41"/>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B168" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="94">
-        <f>C118*0.03</f>
+      <c r="C168" s="102">
+        <f>C165*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D121" s="95"/>
-      <c r="E121" s="15">
+      <c r="D168" s="103"/>
+      <c r="E168" s="15">
         <v>3</v>
       </c>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="41"/>
-      <c r="P121" s="41"/>
-      <c r="Q121" s="41"/>
-      <c r="R121" s="41"/>
-      <c r="S121" s="41"/>
-      <c r="T121" s="41"/>
-      <c r="U121" s="41"/>
-      <c r="V121" s="41"/>
-      <c r="W121" s="41"/>
-      <c r="X121" s="41"/>
-      <c r="Y121" s="41"/>
-      <c r="Z121" s="41"/>
-      <c r="AA121" s="41"/>
-      <c r="AB121" s="41"/>
-      <c r="AC121" s="41"/>
-      <c r="AD121" s="41"/>
-      <c r="AE121" s="41"/>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
+      <c r="M168" s="41"/>
+      <c r="N168" s="41"/>
+      <c r="O168" s="41"/>
+      <c r="P168" s="41"/>
+      <c r="Q168" s="41"/>
+      <c r="R168" s="41"/>
+      <c r="S168" s="41"/>
+      <c r="T168" s="41"/>
+      <c r="U168" s="41"/>
+      <c r="V168" s="41"/>
+      <c r="W168" s="41"/>
+      <c r="X168" s="41"/>
+      <c r="Y168" s="41"/>
+      <c r="Z168" s="41"/>
+      <c r="AA168" s="41"/>
+      <c r="AB168" s="41"/>
+      <c r="AC168" s="41"/>
+      <c r="AD168" s="41"/>
+      <c r="AE168" s="41"/>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B169" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="94">
-        <f>C118*0.02</f>
+      <c r="C169" s="102">
+        <f>C165*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D122" s="95"/>
-      <c r="E122" s="15">
+      <c r="D169" s="103"/>
+      <c r="E169" s="15">
         <v>2</v>
       </c>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="41"/>
-      <c r="T122" s="41"/>
-      <c r="U122" s="41"/>
-      <c r="V122" s="41"/>
-      <c r="W122" s="41"/>
-      <c r="X122" s="41"/>
-      <c r="Y122" s="41"/>
-      <c r="Z122" s="41"/>
-      <c r="AA122" s="41"/>
-      <c r="AB122" s="41"/>
-      <c r="AC122" s="41"/>
-      <c r="AD122" s="41"/>
-      <c r="AE122" s="41"/>
+      <c r="M169" s="41"/>
+      <c r="N169" s="41"/>
+      <c r="O169" s="41"/>
+      <c r="P169" s="41"/>
+      <c r="Q169" s="41"/>
+      <c r="R169" s="41"/>
+      <c r="S169" s="41"/>
+      <c r="T169" s="41"/>
+      <c r="U169" s="41"/>
+      <c r="V169" s="41"/>
+      <c r="W169" s="41"/>
+      <c r="X169" s="41"/>
+      <c r="Y169" s="41"/>
+      <c r="Z169" s="41"/>
+      <c r="AA169" s="41"/>
+      <c r="AB169" s="41"/>
+      <c r="AC169" s="41"/>
+      <c r="AD169" s="41"/>
+      <c r="AE169" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5307,14 +6678,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5337,106 +6708,106 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="113" t="e">
+      <c r="C6" s="121" t="e">
         <f>F30</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5444,90 +6815,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="113" t="e">
+      <c r="J6" s="121" t="e">
         <f>I30</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="114"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="122"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="I7" s="110" t="s">
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="I7" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="e">
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="116" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="I8" s="111" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="I8" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="e">
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="116" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="I9" s="111" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="I9" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112" t="s">
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="106" t="s">
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="115" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
@@ -5546,10 +6917,10 @@
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5596,7 +6967,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="43" t="e">
         <f>new!#REF!</f>
@@ -5625,7 +6996,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="40"/>
       <c r="C15" s="15"/>
@@ -5638,7 +7009,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5681,7 +7052,7 @@
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="43" t="e">
         <f>new!#REF!</f>
@@ -5706,7 +7077,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="40"/>
       <c r="C18" s="15"/>
@@ -5723,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5766,7 +7137,7 @@
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="43" t="e">
         <f>new!#REF!</f>
@@ -5791,7 +7162,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="40"/>
       <c r="C21" s="15"/>
@@ -5808,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5851,7 +7222,7 @@
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="43" t="e">
         <f>new!#REF!</f>
@@ -5876,7 +7247,7 @@
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="40"/>
       <c r="C24" s="15"/>
@@ -5893,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="e">
         <f>new!#REF!</f>
         <v>#REF!</v>
@@ -5936,7 +7307,7 @@
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="e">
         <f>new!#REF!</f>
@@ -5961,7 +7332,7 @@
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="40"/>
       <c r="C27" s="15"/>
@@ -5978,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>new!A10</f>
         <v>1</v>
@@ -6021,7 +7392,7 @@
       </c>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="15"/>
@@ -6034,7 +7405,7 @@
       <c r="J29" s="36"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -6104,120 +7475,120 @@
       <selection activeCell="A54" sqref="A54:U63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="155" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="156" t="s">
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="164" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="156"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="164"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="156"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="164"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159" t="s">
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159" t="s">
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159" t="s">
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="166"/>
       <c r="B5" s="56" t="s">
         <v>51</v>
       </c>
@@ -6279,7 +7650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>52</v>
       </c>
@@ -6326,7 +7697,7 @@
       <c r="T6" s="61"/>
       <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="56" t="s">
         <v>57</v>
@@ -6360,93 +7731,93 @@
       <c r="T7" s="61"/>
       <c r="U7" s="63"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="60">
         <f>SUM(F5:F7)</f>
         <v>3900</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
       <c r="K8" s="60">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="129" t="s">
+      <c r="L8" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
       <c r="P8" s="60">
         <f>SUM(P5:P7)</f>
         <v>18426</v>
       </c>
-      <c r="Q8" s="129" t="s">
+      <c r="Q8" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
       <c r="U8" s="64">
         <f>SUM(U5:U7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="60">
         <f>SUM(F8+K8+P8)</f>
         <v>22326</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
       <c r="K9" s="60">
         <f>SUM(F8+K8+P8+U8)</f>
         <v>22326</v>
       </c>
-      <c r="L9" s="129" t="s">
+      <c r="L9" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
       <c r="P9" s="60">
         <f>SUM(K9*0.15)</f>
         <v>3348.9</v>
       </c>
-      <c r="Q9" s="129" t="s">
+      <c r="Q9" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
       <c r="U9" s="64">
         <f>SUM(K9+P9)</f>
         <v>25674.9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -6463,152 +7834,152 @@
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="129" t="s">
+      <c r="Q10" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
       <c r="U10" s="65">
         <f>ROUND((U9/360),2)</f>
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="135" t="s">
+      <c r="B12" s="140"/>
+      <c r="C12" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="144" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="152" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="140"/>
-      <c r="U13" s="145"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="147" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="141"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="153"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="146"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="154"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="151" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="151" t="s">
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="151" t="s">
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="153"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="161"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="158"/>
       <c r="B16" s="66" t="s">
         <v>51</v>
       </c>
@@ -6670,7 +8041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
         <v>69</v>
       </c>
@@ -6717,7 +8088,7 @@
       <c r="T17" s="72"/>
       <c r="U17" s="73"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="72"/>
       <c r="B18" s="66" t="s">
         <v>57</v>
@@ -6753,93 +8124,93 @@
       <c r="T18" s="72"/>
       <c r="U18" s="73"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="126" t="s">
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="70">
         <f>SUM(F16:F18)</f>
         <v>7200</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
       <c r="K19" s="70">
         <f>SUM(K16:K18)</f>
         <v>14817.599999999999</v>
       </c>
-      <c r="L19" s="126" t="s">
+      <c r="L19" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="128"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="136"/>
       <c r="P19" s="70">
         <f>SUM(P16:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="126" t="s">
+      <c r="Q19" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="128"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="136"/>
       <c r="U19" s="74">
         <f>SUM(U16:U18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="126" t="s">
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
       <c r="F20" s="70">
         <f>SUM(F19+K19+P19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="G20" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="136"/>
       <c r="K20" s="70">
         <f>SUM(F19+K19+P19+U19)</f>
         <v>22017.599999999999</v>
       </c>
-      <c r="L20" s="126" t="s">
+      <c r="L20" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="128"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="136"/>
       <c r="P20" s="70">
         <f>SUM(K20*0.15)</f>
         <v>3302.64</v>
       </c>
-      <c r="Q20" s="126" t="s">
+      <c r="Q20" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="128"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="136"/>
       <c r="U20" s="74">
         <f>SUM(K20+P20)</f>
         <v>25320.239999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -6856,18 +8227,18 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
-      <c r="Q21" s="126" t="s">
+      <c r="Q21" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="128"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="136"/>
       <c r="U21" s="76">
         <f>ROUND((U20/5),2)</f>
         <v>5064.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -6890,118 +8261,118 @@
       <c r="T22" s="79"/>
       <c r="U22" s="76"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="123" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="124" t="s">
+      <c r="B24" s="131"/>
+      <c r="C24" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="119" t="s">
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="127" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="119"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="127"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="119"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="127"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122" t="s">
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122" t="s">
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="129"/>
       <c r="B28" s="49" t="s">
         <v>51</v>
       </c>
@@ -7063,7 +8434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A29" s="52" t="s">
         <v>73</v>
       </c>
@@ -7126,7 +8497,7 @@
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="49" t="s">
         <v>57</v>
@@ -7182,7 +8553,7 @@
       <c r="T30" s="45"/>
       <c r="U30" s="44"/>
     </row>
-    <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -7216,7 +8587,7 @@
       <c r="T31" s="45"/>
       <c r="U31" s="44"/>
     </row>
-    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -7250,7 +8621,7 @@
       <c r="T32" s="45"/>
       <c r="U32" s="44"/>
     </row>
-    <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -7284,7 +8655,7 @@
       <c r="T33" s="45"/>
       <c r="U33" s="44"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -7318,93 +8689,93 @@
       <c r="T34" s="45"/>
       <c r="U34" s="44"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="118" t="s">
+    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="53">
         <f>SUM(F28:F34)</f>
         <v>30600</v>
       </c>
-      <c r="G35" s="118" t="s">
+      <c r="G35" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
       <c r="K35" s="53">
         <f>SUM(K28:K34)</f>
         <v>123072.666</v>
       </c>
-      <c r="L35" s="118" t="s">
+      <c r="L35" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
       <c r="P35" s="53">
         <f>SUM(P28:P34)</f>
         <v>6804</v>
       </c>
-      <c r="Q35" s="118" t="s">
+      <c r="Q35" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
       <c r="U35" s="54">
         <f>SUM(U28:U34)</f>
         <v>6419.06664</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
+    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="53">
         <f>SUM(F35+K35+P35)</f>
         <v>160476.666</v>
       </c>
-      <c r="G36" s="118" t="s">
+      <c r="G36" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
       <c r="K36" s="53">
         <f>SUM(F35+K35+P35+U35)</f>
         <v>166895.73264</v>
       </c>
-      <c r="L36" s="118" t="s">
+      <c r="L36" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
       <c r="P36" s="53">
         <f>SUM(K36*0.15)</f>
         <v>25034.359895999998</v>
       </c>
-      <c r="Q36" s="118" t="s">
+      <c r="Q36" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
       <c r="U36" s="54">
         <f>SUM(K36+P36)</f>
         <v>191930.09253600001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -7421,152 +8792,152 @@
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
-      <c r="Q37" s="118" t="s">
+      <c r="Q37" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
       <c r="U37" s="55">
         <f>ROUND((U36/15),2)</f>
         <v>12795.34</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="125"/>
-      <c r="T38" s="125"/>
-      <c r="U38" s="125"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="123" t="s">
+    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="133"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="133"/>
+      <c r="U38" s="133"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="124" t="s">
+      <c r="B40" s="131"/>
+      <c r="C40" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="119" t="s">
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="132"/>
+      <c r="S40" s="132"/>
+      <c r="T40" s="132"/>
+      <c r="U40" s="127" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="123"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="119"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="120" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="132"/>
+      <c r="U41" s="127"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="124"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="124"/>
-      <c r="U42" s="119"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="121" t="s">
+      <c r="B42" s="128"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="132"/>
+      <c r="S42" s="132"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="127"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122" t="s">
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122" t="s">
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122" t="s">
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="129"/>
       <c r="B44" s="49" t="s">
         <v>51</v>
       </c>
@@ -7628,7 +8999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="52" t="s">
         <v>83</v>
       </c>
@@ -7691,7 +9062,7 @@
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="49" t="s">
         <v>57</v>
@@ -7747,7 +9118,7 @@
       <c r="T46" s="45"/>
       <c r="U46" s="44"/>
     </row>
-    <row r="47" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -7781,7 +9152,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="44"/>
     </row>
-    <row r="48" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -7815,7 +9186,7 @@
       <c r="T48" s="45"/>
       <c r="U48" s="44"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -7849,93 +9220,93 @@
       <c r="T49" s="45"/>
       <c r="U49" s="44"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="118" t="s">
+    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="53">
         <f>SUM(F44:F49)</f>
         <v>30600</v>
       </c>
-      <c r="G50" s="118" t="s">
+      <c r="G50" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
       <c r="K50" s="53">
         <f>SUM(K44:K49)</f>
         <v>137739.842</v>
       </c>
-      <c r="L50" s="118" t="s">
+      <c r="L50" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="126"/>
       <c r="P50" s="53">
         <f>SUM(P44:P49)</f>
         <v>6804</v>
       </c>
-      <c r="Q50" s="118" t="s">
+      <c r="Q50" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="118"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="118"/>
+      <c r="R50" s="126"/>
+      <c r="S50" s="126"/>
+      <c r="T50" s="126"/>
       <c r="U50" s="54">
         <f>SUM(U44:U49)</f>
         <v>7005.7536799999998</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="118" t="s">
+    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="53">
         <f>SUM(F50+K50+P50)</f>
         <v>175143.842</v>
       </c>
-      <c r="G51" s="118" t="s">
+      <c r="G51" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
       <c r="K51" s="53">
         <f>SUM(F50+K50+P50+U50)</f>
         <v>182149.59568</v>
       </c>
-      <c r="L51" s="118" t="s">
+      <c r="L51" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="126"/>
       <c r="P51" s="53">
         <f>SUM(K51*0.15)</f>
         <v>27322.439351999998</v>
       </c>
-      <c r="Q51" s="118" t="s">
+      <c r="Q51" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="118"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="126"/>
+      <c r="T51" s="126"/>
       <c r="U51" s="54">
         <f>SUM(K51+P51)</f>
         <v>209472.03503199999</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -7952,129 +9323,129 @@
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
-      <c r="Q52" s="118" t="s">
+      <c r="Q52" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="126"/>
+      <c r="T52" s="126"/>
       <c r="U52" s="55">
         <f>ROUND((U51/15),2)</f>
         <v>13964.8</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="123" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="124" t="s">
+      <c r="B54" s="131"/>
+      <c r="C54" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="124"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="119" t="s">
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
+      <c r="S54" s="132"/>
+      <c r="T54" s="132"/>
+      <c r="U54" s="127" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="123"/>
-      <c r="B55" s="123"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="124"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="119"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="120" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="131"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
+      <c r="S55" s="132"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="127"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="124"/>
-      <c r="S56" s="124"/>
-      <c r="T56" s="124"/>
-      <c r="U56" s="119"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="121" t="s">
+      <c r="B56" s="128"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="132"/>
+      <c r="T56" s="132"/>
+      <c r="U56" s="127"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122" t="s">
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122" t="s">
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122" t="s">
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="130"/>
+      <c r="U57" s="130"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="129"/>
       <c r="B58" s="49" t="s">
         <v>51</v>
       </c>
@@ -8136,7 +9507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="52" t="s">
         <v>87</v>
       </c>
@@ -8183,7 +9554,7 @@
       <c r="T59" s="45"/>
       <c r="U59" s="44"/>
     </row>
-    <row r="60" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="49" t="s">
         <v>57</v>
@@ -8228,93 +9599,93 @@
       <c r="T60" s="45"/>
       <c r="U60" s="44"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="118" t="s">
+    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
       <c r="F61" s="53">
         <f>SUM(F58:F60)</f>
         <v>12900</v>
       </c>
-      <c r="G61" s="118" t="s">
+      <c r="G61" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
       <c r="K61" s="53">
         <f>SUM(K58:K60)</f>
         <v>109748.00000000001</v>
       </c>
-      <c r="L61" s="118" t="s">
+      <c r="L61" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="126"/>
       <c r="P61" s="53">
         <f>SUM(P58:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="118" t="s">
+      <c r="Q61" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
+      <c r="R61" s="126"/>
+      <c r="S61" s="126"/>
+      <c r="T61" s="126"/>
       <c r="U61" s="54">
         <f>SUM(U58:U60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="118" t="s">
+    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
       <c r="F62" s="53">
         <f>SUM(F61+K61+P61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="G62" s="118" t="s">
+      <c r="G62" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
       <c r="K62" s="53">
         <f>SUM(F61+K61+P61+U61)</f>
         <v>122648.00000000001</v>
       </c>
-      <c r="L62" s="118" t="s">
+      <c r="L62" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
+      <c r="M62" s="126"/>
+      <c r="N62" s="126"/>
+      <c r="O62" s="126"/>
       <c r="P62" s="53">
         <f>SUM(K62*0.15)</f>
         <v>18397.2</v>
       </c>
-      <c r="Q62" s="118" t="s">
+      <c r="Q62" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="R62" s="118"/>
-      <c r="S62" s="118"/>
-      <c r="T62" s="118"/>
+      <c r="R62" s="126"/>
+      <c r="S62" s="126"/>
+      <c r="T62" s="126"/>
       <c r="U62" s="54">
         <f>SUM(K62+P62)</f>
         <v>141045.20000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -8331,12 +9702,12 @@
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
       <c r="P63" s="45"/>
-      <c r="Q63" s="118" t="s">
+      <c r="Q63" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="R63" s="118"/>
-      <c r="S63" s="118"/>
-      <c r="T63" s="118"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="126"/>
       <c r="U63" s="55">
         <f>ROUND((U62/1),2)</f>
         <v>141045.20000000001</v>
